--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533569\Harshitha_Chetty_Ragava\44663\Mvc\SpreadSheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Degree" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Credit" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="DegreeCredit" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="DegreePlan" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Student" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Slot" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="StudentTerm" sheetId="7" r:id="rId9"/>
+    <sheet name="Degree" sheetId="1" r:id="rId1"/>
+    <sheet name="Credit" sheetId="2" r:id="rId2"/>
+    <sheet name="DegreeCredit" sheetId="3" r:id="rId3"/>
+    <sheet name="DegreePlan" sheetId="4" r:id="rId4"/>
+    <sheet name="Student" sheetId="5" r:id="rId5"/>
+    <sheet name="Slot" sheetId="6" r:id="rId6"/>
+    <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -316,21 +324,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -340,7 +352,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -362,112 +374,342 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.29"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
-    <col customWidth="1" min="3" max="3" width="18.29"/>
-    <col customWidth="1" min="4" max="4" width="11.14"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -481,9 +723,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -492,9 +734,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -503,9 +745,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -514,9 +756,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1506,31 +1748,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="12.86"/>
-    <col customWidth="1" min="3" max="3" width="22.14"/>
-    <col customWidth="1" min="4" max="4" width="9.86"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1550,9 +1788,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1561,18 +1799,18 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1581,18 +1819,18 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -1601,18 +1839,18 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
@@ -1621,18 +1859,18 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1641,18 +1879,18 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
@@ -1661,18 +1899,18 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
@@ -1681,18 +1919,18 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
@@ -1701,18 +1939,18 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -1721,18 +1959,18 @@
         <v>36</v>
       </c>
       <c r="D10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>692.0</v>
+        <v>692</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>37</v>
@@ -1741,18 +1979,18 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -1761,18 +1999,18 @@
         <v>40</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -1781,18 +2019,18 @@
         <v>42</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
@@ -1801,13 +2039,13 @@
         <v>44</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2792,35 +3030,31 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B11"/>
+    <hyperlink ref="B11" r:id="rId1"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.86"/>
-    <col customWidth="1" min="2" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="4" width="23.71"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2831,549 +3065,549 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>460.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>356.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>460.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>356.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>542.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>563.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>664.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>618.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>691.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>692.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4311,30 +4545,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="13.29"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="17.57"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -4351,12 +4583,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="B2">
-        <v>533725.0</v>
+        <v>533569</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -4365,15 +4597,15 @@
         <v>58</v>
       </c>
       <c r="E2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>7252.0</v>
+        <v>7252</v>
       </c>
       <c r="B3">
-        <v>533725.0</v>
+        <v>533569</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -4382,7 +4614,7 @@
         <v>61</v>
       </c>
       <c r="E3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5366,32 +5598,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.86"/>
-    <col customWidth="1" min="2" max="2" width="12.14"/>
-    <col customWidth="1" min="3" max="3" width="13.71"/>
-    <col customWidth="1" min="4" max="4" width="8.71"/>
-    <col customWidth="1" min="5" max="5" width="11.43"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -5405,12 +5633,12 @@
         <v>55</v>
       </c>
       <c r="E1">
-        <v>919.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>533569.0</v>
+        <v>533569</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>63</v>
@@ -5422,12 +5650,12 @@
         <v>65</v>
       </c>
       <c r="E2" s="3">
-        <v>9.19568034E8</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>919568034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
-        <v>533982.0</v>
+        <v>533982</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -5439,12 +5667,12 @@
         <v>68</v>
       </c>
       <c r="E3" s="4">
-        <v>9.1956911E8</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>919569110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
-        <v>533573.0</v>
+        <v>533573</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>69</v>
@@ -5456,7 +5684,7 @@
         <v>71</v>
       </c>
       <c r="E4" s="5">
-        <v>9.19570332E8</v>
+        <v>919570332</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6440,30 +6668,26 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="11.29"/>
-    <col customWidth="1" min="3" max="3" width="9.29"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -6480,188 +6704,188 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>692.0</v>
+        <v>692</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C11" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>7251.0</v>
+        <v>7251</v>
       </c>
       <c r="C12" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>62</v>
@@ -7648,32 +7872,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.57"/>
-    <col customWidth="1" min="2" max="2" width="9.86"/>
-    <col customWidth="1" min="3" max="3" width="12.57"/>
-    <col customWidth="1" min="4" max="4" width="12.0"/>
-    <col customWidth="1" min="5" max="5" width="12.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>72</v>
       </c>
@@ -7690,15 +7910,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>533569.0</v>
+        <v>533569</v>
       </c>
       <c r="C2" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>76</v>
@@ -7707,15 +7927,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>533569.0</v>
+        <v>533569</v>
       </c>
       <c r="C3" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>78</v>
@@ -7724,15 +7944,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>533569.0</v>
+        <v>533569</v>
       </c>
       <c r="C4" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>80</v>
@@ -7741,15 +7961,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>533569.0</v>
+        <v>533569</v>
       </c>
       <c r="C5" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>82</v>
@@ -7758,15 +7978,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>533573.0</v>
+        <v>533573</v>
       </c>
       <c r="C6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>78</v>
@@ -7775,15 +7995,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>533573.0</v>
+        <v>533573</v>
       </c>
       <c r="C7" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>80</v>
@@ -7792,15 +8012,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>533573.0</v>
+        <v>533573</v>
       </c>
       <c r="C8" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>82</v>
@@ -7809,15 +8029,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>533573.0</v>
+        <v>533573</v>
       </c>
       <c r="C9" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>84</v>
@@ -7826,15 +8046,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>533982.0</v>
+        <v>533982</v>
       </c>
       <c r="C10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>76</v>
@@ -7843,15 +8063,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>533982.0</v>
+        <v>533982</v>
       </c>
       <c r="C11" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>78</v>
@@ -7860,15 +8080,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" s="8">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>533982.0</v>
+        <v>533982</v>
       </c>
       <c r="C12" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>82</v>
@@ -7877,15 +8097,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" s="8">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>533982.0</v>
+        <v>533982</v>
       </c>
       <c r="C13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>84</v>
@@ -7894,15 +8114,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="8">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>533982.0</v>
+        <v>533982</v>
       </c>
       <c r="C14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>86</v>
@@ -7911,15 +8131,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" s="8">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>533982.0</v>
+        <v>533982</v>
       </c>
       <c r="C15" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>88</v>
@@ -7928,15 +8148,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>533982.0</v>
+        <v>533982</v>
       </c>
       <c r="C16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>90</v>
@@ -7945,15 +8165,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" s="8">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>533982.0</v>
+        <v>533982</v>
       </c>
       <c r="C17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>92</v>
@@ -7962,15 +8182,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" s="8">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>533573.0</v>
+        <v>533573</v>
       </c>
       <c r="C18" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>94</v>
@@ -7979,15 +8199,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" s="8">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>533573.0</v>
+        <v>533573</v>
       </c>
       <c r="C19" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>96</v>
@@ -7996,15 +8216,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20" s="8">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>533573.0</v>
+        <v>533573</v>
       </c>
       <c r="C20" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>76</v>
@@ -8013,15 +8233,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>533573.0</v>
+        <v>533573</v>
       </c>
       <c r="C21" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>78</v>
@@ -8030,15 +8250,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="8">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>533573.0</v>
+        <v>533573</v>
       </c>
       <c r="C22" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>78</v>
@@ -8047,15 +8267,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="8">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="14">
-        <v>533569.0</v>
+        <v>533569</v>
       </c>
       <c r="C23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>78</v>
@@ -8064,15 +8284,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="8">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="14">
-        <v>533569.0</v>
+        <v>533569</v>
       </c>
       <c r="C24" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>80</v>
@@ -8081,15 +8301,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="8">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="14">
-        <v>533569.0</v>
+        <v>533569</v>
       </c>
       <c r="C25" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>82</v>
@@ -8098,15 +8318,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="14">
-        <v>533569.0</v>
+        <v>533569</v>
       </c>
       <c r="C26" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>84</v>
@@ -8115,15 +8335,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="8">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>533569.0</v>
+        <v>533569</v>
       </c>
       <c r="C27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>86</v>
@@ -8132,2925 +8352,2923 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="D30" s="7"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="D31" s="7"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="D32" s="7"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="4:4" ht="15.75" customHeight="1">
       <c r="D33" s="7"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="4:4" ht="15.75" customHeight="1">
       <c r="D34" s="7"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="4:4" ht="15.75" customHeight="1">
       <c r="D35" s="7"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="4:4" ht="15.75" customHeight="1">
       <c r="D36" s="7"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="4:4" ht="15.75" customHeight="1">
       <c r="D37" s="7"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="4:4" ht="15.75" customHeight="1">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="4:4" ht="15.75" customHeight="1">
       <c r="D39" s="7"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="4:4" ht="15.75" customHeight="1">
       <c r="D40" s="7"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="4:4" ht="15.75" customHeight="1">
       <c r="D41" s="7"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="4:4" ht="15.75" customHeight="1">
       <c r="D42" s="7"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="4:4" ht="15.75" customHeight="1">
       <c r="D43" s="7"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="4:4" ht="15.75" customHeight="1">
       <c r="D44" s="7"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="4:4" ht="15.75" customHeight="1">
       <c r="D45" s="7"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="4:4" ht="15.75" customHeight="1">
       <c r="D46" s="7"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="4:4" ht="15.75" customHeight="1">
       <c r="D47" s="7"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="4:4" ht="15.75" customHeight="1">
       <c r="D48" s="7"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="4:4" ht="15.75" customHeight="1">
       <c r="D49" s="7"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="4:4" ht="15.75" customHeight="1">
       <c r="D50" s="7"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="4:4" ht="15.75" customHeight="1">
       <c r="D51" s="7"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="4:4" ht="15.75" customHeight="1">
       <c r="D52" s="7"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="4:4" ht="15.75" customHeight="1">
       <c r="D53" s="7"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="4:4" ht="15.75" customHeight="1">
       <c r="D54" s="7"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="4:4" ht="15.75" customHeight="1">
       <c r="D55" s="7"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="4:4" ht="15.75" customHeight="1">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="4:4" ht="15.75" customHeight="1">
       <c r="D57" s="7"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="4:4" ht="15.75" customHeight="1">
       <c r="D58" s="7"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="4:4" ht="15.75" customHeight="1">
       <c r="D59" s="7"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="4:4" ht="15.75" customHeight="1">
       <c r="D60" s="7"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="4:4" ht="15.75" customHeight="1">
       <c r="D61" s="7"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="4:4" ht="15.75" customHeight="1">
       <c r="D62" s="7"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="4:4" ht="15.75" customHeight="1">
       <c r="D63" s="7"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="4:4" ht="15.75" customHeight="1">
       <c r="D64" s="7"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="4:4" ht="15.75" customHeight="1">
       <c r="D65" s="7"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="4:4" ht="15.75" customHeight="1">
       <c r="D66" s="7"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="4:4" ht="15.75" customHeight="1">
       <c r="D67" s="7"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="4:4" ht="15.75" customHeight="1">
       <c r="D68" s="7"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="4:4" ht="15.75" customHeight="1">
       <c r="D69" s="7"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="4:4" ht="15.75" customHeight="1">
       <c r="D70" s="7"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="4:4" ht="15.75" customHeight="1">
       <c r="D71" s="7"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="4:4" ht="15.75" customHeight="1">
       <c r="D72" s="7"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="4:4" ht="15.75" customHeight="1">
       <c r="D73" s="7"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="4:4" ht="15.75" customHeight="1">
       <c r="D74" s="7"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="4:4" ht="15.75" customHeight="1">
       <c r="D75" s="7"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="4:4" ht="15.75" customHeight="1">
       <c r="D76" s="7"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="4:4" ht="15.75" customHeight="1">
       <c r="D77" s="7"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="4:4" ht="15.75" customHeight="1">
       <c r="D78" s="7"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="4:4" ht="15.75" customHeight="1">
       <c r="D79" s="7"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="4:4" ht="15.75" customHeight="1">
       <c r="D80" s="7"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="4:4" ht="15.75" customHeight="1">
       <c r="D81" s="7"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="4:4" ht="15.75" customHeight="1">
       <c r="D82" s="7"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="4:4" ht="15.75" customHeight="1">
       <c r="D83" s="7"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="4:4" ht="15.75" customHeight="1">
       <c r="D84" s="7"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="4:4" ht="15.75" customHeight="1">
       <c r="D85" s="7"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="4:4" ht="15.75" customHeight="1">
       <c r="D86" s="7"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="4:4" ht="15.75" customHeight="1">
       <c r="D87" s="7"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="4:4" ht="15.75" customHeight="1">
       <c r="D88" s="7"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="4:4" ht="15.75" customHeight="1">
       <c r="D89" s="7"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="4:4" ht="15.75" customHeight="1">
       <c r="D90" s="7"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="4:4" ht="15.75" customHeight="1">
       <c r="D91" s="7"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="4:4" ht="15.75" customHeight="1">
       <c r="D92" s="7"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="4:4" ht="15.75" customHeight="1">
       <c r="D93" s="7"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="4:4" ht="15.75" customHeight="1">
       <c r="D94" s="7"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="4:4" ht="15.75" customHeight="1">
       <c r="D95" s="7"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="4:4" ht="15.75" customHeight="1">
       <c r="D96" s="7"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="4:4" ht="15.75" customHeight="1">
       <c r="D97" s="7"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="4:4" ht="15.75" customHeight="1">
       <c r="D98" s="7"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="4:4" ht="15.75" customHeight="1">
       <c r="D99" s="7"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="4:4" ht="15.75" customHeight="1">
       <c r="D100" s="7"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="4:4" ht="15.75" customHeight="1">
       <c r="D101" s="7"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="4:4" ht="15.75" customHeight="1">
       <c r="D102" s="7"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="4:4" ht="15.75" customHeight="1">
       <c r="D103" s="7"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="4:4" ht="15.75" customHeight="1">
       <c r="D104" s="7"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="4:4" ht="15.75" customHeight="1">
       <c r="D105" s="7"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="4:4" ht="15.75" customHeight="1">
       <c r="D106" s="7"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="4:4" ht="15.75" customHeight="1">
       <c r="D107" s="7"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="4:4" ht="15.75" customHeight="1">
       <c r="D108" s="7"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="4:4" ht="15.75" customHeight="1">
       <c r="D109" s="7"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="4:4" ht="15.75" customHeight="1">
       <c r="D110" s="7"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="4:4" ht="15.75" customHeight="1">
       <c r="D111" s="7"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="4:4" ht="15.75" customHeight="1">
       <c r="D112" s="7"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="4:4" ht="15.75" customHeight="1">
       <c r="D113" s="7"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="4:4" ht="15.75" customHeight="1">
       <c r="D114" s="7"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="4:4" ht="15.75" customHeight="1">
       <c r="D115" s="7"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="4:4" ht="15.75" customHeight="1">
       <c r="D116" s="7"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="4:4" ht="15.75" customHeight="1">
       <c r="D117" s="7"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="4:4" ht="15.75" customHeight="1">
       <c r="D118" s="7"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="4:4" ht="15.75" customHeight="1">
       <c r="D119" s="7"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="4:4" ht="15.75" customHeight="1">
       <c r="D120" s="7"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="4:4" ht="15.75" customHeight="1">
       <c r="D121" s="7"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="4:4" ht="15.75" customHeight="1">
       <c r="D122" s="7"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="4:4" ht="15.75" customHeight="1">
       <c r="D123" s="7"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="4:4" ht="15.75" customHeight="1">
       <c r="D124" s="7"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="4:4" ht="15.75" customHeight="1">
       <c r="D125" s="7"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="4:4" ht="15.75" customHeight="1">
       <c r="D126" s="7"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="4:4" ht="15.75" customHeight="1">
       <c r="D127" s="7"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="4:4" ht="15.75" customHeight="1">
       <c r="D128" s="7"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="4:4" ht="15.75" customHeight="1">
       <c r="D129" s="7"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="4:4" ht="15.75" customHeight="1">
       <c r="D130" s="7"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="4:4" ht="15.75" customHeight="1">
       <c r="D131" s="7"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="4:4" ht="15.75" customHeight="1">
       <c r="D132" s="7"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="4:4" ht="15.75" customHeight="1">
       <c r="D133" s="7"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="4:4" ht="15.75" customHeight="1">
       <c r="D134" s="7"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="4:4" ht="15.75" customHeight="1">
       <c r="D135" s="7"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="4:4" ht="15.75" customHeight="1">
       <c r="D136" s="7"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="4:4" ht="15.75" customHeight="1">
       <c r="D137" s="7"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="4:4" ht="15.75" customHeight="1">
       <c r="D138" s="7"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="4:4" ht="15.75" customHeight="1">
       <c r="D139" s="7"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="4:4" ht="15.75" customHeight="1">
       <c r="D140" s="7"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="4:4" ht="15.75" customHeight="1">
       <c r="D141" s="7"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="4:4" ht="15.75" customHeight="1">
       <c r="D142" s="7"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="4:4" ht="15.75" customHeight="1">
       <c r="D143" s="7"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="4:4" ht="15.75" customHeight="1">
       <c r="D144" s="7"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="4:4" ht="15.75" customHeight="1">
       <c r="D145" s="7"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="4:4" ht="15.75" customHeight="1">
       <c r="D146" s="7"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="4:4" ht="15.75" customHeight="1">
       <c r="D147" s="7"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="4:4" ht="15.75" customHeight="1">
       <c r="D148" s="7"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="4:4" ht="15.75" customHeight="1">
       <c r="D149" s="7"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="4:4" ht="15.75" customHeight="1">
       <c r="D150" s="7"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="4:4" ht="15.75" customHeight="1">
       <c r="D151" s="7"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="4:4" ht="15.75" customHeight="1">
       <c r="D152" s="7"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="4:4" ht="15.75" customHeight="1">
       <c r="D153" s="7"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="4:4" ht="15.75" customHeight="1">
       <c r="D154" s="7"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="4:4" ht="15.75" customHeight="1">
       <c r="D155" s="7"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="4:4" ht="15.75" customHeight="1">
       <c r="D156" s="7"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="4:4" ht="15.75" customHeight="1">
       <c r="D157" s="7"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="4:4" ht="15.75" customHeight="1">
       <c r="D158" s="7"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="4:4" ht="15.75" customHeight="1">
       <c r="D159" s="7"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="4:4" ht="15.75" customHeight="1">
       <c r="D160" s="7"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="4:4" ht="15.75" customHeight="1">
       <c r="D161" s="7"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="4:4" ht="15.75" customHeight="1">
       <c r="D162" s="7"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="4:4" ht="15.75" customHeight="1">
       <c r="D163" s="7"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="4:4" ht="15.75" customHeight="1">
       <c r="D164" s="7"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="4:4" ht="15.75" customHeight="1">
       <c r="D165" s="7"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="4:4" ht="15.75" customHeight="1">
       <c r="D166" s="7"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="4:4" ht="15.75" customHeight="1">
       <c r="D167" s="7"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="4:4" ht="15.75" customHeight="1">
       <c r="D168" s="7"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="4:4" ht="15.75" customHeight="1">
       <c r="D169" s="7"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="4:4" ht="15.75" customHeight="1">
       <c r="D170" s="7"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="4:4" ht="15.75" customHeight="1">
       <c r="D171" s="7"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="4:4" ht="15.75" customHeight="1">
       <c r="D172" s="7"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="4:4" ht="15.75" customHeight="1">
       <c r="D173" s="7"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="4:4" ht="15.75" customHeight="1">
       <c r="D174" s="7"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="4:4" ht="15.75" customHeight="1">
       <c r="D175" s="7"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="4:4" ht="15.75" customHeight="1">
       <c r="D176" s="7"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="4:4" ht="15.75" customHeight="1">
       <c r="D177" s="7"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="4:4" ht="15.75" customHeight="1">
       <c r="D178" s="7"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="4:4" ht="15.75" customHeight="1">
       <c r="D179" s="7"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="4:4" ht="15.75" customHeight="1">
       <c r="D180" s="7"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="4:4" ht="15.75" customHeight="1">
       <c r="D181" s="7"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="4:4" ht="15.75" customHeight="1">
       <c r="D182" s="7"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="4:4" ht="15.75" customHeight="1">
       <c r="D183" s="7"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="4:4" ht="15.75" customHeight="1">
       <c r="D184" s="7"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="4:4" ht="15.75" customHeight="1">
       <c r="D185" s="7"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="4:4" ht="15.75" customHeight="1">
       <c r="D186" s="7"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="4:4" ht="15.75" customHeight="1">
       <c r="D187" s="7"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="4:4" ht="15.75" customHeight="1">
       <c r="D188" s="7"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="4:4" ht="15.75" customHeight="1">
       <c r="D189" s="7"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="4:4" ht="15.75" customHeight="1">
       <c r="D190" s="7"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="4:4" ht="15.75" customHeight="1">
       <c r="D191" s="7"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="4:4" ht="15.75" customHeight="1">
       <c r="D192" s="7"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="4:4" ht="15.75" customHeight="1">
       <c r="D193" s="7"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="4:4" ht="15.75" customHeight="1">
       <c r="D194" s="7"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="4:4" ht="15.75" customHeight="1">
       <c r="D195" s="7"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="4:4" ht="15.75" customHeight="1">
       <c r="D196" s="7"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="4:4" ht="15.75" customHeight="1">
       <c r="D197" s="7"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="4:4" ht="15.75" customHeight="1">
       <c r="D198" s="7"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="4:4" ht="15.75" customHeight="1">
       <c r="D199" s="7"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="4:4" ht="15.75" customHeight="1">
       <c r="D200" s="7"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="4:4" ht="15.75" customHeight="1">
       <c r="D201" s="7"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="4:4" ht="15.75" customHeight="1">
       <c r="D202" s="7"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="4:4" ht="15.75" customHeight="1">
       <c r="D203" s="7"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="4:4" ht="15.75" customHeight="1">
       <c r="D204" s="7"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="4:4" ht="15.75" customHeight="1">
       <c r="D205" s="7"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="4:4" ht="15.75" customHeight="1">
       <c r="D206" s="7"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="4:4" ht="15.75" customHeight="1">
       <c r="D207" s="7"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="4:4" ht="15.75" customHeight="1">
       <c r="D208" s="7"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="4:4" ht="15.75" customHeight="1">
       <c r="D209" s="7"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="4:4" ht="15.75" customHeight="1">
       <c r="D210" s="7"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="4:4" ht="15.75" customHeight="1">
       <c r="D211" s="7"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="4:4" ht="15.75" customHeight="1">
       <c r="D212" s="7"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="4:4" ht="15.75" customHeight="1">
       <c r="D213" s="7"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="4:4" ht="15.75" customHeight="1">
       <c r="D214" s="7"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="4:4" ht="15.75" customHeight="1">
       <c r="D215" s="7"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="4:4" ht="15.75" customHeight="1">
       <c r="D216" s="7"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="4:4" ht="15.75" customHeight="1">
       <c r="D217" s="7"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="4:4" ht="15.75" customHeight="1">
       <c r="D218" s="7"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="4:4" ht="15.75" customHeight="1">
       <c r="D219" s="7"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="4:4" ht="15.75" customHeight="1">
       <c r="D220" s="7"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="4:4" ht="15.75" customHeight="1">
       <c r="D221" s="7"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="4:4" ht="15.75" customHeight="1">
       <c r="D222" s="7"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="4:4" ht="15.75" customHeight="1">
       <c r="D223" s="7"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="4:4" ht="15.75" customHeight="1">
       <c r="D224" s="7"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="4:4" ht="15.75" customHeight="1">
       <c r="D225" s="7"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="4:4" ht="15.75" customHeight="1">
       <c r="D226" s="7"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="4:4" ht="15.75" customHeight="1">
       <c r="D227" s="7"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="4:4" ht="15.75" customHeight="1">
       <c r="D228" s="7"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="4:4" ht="15.75" customHeight="1">
       <c r="D229" s="7"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="4:4" ht="15.75" customHeight="1">
       <c r="D230" s="7"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="4:4" ht="15.75" customHeight="1">
       <c r="D231" s="7"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="4:4" ht="15.75" customHeight="1">
       <c r="D232" s="7"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="4:4" ht="15.75" customHeight="1">
       <c r="D233" s="7"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="4:4" ht="15.75" customHeight="1">
       <c r="D234" s="7"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="4:4" ht="15.75" customHeight="1">
       <c r="D235" s="7"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="4:4" ht="15.75" customHeight="1">
       <c r="D236" s="7"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="4:4" ht="15.75" customHeight="1">
       <c r="D237" s="7"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="4:4" ht="15.75" customHeight="1">
       <c r="D238" s="7"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="4:4" ht="15.75" customHeight="1">
       <c r="D239" s="7"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="4:4" ht="15.75" customHeight="1">
       <c r="D240" s="7"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="4:4" ht="15.75" customHeight="1">
       <c r="D241" s="7"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="4:4" ht="15.75" customHeight="1">
       <c r="D242" s="7"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="4:4" ht="15.75" customHeight="1">
       <c r="D243" s="7"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="4:4" ht="15.75" customHeight="1">
       <c r="D244" s="7"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="4:4" ht="15.75" customHeight="1">
       <c r="D245" s="7"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="4:4" ht="15.75" customHeight="1">
       <c r="D246" s="7"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="4:4" ht="15.75" customHeight="1">
       <c r="D247" s="7"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="4:4" ht="15.75" customHeight="1">
       <c r="D248" s="7"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="4:4" ht="15.75" customHeight="1">
       <c r="D249" s="7"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="4:4" ht="15.75" customHeight="1">
       <c r="D250" s="7"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="4:4" ht="15.75" customHeight="1">
       <c r="D251" s="7"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="4:4" ht="15.75" customHeight="1">
       <c r="D252" s="7"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="4:4" ht="15.75" customHeight="1">
       <c r="D253" s="7"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="4:4" ht="15.75" customHeight="1">
       <c r="D254" s="7"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="4:4" ht="15.75" customHeight="1">
       <c r="D255" s="7"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="4:4" ht="15.75" customHeight="1">
       <c r="D256" s="7"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="4:4" ht="15.75" customHeight="1">
       <c r="D257" s="7"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="4:4" ht="15.75" customHeight="1">
       <c r="D258" s="7"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="4:4" ht="15.75" customHeight="1">
       <c r="D259" s="7"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="4:4" ht="15.75" customHeight="1">
       <c r="D260" s="7"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="4:4" ht="15.75" customHeight="1">
       <c r="D261" s="7"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="4:4" ht="15.75" customHeight="1">
       <c r="D262" s="7"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="4:4" ht="15.75" customHeight="1">
       <c r="D263" s="7"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="4:4" ht="15.75" customHeight="1">
       <c r="D264" s="7"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="4:4" ht="15.75" customHeight="1">
       <c r="D265" s="7"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="4:4" ht="15.75" customHeight="1">
       <c r="D266" s="7"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="4:4" ht="15.75" customHeight="1">
       <c r="D267" s="7"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="4:4" ht="15.75" customHeight="1">
       <c r="D268" s="7"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="4:4" ht="15.75" customHeight="1">
       <c r="D269" s="7"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="4:4" ht="15.75" customHeight="1">
       <c r="D270" s="7"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="4:4" ht="15.75" customHeight="1">
       <c r="D271" s="7"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="4:4" ht="15.75" customHeight="1">
       <c r="D272" s="7"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="4:4" ht="15.75" customHeight="1">
       <c r="D273" s="7"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="4:4" ht="15.75" customHeight="1">
       <c r="D274" s="7"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="4:4" ht="15.75" customHeight="1">
       <c r="D275" s="7"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="4:4" ht="15.75" customHeight="1">
       <c r="D276" s="7"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="4:4" ht="15.75" customHeight="1">
       <c r="D277" s="7"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="4:4" ht="15.75" customHeight="1">
       <c r="D278" s="7"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="4:4" ht="15.75" customHeight="1">
       <c r="D279" s="7"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="4:4" ht="15.75" customHeight="1">
       <c r="D280" s="7"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="4:4" ht="15.75" customHeight="1">
       <c r="D281" s="7"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="4:4" ht="15.75" customHeight="1">
       <c r="D282" s="7"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="4:4" ht="15.75" customHeight="1">
       <c r="D283" s="7"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="4:4" ht="15.75" customHeight="1">
       <c r="D284" s="7"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="4:4" ht="15.75" customHeight="1">
       <c r="D285" s="7"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="4:4" ht="15.75" customHeight="1">
       <c r="D286" s="7"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="4:4" ht="15.75" customHeight="1">
       <c r="D287" s="7"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="4:4" ht="15.75" customHeight="1">
       <c r="D288" s="7"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="4:4" ht="15.75" customHeight="1">
       <c r="D289" s="7"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="4:4" ht="15.75" customHeight="1">
       <c r="D290" s="7"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="4:4" ht="15.75" customHeight="1">
       <c r="D291" s="7"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="4:4" ht="15.75" customHeight="1">
       <c r="D292" s="7"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="4:4" ht="15.75" customHeight="1">
       <c r="D293" s="7"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="4:4" ht="15.75" customHeight="1">
       <c r="D294" s="7"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="4:4" ht="15.75" customHeight="1">
       <c r="D295" s="7"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="4:4" ht="15.75" customHeight="1">
       <c r="D296" s="7"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="4:4" ht="15.75" customHeight="1">
       <c r="D297" s="7"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="4:4" ht="15.75" customHeight="1">
       <c r="D298" s="7"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="4:4" ht="15.75" customHeight="1">
       <c r="D299" s="7"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="4:4" ht="15.75" customHeight="1">
       <c r="D300" s="7"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="4:4" ht="15.75" customHeight="1">
       <c r="D301" s="7"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="4:4" ht="15.75" customHeight="1">
       <c r="D302" s="7"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="4:4" ht="15.75" customHeight="1">
       <c r="D303" s="7"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="4:4" ht="15.75" customHeight="1">
       <c r="D304" s="7"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="4:4" ht="15.75" customHeight="1">
       <c r="D305" s="7"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="4:4" ht="15.75" customHeight="1">
       <c r="D306" s="7"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="4:4" ht="15.75" customHeight="1">
       <c r="D307" s="7"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="4:4" ht="15.75" customHeight="1">
       <c r="D308" s="7"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="4:4" ht="15.75" customHeight="1">
       <c r="D309" s="7"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="4:4" ht="15.75" customHeight="1">
       <c r="D310" s="7"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="4:4" ht="15.75" customHeight="1">
       <c r="D311" s="7"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="4:4" ht="15.75" customHeight="1">
       <c r="D312" s="7"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="4:4" ht="15.75" customHeight="1">
       <c r="D313" s="7"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="4:4" ht="15.75" customHeight="1">
       <c r="D314" s="7"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="4:4" ht="15.75" customHeight="1">
       <c r="D315" s="7"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="4:4" ht="15.75" customHeight="1">
       <c r="D316" s="7"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="4:4" ht="15.75" customHeight="1">
       <c r="D317" s="7"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="4:4" ht="15.75" customHeight="1">
       <c r="D318" s="7"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="4:4" ht="15.75" customHeight="1">
       <c r="D319" s="7"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="4:4" ht="15.75" customHeight="1">
       <c r="D320" s="7"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="4:4" ht="15.75" customHeight="1">
       <c r="D321" s="7"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="4:4" ht="15.75" customHeight="1">
       <c r="D322" s="7"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="4:4" ht="15.75" customHeight="1">
       <c r="D323" s="7"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="4:4" ht="15.75" customHeight="1">
       <c r="D324" s="7"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="4:4" ht="15.75" customHeight="1">
       <c r="D325" s="7"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="4:4" ht="15.75" customHeight="1">
       <c r="D326" s="7"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="4:4" ht="15.75" customHeight="1">
       <c r="D327" s="7"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="4:4" ht="15.75" customHeight="1">
       <c r="D328" s="7"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="4:4" ht="15.75" customHeight="1">
       <c r="D329" s="7"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="4:4" ht="15.75" customHeight="1">
       <c r="D330" s="7"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="4:4" ht="15.75" customHeight="1">
       <c r="D331" s="7"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="4:4" ht="15.75" customHeight="1">
       <c r="D332" s="7"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="4:4" ht="15.75" customHeight="1">
       <c r="D333" s="7"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="4:4" ht="15.75" customHeight="1">
       <c r="D334" s="7"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="4:4" ht="15.75" customHeight="1">
       <c r="D335" s="7"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="4:4" ht="15.75" customHeight="1">
       <c r="D336" s="7"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="4:4" ht="15.75" customHeight="1">
       <c r="D337" s="7"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="4:4" ht="15.75" customHeight="1">
       <c r="D338" s="7"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="4:4" ht="15.75" customHeight="1">
       <c r="D339" s="7"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="4:4" ht="15.75" customHeight="1">
       <c r="D340" s="7"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="4:4" ht="15.75" customHeight="1">
       <c r="D341" s="7"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="4:4" ht="15.75" customHeight="1">
       <c r="D342" s="7"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="4:4" ht="15.75" customHeight="1">
       <c r="D343" s="7"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="4:4" ht="15.75" customHeight="1">
       <c r="D344" s="7"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="4:4" ht="15.75" customHeight="1">
       <c r="D345" s="7"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="4:4" ht="15.75" customHeight="1">
       <c r="D346" s="7"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="4:4" ht="15.75" customHeight="1">
       <c r="D347" s="7"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="4:4" ht="15.75" customHeight="1">
       <c r="D348" s="7"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="4:4" ht="15.75" customHeight="1">
       <c r="D349" s="7"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="4:4" ht="15.75" customHeight="1">
       <c r="D350" s="7"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="4:4" ht="15.75" customHeight="1">
       <c r="D351" s="7"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="4:4" ht="15.75" customHeight="1">
       <c r="D352" s="7"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="4:4" ht="15.75" customHeight="1">
       <c r="D353" s="7"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="4:4" ht="15.75" customHeight="1">
       <c r="D354" s="7"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="4:4" ht="15.75" customHeight="1">
       <c r="D355" s="7"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="4:4" ht="15.75" customHeight="1">
       <c r="D356" s="7"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="4:4" ht="15.75" customHeight="1">
       <c r="D357" s="7"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="4:4" ht="15.75" customHeight="1">
       <c r="D358" s="7"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="4:4" ht="15.75" customHeight="1">
       <c r="D359" s="7"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="4:4" ht="15.75" customHeight="1">
       <c r="D360" s="7"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="4:4" ht="15.75" customHeight="1">
       <c r="D361" s="7"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="4:4" ht="15.75" customHeight="1">
       <c r="D362" s="7"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="4:4" ht="15.75" customHeight="1">
       <c r="D363" s="7"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="4:4" ht="15.75" customHeight="1">
       <c r="D364" s="7"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="4:4" ht="15.75" customHeight="1">
       <c r="D365" s="7"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="4:4" ht="15.75" customHeight="1">
       <c r="D366" s="7"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="4:4" ht="15.75" customHeight="1">
       <c r="D367" s="7"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="4:4" ht="15.75" customHeight="1">
       <c r="D368" s="7"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="4:4" ht="15.75" customHeight="1">
       <c r="D369" s="7"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="4:4" ht="15.75" customHeight="1">
       <c r="D370" s="7"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="4:4" ht="15.75" customHeight="1">
       <c r="D371" s="7"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="4:4" ht="15.75" customHeight="1">
       <c r="D372" s="7"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="4:4" ht="15.75" customHeight="1">
       <c r="D373" s="7"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="4:4" ht="15.75" customHeight="1">
       <c r="D374" s="7"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="4:4" ht="15.75" customHeight="1">
       <c r="D375" s="7"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="4:4" ht="15.75" customHeight="1">
       <c r="D376" s="7"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="4:4" ht="15.75" customHeight="1">
       <c r="D377" s="7"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="4:4" ht="15.75" customHeight="1">
       <c r="D378" s="7"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="4:4" ht="15.75" customHeight="1">
       <c r="D379" s="7"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="4:4" ht="15.75" customHeight="1">
       <c r="D380" s="7"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="4:4" ht="15.75" customHeight="1">
       <c r="D381" s="7"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="4:4" ht="15.75" customHeight="1">
       <c r="D382" s="7"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="4:4" ht="15.75" customHeight="1">
       <c r="D383" s="7"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="4:4" ht="15.75" customHeight="1">
       <c r="D384" s="7"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="4:4" ht="15.75" customHeight="1">
       <c r="D385" s="7"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="4:4" ht="15.75" customHeight="1">
       <c r="D386" s="7"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="4:4" ht="15.75" customHeight="1">
       <c r="D387" s="7"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="4:4" ht="15.75" customHeight="1">
       <c r="D388" s="7"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="4:4" ht="15.75" customHeight="1">
       <c r="D389" s="7"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="4:4" ht="15.75" customHeight="1">
       <c r="D390" s="7"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="4:4" ht="15.75" customHeight="1">
       <c r="D391" s="7"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="4:4" ht="15.75" customHeight="1">
       <c r="D392" s="7"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="4:4" ht="15.75" customHeight="1">
       <c r="D393" s="7"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="4:4" ht="15.75" customHeight="1">
       <c r="D394" s="7"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="4:4" ht="15.75" customHeight="1">
       <c r="D395" s="7"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="4:4" ht="15.75" customHeight="1">
       <c r="D396" s="7"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="4:4" ht="15.75" customHeight="1">
       <c r="D397" s="7"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="4:4" ht="15.75" customHeight="1">
       <c r="D398" s="7"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="4:4" ht="15.75" customHeight="1">
       <c r="D399" s="7"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="4:4" ht="15.75" customHeight="1">
       <c r="D400" s="7"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="4:4" ht="15.75" customHeight="1">
       <c r="D401" s="7"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="4:4" ht="15.75" customHeight="1">
       <c r="D402" s="7"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="4:4" ht="15.75" customHeight="1">
       <c r="D403" s="7"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="4:4" ht="15.75" customHeight="1">
       <c r="D404" s="7"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="4:4" ht="15.75" customHeight="1">
       <c r="D405" s="7"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="4:4" ht="15.75" customHeight="1">
       <c r="D406" s="7"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="4:4" ht="15.75" customHeight="1">
       <c r="D407" s="7"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="4:4" ht="15.75" customHeight="1">
       <c r="D408" s="7"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="4:4" ht="15.75" customHeight="1">
       <c r="D409" s="7"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="4:4" ht="15.75" customHeight="1">
       <c r="D410" s="7"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="4:4" ht="15.75" customHeight="1">
       <c r="D411" s="7"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="4:4" ht="15.75" customHeight="1">
       <c r="D412" s="7"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="4:4" ht="15.75" customHeight="1">
       <c r="D413" s="7"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="4:4" ht="15.75" customHeight="1">
       <c r="D414" s="7"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="4:4" ht="15.75" customHeight="1">
       <c r="D415" s="7"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="4:4" ht="15.75" customHeight="1">
       <c r="D416" s="7"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="4:4" ht="15.75" customHeight="1">
       <c r="D417" s="7"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="4:4" ht="15.75" customHeight="1">
       <c r="D418" s="7"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="4:4" ht="15.75" customHeight="1">
       <c r="D419" s="7"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="4:4" ht="15.75" customHeight="1">
       <c r="D420" s="7"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="4:4" ht="15.75" customHeight="1">
       <c r="D421" s="7"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="4:4" ht="15.75" customHeight="1">
       <c r="D422" s="7"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="4:4" ht="15.75" customHeight="1">
       <c r="D423" s="7"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="4:4" ht="15.75" customHeight="1">
       <c r="D424" s="7"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="4:4" ht="15.75" customHeight="1">
       <c r="D425" s="7"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="4:4" ht="15.75" customHeight="1">
       <c r="D426" s="7"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="4:4" ht="15.75" customHeight="1">
       <c r="D427" s="7"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="4:4" ht="15.75" customHeight="1">
       <c r="D428" s="7"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="4:4" ht="15.75" customHeight="1">
       <c r="D429" s="7"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="4:4" ht="15.75" customHeight="1">
       <c r="D430" s="7"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="4:4" ht="15.75" customHeight="1">
       <c r="D431" s="7"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="4:4" ht="15.75" customHeight="1">
       <c r="D432" s="7"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="4:4" ht="15.75" customHeight="1">
       <c r="D433" s="7"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="4:4" ht="15.75" customHeight="1">
       <c r="D434" s="7"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="4:4" ht="15.75" customHeight="1">
       <c r="D435" s="7"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="4:4" ht="15.75" customHeight="1">
       <c r="D436" s="7"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="4:4" ht="15.75" customHeight="1">
       <c r="D437" s="7"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="4:4" ht="15.75" customHeight="1">
       <c r="D438" s="7"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="4:4" ht="15.75" customHeight="1">
       <c r="D439" s="7"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="4:4" ht="15.75" customHeight="1">
       <c r="D440" s="7"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="4:4" ht="15.75" customHeight="1">
       <c r="D441" s="7"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="4:4" ht="15.75" customHeight="1">
       <c r="D442" s="7"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="4:4" ht="15.75" customHeight="1">
       <c r="D443" s="7"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="4:4" ht="15.75" customHeight="1">
       <c r="D444" s="7"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="4:4" ht="15.75" customHeight="1">
       <c r="D445" s="7"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="4:4" ht="15.75" customHeight="1">
       <c r="D446" s="7"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="4:4" ht="15.75" customHeight="1">
       <c r="D447" s="7"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="4:4" ht="15.75" customHeight="1">
       <c r="D448" s="7"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="4:4" ht="15.75" customHeight="1">
       <c r="D449" s="7"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="4:4" ht="15.75" customHeight="1">
       <c r="D450" s="7"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="4:4" ht="15.75" customHeight="1">
       <c r="D451" s="7"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="4:4" ht="15.75" customHeight="1">
       <c r="D452" s="7"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="4:4" ht="15.75" customHeight="1">
       <c r="D453" s="7"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="4:4" ht="15.75" customHeight="1">
       <c r="D454" s="7"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="4:4" ht="15.75" customHeight="1">
       <c r="D455" s="7"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="4:4" ht="15.75" customHeight="1">
       <c r="D456" s="7"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="4:4" ht="15.75" customHeight="1">
       <c r="D457" s="7"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="4:4" ht="15.75" customHeight="1">
       <c r="D458" s="7"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="4:4" ht="15.75" customHeight="1">
       <c r="D459" s="7"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="4:4" ht="15.75" customHeight="1">
       <c r="D460" s="7"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="4:4" ht="15.75" customHeight="1">
       <c r="D461" s="7"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="4:4" ht="15.75" customHeight="1">
       <c r="D462" s="7"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="4:4" ht="15.75" customHeight="1">
       <c r="D463" s="7"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="4:4" ht="15.75" customHeight="1">
       <c r="D464" s="7"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="4:4" ht="15.75" customHeight="1">
       <c r="D465" s="7"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="4:4" ht="15.75" customHeight="1">
       <c r="D466" s="7"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="4:4" ht="15.75" customHeight="1">
       <c r="D467" s="7"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="4:4" ht="15.75" customHeight="1">
       <c r="D468" s="7"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="4:4" ht="15.75" customHeight="1">
       <c r="D469" s="7"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="4:4" ht="15.75" customHeight="1">
       <c r="D470" s="7"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="4:4" ht="15.75" customHeight="1">
       <c r="D471" s="7"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="4:4" ht="15.75" customHeight="1">
       <c r="D472" s="7"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="4:4" ht="15.75" customHeight="1">
       <c r="D473" s="7"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="4:4" ht="15.75" customHeight="1">
       <c r="D474" s="7"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="4:4" ht="15.75" customHeight="1">
       <c r="D475" s="7"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="4:4" ht="15.75" customHeight="1">
       <c r="D476" s="7"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="4:4" ht="15.75" customHeight="1">
       <c r="D477" s="7"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="4:4" ht="15.75" customHeight="1">
       <c r="D478" s="7"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="4:4" ht="15.75" customHeight="1">
       <c r="D479" s="7"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="4:4" ht="15.75" customHeight="1">
       <c r="D480" s="7"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="4:4" ht="15.75" customHeight="1">
       <c r="D481" s="7"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="4:4" ht="15.75" customHeight="1">
       <c r="D482" s="7"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="4:4" ht="15.75" customHeight="1">
       <c r="D483" s="7"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="4:4" ht="15.75" customHeight="1">
       <c r="D484" s="7"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="4:4" ht="15.75" customHeight="1">
       <c r="D485" s="7"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="4:4" ht="15.75" customHeight="1">
       <c r="D486" s="7"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="4:4" ht="15.75" customHeight="1">
       <c r="D487" s="7"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="4:4" ht="15.75" customHeight="1">
       <c r="D488" s="7"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="4:4" ht="15.75" customHeight="1">
       <c r="D489" s="7"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="4:4" ht="15.75" customHeight="1">
       <c r="D490" s="7"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="4:4" ht="15.75" customHeight="1">
       <c r="D491" s="7"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="4:4" ht="15.75" customHeight="1">
       <c r="D492" s="7"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="4:4" ht="15.75" customHeight="1">
       <c r="D493" s="7"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="4:4" ht="15.75" customHeight="1">
       <c r="D494" s="7"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="4:4" ht="15.75" customHeight="1">
       <c r="D495" s="7"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="4:4" ht="15.75" customHeight="1">
       <c r="D496" s="7"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="4:4" ht="15.75" customHeight="1">
       <c r="D497" s="7"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="4:4" ht="15.75" customHeight="1">
       <c r="D498" s="7"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="4:4" ht="15.75" customHeight="1">
       <c r="D499" s="7"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="4:4" ht="15.75" customHeight="1">
       <c r="D500" s="7"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="4:4" ht="15.75" customHeight="1">
       <c r="D501" s="7"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="4:4" ht="15.75" customHeight="1">
       <c r="D502" s="7"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="4:4" ht="15.75" customHeight="1">
       <c r="D503" s="7"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="4:4" ht="15.75" customHeight="1">
       <c r="D504" s="7"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="4:4" ht="15.75" customHeight="1">
       <c r="D505" s="7"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="4:4" ht="15.75" customHeight="1">
       <c r="D506" s="7"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="4:4" ht="15.75" customHeight="1">
       <c r="D507" s="7"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="4:4" ht="15.75" customHeight="1">
       <c r="D508" s="7"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="4:4" ht="15.75" customHeight="1">
       <c r="D509" s="7"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="4:4" ht="15.75" customHeight="1">
       <c r="D510" s="7"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="4:4" ht="15.75" customHeight="1">
       <c r="D511" s="7"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="4:4" ht="15.75" customHeight="1">
       <c r="D512" s="7"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="4:4" ht="15.75" customHeight="1">
       <c r="D513" s="7"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="4:4" ht="15.75" customHeight="1">
       <c r="D514" s="7"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="4:4" ht="15.75" customHeight="1">
       <c r="D515" s="7"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="4:4" ht="15.75" customHeight="1">
       <c r="D516" s="7"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="4:4" ht="15.75" customHeight="1">
       <c r="D517" s="7"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="4:4" ht="15.75" customHeight="1">
       <c r="D518" s="7"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="4:4" ht="15.75" customHeight="1">
       <c r="D519" s="7"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="4:4" ht="15.75" customHeight="1">
       <c r="D520" s="7"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="4:4" ht="15.75" customHeight="1">
       <c r="D521" s="7"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="4:4" ht="15.75" customHeight="1">
       <c r="D522" s="7"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="4:4" ht="15.75" customHeight="1">
       <c r="D523" s="7"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="4:4" ht="15.75" customHeight="1">
       <c r="D524" s="7"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="4:4" ht="15.75" customHeight="1">
       <c r="D525" s="7"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="4:4" ht="15.75" customHeight="1">
       <c r="D526" s="7"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="4:4" ht="15.75" customHeight="1">
       <c r="D527" s="7"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="4:4" ht="15.75" customHeight="1">
       <c r="D528" s="7"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="4:4" ht="15.75" customHeight="1">
       <c r="D529" s="7"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="4:4" ht="15.75" customHeight="1">
       <c r="D530" s="7"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="4:4" ht="15.75" customHeight="1">
       <c r="D531" s="7"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="4:4" ht="15.75" customHeight="1">
       <c r="D532" s="7"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="4:4" ht="15.75" customHeight="1">
       <c r="D533" s="7"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="4:4" ht="15.75" customHeight="1">
       <c r="D534" s="7"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="4:4" ht="15.75" customHeight="1">
       <c r="D535" s="7"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="4:4" ht="15.75" customHeight="1">
       <c r="D536" s="7"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="4:4" ht="15.75" customHeight="1">
       <c r="D537" s="7"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="4:4" ht="15.75" customHeight="1">
       <c r="D538" s="7"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="4:4" ht="15.75" customHeight="1">
       <c r="D539" s="7"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="4:4" ht="15.75" customHeight="1">
       <c r="D540" s="7"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="4:4" ht="15.75" customHeight="1">
       <c r="D541" s="7"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="4:4" ht="15.75" customHeight="1">
       <c r="D542" s="7"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="4:4" ht="15.75" customHeight="1">
       <c r="D543" s="7"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="4:4" ht="15.75" customHeight="1">
       <c r="D544" s="7"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="4:4" ht="15.75" customHeight="1">
       <c r="D545" s="7"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="4:4" ht="15.75" customHeight="1">
       <c r="D546" s="7"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="4:4" ht="15.75" customHeight="1">
       <c r="D547" s="7"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="4:4" ht="15.75" customHeight="1">
       <c r="D548" s="7"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="4:4" ht="15.75" customHeight="1">
       <c r="D549" s="7"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="4:4" ht="15.75" customHeight="1">
       <c r="D550" s="7"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="4:4" ht="15.75" customHeight="1">
       <c r="D551" s="7"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="4:4" ht="15.75" customHeight="1">
       <c r="D552" s="7"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="4:4" ht="15.75" customHeight="1">
       <c r="D553" s="7"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="4:4" ht="15.75" customHeight="1">
       <c r="D554" s="7"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="4:4" ht="15.75" customHeight="1">
       <c r="D555" s="7"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="4:4" ht="15.75" customHeight="1">
       <c r="D556" s="7"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="4:4" ht="15.75" customHeight="1">
       <c r="D557" s="7"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="4:4" ht="15.75" customHeight="1">
       <c r="D558" s="7"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="4:4" ht="15.75" customHeight="1">
       <c r="D559" s="7"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="4:4" ht="15.75" customHeight="1">
       <c r="D560" s="7"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="4:4" ht="15.75" customHeight="1">
       <c r="D561" s="7"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="4:4" ht="15.75" customHeight="1">
       <c r="D562" s="7"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="4:4" ht="15.75" customHeight="1">
       <c r="D563" s="7"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="4:4" ht="15.75" customHeight="1">
       <c r="D564" s="7"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="4:4" ht="15.75" customHeight="1">
       <c r="D565" s="7"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="4:4" ht="15.75" customHeight="1">
       <c r="D566" s="7"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="4:4" ht="15.75" customHeight="1">
       <c r="D567" s="7"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="4:4" ht="15.75" customHeight="1">
       <c r="D568" s="7"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="4:4" ht="15.75" customHeight="1">
       <c r="D569" s="7"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="4:4" ht="15.75" customHeight="1">
       <c r="D570" s="7"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="4:4" ht="15.75" customHeight="1">
       <c r="D571" s="7"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="4:4" ht="15.75" customHeight="1">
       <c r="D572" s="7"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="4:4" ht="15.75" customHeight="1">
       <c r="D573" s="7"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="4:4" ht="15.75" customHeight="1">
       <c r="D574" s="7"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="4:4" ht="15.75" customHeight="1">
       <c r="D575" s="7"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="4:4" ht="15.75" customHeight="1">
       <c r="D576" s="7"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="4:4" ht="15.75" customHeight="1">
       <c r="D577" s="7"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="4:4" ht="15.75" customHeight="1">
       <c r="D578" s="7"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="4:4" ht="15.75" customHeight="1">
       <c r="D579" s="7"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="4:4" ht="15.75" customHeight="1">
       <c r="D580" s="7"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="4:4" ht="15.75" customHeight="1">
       <c r="D581" s="7"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="4:4" ht="15.75" customHeight="1">
       <c r="D582" s="7"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="4:4" ht="15.75" customHeight="1">
       <c r="D583" s="7"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="4:4" ht="15.75" customHeight="1">
       <c r="D584" s="7"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="4:4" ht="15.75" customHeight="1">
       <c r="D585" s="7"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="4:4" ht="15.75" customHeight="1">
       <c r="D586" s="7"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="4:4" ht="15.75" customHeight="1">
       <c r="D587" s="7"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="4:4" ht="15.75" customHeight="1">
       <c r="D588" s="7"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="4:4" ht="15.75" customHeight="1">
       <c r="D589" s="7"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="4:4" ht="15.75" customHeight="1">
       <c r="D590" s="7"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="4:4" ht="15.75" customHeight="1">
       <c r="D591" s="7"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="4:4" ht="15.75" customHeight="1">
       <c r="D592" s="7"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="4:4" ht="15.75" customHeight="1">
       <c r="D593" s="7"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="4:4" ht="15.75" customHeight="1">
       <c r="D594" s="7"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="4:4" ht="15.75" customHeight="1">
       <c r="D595" s="7"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="4:4" ht="15.75" customHeight="1">
       <c r="D596" s="7"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="4:4" ht="15.75" customHeight="1">
       <c r="D597" s="7"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="4:4" ht="15.75" customHeight="1">
       <c r="D598" s="7"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="4:4" ht="15.75" customHeight="1">
       <c r="D599" s="7"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="4:4" ht="15.75" customHeight="1">
       <c r="D600" s="7"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="4:4" ht="15.75" customHeight="1">
       <c r="D601" s="7"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="4:4" ht="15.75" customHeight="1">
       <c r="D602" s="7"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="4:4" ht="15.75" customHeight="1">
       <c r="D603" s="7"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="4:4" ht="15.75" customHeight="1">
       <c r="D604" s="7"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="4:4" ht="15.75" customHeight="1">
       <c r="D605" s="7"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="4:4" ht="15.75" customHeight="1">
       <c r="D606" s="7"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="4:4" ht="15.75" customHeight="1">
       <c r="D607" s="7"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="4:4" ht="15.75" customHeight="1">
       <c r="D608" s="7"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="4:4" ht="15.75" customHeight="1">
       <c r="D609" s="7"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="4:4" ht="15.75" customHeight="1">
       <c r="D610" s="7"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="4:4" ht="15.75" customHeight="1">
       <c r="D611" s="7"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="4:4" ht="15.75" customHeight="1">
       <c r="D612" s="7"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="4:4" ht="15.75" customHeight="1">
       <c r="D613" s="7"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="4:4" ht="15.75" customHeight="1">
       <c r="D614" s="7"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="4:4" ht="15.75" customHeight="1">
       <c r="D615" s="7"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="4:4" ht="15.75" customHeight="1">
       <c r="D616" s="7"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="4:4" ht="15.75" customHeight="1">
       <c r="D617" s="7"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="4:4" ht="15.75" customHeight="1">
       <c r="D618" s="7"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="4:4" ht="15.75" customHeight="1">
       <c r="D619" s="7"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="4:4" ht="15.75" customHeight="1">
       <c r="D620" s="7"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="4:4" ht="15.75" customHeight="1">
       <c r="D621" s="7"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="4:4" ht="15.75" customHeight="1">
       <c r="D622" s="7"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="4:4" ht="15.75" customHeight="1">
       <c r="D623" s="7"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="4:4" ht="15.75" customHeight="1">
       <c r="D624" s="7"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="4:4" ht="15.75" customHeight="1">
       <c r="D625" s="7"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="4:4" ht="15.75" customHeight="1">
       <c r="D626" s="7"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="4:4" ht="15.75" customHeight="1">
       <c r="D627" s="7"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="4:4" ht="15.75" customHeight="1">
       <c r="D628" s="7"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="4:4" ht="15.75" customHeight="1">
       <c r="D629" s="7"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="4:4" ht="15.75" customHeight="1">
       <c r="D630" s="7"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="4:4" ht="15.75" customHeight="1">
       <c r="D631" s="7"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="4:4" ht="15.75" customHeight="1">
       <c r="D632" s="7"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="4:4" ht="15.75" customHeight="1">
       <c r="D633" s="7"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="4:4" ht="15.75" customHeight="1">
       <c r="D634" s="7"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="4:4" ht="15.75" customHeight="1">
       <c r="D635" s="7"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="4:4" ht="15.75" customHeight="1">
       <c r="D636" s="7"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="4:4" ht="15.75" customHeight="1">
       <c r="D637" s="7"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="4:4" ht="15.75" customHeight="1">
       <c r="D638" s="7"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="4:4" ht="15.75" customHeight="1">
       <c r="D639" s="7"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="4:4" ht="15.75" customHeight="1">
       <c r="D640" s="7"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="4:4" ht="15.75" customHeight="1">
       <c r="D641" s="7"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="4:4" ht="15.75" customHeight="1">
       <c r="D642" s="7"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="4:4" ht="15.75" customHeight="1">
       <c r="D643" s="7"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="4:4" ht="15.75" customHeight="1">
       <c r="D644" s="7"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="4:4" ht="15.75" customHeight="1">
       <c r="D645" s="7"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="4:4" ht="15.75" customHeight="1">
       <c r="D646" s="7"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="4:4" ht="15.75" customHeight="1">
       <c r="D647" s="7"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="4:4" ht="15.75" customHeight="1">
       <c r="D648" s="7"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="4:4" ht="15.75" customHeight="1">
       <c r="D649" s="7"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="4:4" ht="15.75" customHeight="1">
       <c r="D650" s="7"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="4:4" ht="15.75" customHeight="1">
       <c r="D651" s="7"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="4:4" ht="15.75" customHeight="1">
       <c r="D652" s="7"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="4:4" ht="15.75" customHeight="1">
       <c r="D653" s="7"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="4:4" ht="15.75" customHeight="1">
       <c r="D654" s="7"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="4:4" ht="15.75" customHeight="1">
       <c r="D655" s="7"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="4:4" ht="15.75" customHeight="1">
       <c r="D656" s="7"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="4:4" ht="15.75" customHeight="1">
       <c r="D657" s="7"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="4:4" ht="15.75" customHeight="1">
       <c r="D658" s="7"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="4:4" ht="15.75" customHeight="1">
       <c r="D659" s="7"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="4:4" ht="15.75" customHeight="1">
       <c r="D660" s="7"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="4:4" ht="15.75" customHeight="1">
       <c r="D661" s="7"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="4:4" ht="15.75" customHeight="1">
       <c r="D662" s="7"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="4:4" ht="15.75" customHeight="1">
       <c r="D663" s="7"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="4:4" ht="15.75" customHeight="1">
       <c r="D664" s="7"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="4:4" ht="15.75" customHeight="1">
       <c r="D665" s="7"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="4:4" ht="15.75" customHeight="1">
       <c r="D666" s="7"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="4:4" ht="15.75" customHeight="1">
       <c r="D667" s="7"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="4:4" ht="15.75" customHeight="1">
       <c r="D668" s="7"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="4:4" ht="15.75" customHeight="1">
       <c r="D669" s="7"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="4:4" ht="15.75" customHeight="1">
       <c r="D670" s="7"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="4:4" ht="15.75" customHeight="1">
       <c r="D671" s="7"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="4:4" ht="15.75" customHeight="1">
       <c r="D672" s="7"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="4:4" ht="15.75" customHeight="1">
       <c r="D673" s="7"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="4:4" ht="15.75" customHeight="1">
       <c r="D674" s="7"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="4:4" ht="15.75" customHeight="1">
       <c r="D675" s="7"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="4:4" ht="15.75" customHeight="1">
       <c r="D676" s="7"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="4:4" ht="15.75" customHeight="1">
       <c r="D677" s="7"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="4:4" ht="15.75" customHeight="1">
       <c r="D678" s="7"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="4:4" ht="15.75" customHeight="1">
       <c r="D679" s="7"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="4:4" ht="15.75" customHeight="1">
       <c r="D680" s="7"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="4:4" ht="15.75" customHeight="1">
       <c r="D681" s="7"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="4:4" ht="15.75" customHeight="1">
       <c r="D682" s="7"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="4:4" ht="15.75" customHeight="1">
       <c r="D683" s="7"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="4:4" ht="15.75" customHeight="1">
       <c r="D684" s="7"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="4:4" ht="15.75" customHeight="1">
       <c r="D685" s="7"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="4:4" ht="15.75" customHeight="1">
       <c r="D686" s="7"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="4:4" ht="15.75" customHeight="1">
       <c r="D687" s="7"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="4:4" ht="15.75" customHeight="1">
       <c r="D688" s="7"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="4:4" ht="15.75" customHeight="1">
       <c r="D689" s="7"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="4:4" ht="15.75" customHeight="1">
       <c r="D690" s="7"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="4:4" ht="15.75" customHeight="1">
       <c r="D691" s="7"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="4:4" ht="15.75" customHeight="1">
       <c r="D692" s="7"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="4:4" ht="15.75" customHeight="1">
       <c r="D693" s="7"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="4:4" ht="15.75" customHeight="1">
       <c r="D694" s="7"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="4:4" ht="15.75" customHeight="1">
       <c r="D695" s="7"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="4:4" ht="15.75" customHeight="1">
       <c r="D696" s="7"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="4:4" ht="15.75" customHeight="1">
       <c r="D697" s="7"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="4:4" ht="15.75" customHeight="1">
       <c r="D698" s="7"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="4:4" ht="15.75" customHeight="1">
       <c r="D699" s="7"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="4:4" ht="15.75" customHeight="1">
       <c r="D700" s="7"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="4:4" ht="15.75" customHeight="1">
       <c r="D701" s="7"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="4:4" ht="15.75" customHeight="1">
       <c r="D702" s="7"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="4:4" ht="15.75" customHeight="1">
       <c r="D703" s="7"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="4:4" ht="15.75" customHeight="1">
       <c r="D704" s="7"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="4:4" ht="15.75" customHeight="1">
       <c r="D705" s="7"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="4:4" ht="15.75" customHeight="1">
       <c r="D706" s="7"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="4:4" ht="15.75" customHeight="1">
       <c r="D707" s="7"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="4:4" ht="15.75" customHeight="1">
       <c r="D708" s="7"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="4:4" ht="15.75" customHeight="1">
       <c r="D709" s="7"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="4:4" ht="15.75" customHeight="1">
       <c r="D710" s="7"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="4:4" ht="15.75" customHeight="1">
       <c r="D711" s="7"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="4:4" ht="15.75" customHeight="1">
       <c r="D712" s="7"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="4:4" ht="15.75" customHeight="1">
       <c r="D713" s="7"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="4:4" ht="15.75" customHeight="1">
       <c r="D714" s="7"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="4:4" ht="15.75" customHeight="1">
       <c r="D715" s="7"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="4:4" ht="15.75" customHeight="1">
       <c r="D716" s="7"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="4:4" ht="15.75" customHeight="1">
       <c r="D717" s="7"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="4:4" ht="15.75" customHeight="1">
       <c r="D718" s="7"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="4:4" ht="15.75" customHeight="1">
       <c r="D719" s="7"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="4:4" ht="15.75" customHeight="1">
       <c r="D720" s="7"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="4:4" ht="15.75" customHeight="1">
       <c r="D721" s="7"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="4:4" ht="15.75" customHeight="1">
       <c r="D722" s="7"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="4:4" ht="15.75" customHeight="1">
       <c r="D723" s="7"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="4:4" ht="15.75" customHeight="1">
       <c r="D724" s="7"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="4:4" ht="15.75" customHeight="1">
       <c r="D725" s="7"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="4:4" ht="15.75" customHeight="1">
       <c r="D726" s="7"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="4:4" ht="15.75" customHeight="1">
       <c r="D727" s="7"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="4:4" ht="15.75" customHeight="1">
       <c r="D728" s="7"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="4:4" ht="15.75" customHeight="1">
       <c r="D729" s="7"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="4:4" ht="15.75" customHeight="1">
       <c r="D730" s="7"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="4:4" ht="15.75" customHeight="1">
       <c r="D731" s="7"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="4:4" ht="15.75" customHeight="1">
       <c r="D732" s="7"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="4:4" ht="15.75" customHeight="1">
       <c r="D733" s="7"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="4:4" ht="15.75" customHeight="1">
       <c r="D734" s="7"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="4:4" ht="15.75" customHeight="1">
       <c r="D735" s="7"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="4:4" ht="15.75" customHeight="1">
       <c r="D736" s="7"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="4:4" ht="15.75" customHeight="1">
       <c r="D737" s="7"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="4:4" ht="15.75" customHeight="1">
       <c r="D738" s="7"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="4:4" ht="15.75" customHeight="1">
       <c r="D739" s="7"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="4:4" ht="15.75" customHeight="1">
       <c r="D740" s="7"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="4:4" ht="15.75" customHeight="1">
       <c r="D741" s="7"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="4:4" ht="15.75" customHeight="1">
       <c r="D742" s="7"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="4:4" ht="15.75" customHeight="1">
       <c r="D743" s="7"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="4:4" ht="15.75" customHeight="1">
       <c r="D744" s="7"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="4:4" ht="15.75" customHeight="1">
       <c r="D745" s="7"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="4:4" ht="15.75" customHeight="1">
       <c r="D746" s="7"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="4:4" ht="15.75" customHeight="1">
       <c r="D747" s="7"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="4:4" ht="15.75" customHeight="1">
       <c r="D748" s="7"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="4:4" ht="15.75" customHeight="1">
       <c r="D749" s="7"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="4:4" ht="15.75" customHeight="1">
       <c r="D750" s="7"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="4:4" ht="15.75" customHeight="1">
       <c r="D751" s="7"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="4:4" ht="15.75" customHeight="1">
       <c r="D752" s="7"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="4:4" ht="15.75" customHeight="1">
       <c r="D753" s="7"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="4:4" ht="15.75" customHeight="1">
       <c r="D754" s="7"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="4:4" ht="15.75" customHeight="1">
       <c r="D755" s="7"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="4:4" ht="15.75" customHeight="1">
       <c r="D756" s="7"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="4:4" ht="15.75" customHeight="1">
       <c r="D757" s="7"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="4:4" ht="15.75" customHeight="1">
       <c r="D758" s="7"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="4:4" ht="15.75" customHeight="1">
       <c r="D759" s="7"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="4:4" ht="15.75" customHeight="1">
       <c r="D760" s="7"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="4:4" ht="15.75" customHeight="1">
       <c r="D761" s="7"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="4:4" ht="15.75" customHeight="1">
       <c r="D762" s="7"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="4:4" ht="15.75" customHeight="1">
       <c r="D763" s="7"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="4:4" ht="15.75" customHeight="1">
       <c r="D764" s="7"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="4:4" ht="15.75" customHeight="1">
       <c r="D765" s="7"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="4:4" ht="15.75" customHeight="1">
       <c r="D766" s="7"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="4:4" ht="15.75" customHeight="1">
       <c r="D767" s="7"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="4:4" ht="15.75" customHeight="1">
       <c r="D768" s="7"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="4:4" ht="15.75" customHeight="1">
       <c r="D769" s="7"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="4:4" ht="15.75" customHeight="1">
       <c r="D770" s="7"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="4:4" ht="15.75" customHeight="1">
       <c r="D771" s="7"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="4:4" ht="15.75" customHeight="1">
       <c r="D772" s="7"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="4:4" ht="15.75" customHeight="1">
       <c r="D773" s="7"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="4:4" ht="15.75" customHeight="1">
       <c r="D774" s="7"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="4:4" ht="15.75" customHeight="1">
       <c r="D775" s="7"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="4:4" ht="15.75" customHeight="1">
       <c r="D776" s="7"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="4:4" ht="15.75" customHeight="1">
       <c r="D777" s="7"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="4:4" ht="15.75" customHeight="1">
       <c r="D778" s="7"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="4:4" ht="15.75" customHeight="1">
       <c r="D779" s="7"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="4:4" ht="15.75" customHeight="1">
       <c r="D780" s="7"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="4:4" ht="15.75" customHeight="1">
       <c r="D781" s="7"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="4:4" ht="15.75" customHeight="1">
       <c r="D782" s="7"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="4:4" ht="15.75" customHeight="1">
       <c r="D783" s="7"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="4:4" ht="15.75" customHeight="1">
       <c r="D784" s="7"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="4:4" ht="15.75" customHeight="1">
       <c r="D785" s="7"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="4:4" ht="15.75" customHeight="1">
       <c r="D786" s="7"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="4:4" ht="15.75" customHeight="1">
       <c r="D787" s="7"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="4:4" ht="15.75" customHeight="1">
       <c r="D788" s="7"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="4:4" ht="15.75" customHeight="1">
       <c r="D789" s="7"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="4:4" ht="15.75" customHeight="1">
       <c r="D790" s="7"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="4:4" ht="15.75" customHeight="1">
       <c r="D791" s="7"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="4:4" ht="15.75" customHeight="1">
       <c r="D792" s="7"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="4:4" ht="15.75" customHeight="1">
       <c r="D793" s="7"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="4:4" ht="15.75" customHeight="1">
       <c r="D794" s="7"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="4:4" ht="15.75" customHeight="1">
       <c r="D795" s="7"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="4:4" ht="15.75" customHeight="1">
       <c r="D796" s="7"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="4:4" ht="15.75" customHeight="1">
       <c r="D797" s="7"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="4:4" ht="15.75" customHeight="1">
       <c r="D798" s="7"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="4:4" ht="15.75" customHeight="1">
       <c r="D799" s="7"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="4:4" ht="15.75" customHeight="1">
       <c r="D800" s="7"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="4:4" ht="15.75" customHeight="1">
       <c r="D801" s="7"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="4:4" ht="15.75" customHeight="1">
       <c r="D802" s="7"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="4:4" ht="15.75" customHeight="1">
       <c r="D803" s="7"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="4:4" ht="15.75" customHeight="1">
       <c r="D804" s="7"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="4:4" ht="15.75" customHeight="1">
       <c r="D805" s="7"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="4:4" ht="15.75" customHeight="1">
       <c r="D806" s="7"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="4:4" ht="15.75" customHeight="1">
       <c r="D807" s="7"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="4:4" ht="15.75" customHeight="1">
       <c r="D808" s="7"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="4:4" ht="15.75" customHeight="1">
       <c r="D809" s="7"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="4:4" ht="15.75" customHeight="1">
       <c r="D810" s="7"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="4:4" ht="15.75" customHeight="1">
       <c r="D811" s="7"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="4:4" ht="15.75" customHeight="1">
       <c r="D812" s="7"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="4:4" ht="15.75" customHeight="1">
       <c r="D813" s="7"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="4:4" ht="15.75" customHeight="1">
       <c r="D814" s="7"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="4:4" ht="15.75" customHeight="1">
       <c r="D815" s="7"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="4:4" ht="15.75" customHeight="1">
       <c r="D816" s="7"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="4:4" ht="15.75" customHeight="1">
       <c r="D817" s="7"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="4:4" ht="15.75" customHeight="1">
       <c r="D818" s="7"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="4:4" ht="15.75" customHeight="1">
       <c r="D819" s="7"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="4:4" ht="15.75" customHeight="1">
       <c r="D820" s="7"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="4:4" ht="15.75" customHeight="1">
       <c r="D821" s="7"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="4:4" ht="15.75" customHeight="1">
       <c r="D822" s="7"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="4:4" ht="15.75" customHeight="1">
       <c r="D823" s="7"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="4:4" ht="15.75" customHeight="1">
       <c r="D824" s="7"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="4:4" ht="15.75" customHeight="1">
       <c r="D825" s="7"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="4:4" ht="15.75" customHeight="1">
       <c r="D826" s="7"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="4:4" ht="15.75" customHeight="1">
       <c r="D827" s="7"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="4:4" ht="15.75" customHeight="1">
       <c r="D828" s="7"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="4:4" ht="15.75" customHeight="1">
       <c r="D829" s="7"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="4:4" ht="15.75" customHeight="1">
       <c r="D830" s="7"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="4:4" ht="15.75" customHeight="1">
       <c r="D831" s="7"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="4:4" ht="15.75" customHeight="1">
       <c r="D832" s="7"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="4:4" ht="15.75" customHeight="1">
       <c r="D833" s="7"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="4:4" ht="15.75" customHeight="1">
       <c r="D834" s="7"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="4:4" ht="15.75" customHeight="1">
       <c r="D835" s="7"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="4:4" ht="15.75" customHeight="1">
       <c r="D836" s="7"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="4:4" ht="15.75" customHeight="1">
       <c r="D837" s="7"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="4:4" ht="15.75" customHeight="1">
       <c r="D838" s="7"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="4:4" ht="15.75" customHeight="1">
       <c r="D839" s="7"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="4:4" ht="15.75" customHeight="1">
       <c r="D840" s="7"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="4:4" ht="15.75" customHeight="1">
       <c r="D841" s="7"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="4:4" ht="15.75" customHeight="1">
       <c r="D842" s="7"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="4:4" ht="15.75" customHeight="1">
       <c r="D843" s="7"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="4:4" ht="15.75" customHeight="1">
       <c r="D844" s="7"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="4:4" ht="15.75" customHeight="1">
       <c r="D845" s="7"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="4:4" ht="15.75" customHeight="1">
       <c r="D846" s="7"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="4:4" ht="15.75" customHeight="1">
       <c r="D847" s="7"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="4:4" ht="15.75" customHeight="1">
       <c r="D848" s="7"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="4:4" ht="15.75" customHeight="1">
       <c r="D849" s="7"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="4:4" ht="15.75" customHeight="1">
       <c r="D850" s="7"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="4:4" ht="15.75" customHeight="1">
       <c r="D851" s="7"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="4:4" ht="15.75" customHeight="1">
       <c r="D852" s="7"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="4:4" ht="15.75" customHeight="1">
       <c r="D853" s="7"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="4:4" ht="15.75" customHeight="1">
       <c r="D854" s="7"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="4:4" ht="15.75" customHeight="1">
       <c r="D855" s="7"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="4:4" ht="15.75" customHeight="1">
       <c r="D856" s="7"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="4:4" ht="15.75" customHeight="1">
       <c r="D857" s="7"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="4:4" ht="15.75" customHeight="1">
       <c r="D858" s="7"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="4:4" ht="15.75" customHeight="1">
       <c r="D859" s="7"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="4:4" ht="15.75" customHeight="1">
       <c r="D860" s="7"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="4:4" ht="15.75" customHeight="1">
       <c r="D861" s="7"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="4:4" ht="15.75" customHeight="1">
       <c r="D862" s="7"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="4:4" ht="15.75" customHeight="1">
       <c r="D863" s="7"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="4:4" ht="15.75" customHeight="1">
       <c r="D864" s="7"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="4:4" ht="15.75" customHeight="1">
       <c r="D865" s="7"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="4:4" ht="15.75" customHeight="1">
       <c r="D866" s="7"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="4:4" ht="15.75" customHeight="1">
       <c r="D867" s="7"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="4:4" ht="15.75" customHeight="1">
       <c r="D868" s="7"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="4:4" ht="15.75" customHeight="1">
       <c r="D869" s="7"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="4:4" ht="15.75" customHeight="1">
       <c r="D870" s="7"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="4:4" ht="15.75" customHeight="1">
       <c r="D871" s="7"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="4:4" ht="15.75" customHeight="1">
       <c r="D872" s="7"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="4:4" ht="15.75" customHeight="1">
       <c r="D873" s="7"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="4:4" ht="15.75" customHeight="1">
       <c r="D874" s="7"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="4:4" ht="15.75" customHeight="1">
       <c r="D875" s="7"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="4:4" ht="15.75" customHeight="1">
       <c r="D876" s="7"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="4:4" ht="15.75" customHeight="1">
       <c r="D877" s="7"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="4:4" ht="15.75" customHeight="1">
       <c r="D878" s="7"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="4:4" ht="15.75" customHeight="1">
       <c r="D879" s="7"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="4:4" ht="15.75" customHeight="1">
       <c r="D880" s="7"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="4:4" ht="15.75" customHeight="1">
       <c r="D881" s="7"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="4:4" ht="15.75" customHeight="1">
       <c r="D882" s="7"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="4:4" ht="15.75" customHeight="1">
       <c r="D883" s="7"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="4:4" ht="15.75" customHeight="1">
       <c r="D884" s="7"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="4:4" ht="15.75" customHeight="1">
       <c r="D885" s="7"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="4:4" ht="15.75" customHeight="1">
       <c r="D886" s="7"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="4:4" ht="15.75" customHeight="1">
       <c r="D887" s="7"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="4:4" ht="15.75" customHeight="1">
       <c r="D888" s="7"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="4:4" ht="15.75" customHeight="1">
       <c r="D889" s="7"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="4:4" ht="15.75" customHeight="1">
       <c r="D890" s="7"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="4:4" ht="15.75" customHeight="1">
       <c r="D891" s="7"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="4:4" ht="15.75" customHeight="1">
       <c r="D892" s="7"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="4:4" ht="15.75" customHeight="1">
       <c r="D893" s="7"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="4:4" ht="15.75" customHeight="1">
       <c r="D894" s="7"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="4:4" ht="15.75" customHeight="1">
       <c r="D895" s="7"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="4:4" ht="15.75" customHeight="1">
       <c r="D896" s="7"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="4:4" ht="15.75" customHeight="1">
       <c r="D897" s="7"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="4:4" ht="15.75" customHeight="1">
       <c r="D898" s="7"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="4:4" ht="15.75" customHeight="1">
       <c r="D899" s="7"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="4:4" ht="15.75" customHeight="1">
       <c r="D900" s="7"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="4:4" ht="15.75" customHeight="1">
       <c r="D901" s="7"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="4:4" ht="15.75" customHeight="1">
       <c r="D902" s="7"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="4:4" ht="15.75" customHeight="1">
       <c r="D903" s="7"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="4:4" ht="15.75" customHeight="1">
       <c r="D904" s="7"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="4:4" ht="15.75" customHeight="1">
       <c r="D905" s="7"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="4:4" ht="15.75" customHeight="1">
       <c r="D906" s="7"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="4:4" ht="15.75" customHeight="1">
       <c r="D907" s="7"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="4:4" ht="15.75" customHeight="1">
       <c r="D908" s="7"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="4:4" ht="15.75" customHeight="1">
       <c r="D909" s="7"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="4:4" ht="15.75" customHeight="1">
       <c r="D910" s="7"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="4:4" ht="15.75" customHeight="1">
       <c r="D911" s="7"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="4:4" ht="15.75" customHeight="1">
       <c r="D912" s="7"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="4:4" ht="15.75" customHeight="1">
       <c r="D913" s="7"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="4:4" ht="15.75" customHeight="1">
       <c r="D914" s="7"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="4:4" ht="15.75" customHeight="1">
       <c r="D915" s="7"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="4:4" ht="15.75" customHeight="1">
       <c r="D916" s="7"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="4:4" ht="15.75" customHeight="1">
       <c r="D917" s="7"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="4:4" ht="15.75" customHeight="1">
       <c r="D918" s="7"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="4:4" ht="15.75" customHeight="1">
       <c r="D919" s="7"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="4:4" ht="15.75" customHeight="1">
       <c r="D920" s="7"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="4:4" ht="15.75" customHeight="1">
       <c r="D921" s="7"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="4:4" ht="15.75" customHeight="1">
       <c r="D922" s="7"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="4:4" ht="15.75" customHeight="1">
       <c r="D923" s="7"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="4:4" ht="15.75" customHeight="1">
       <c r="D924" s="7"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="4:4" ht="15.75" customHeight="1">
       <c r="D925" s="7"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="4:4" ht="15.75" customHeight="1">
       <c r="D926" s="7"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="4:4" ht="15.75" customHeight="1">
       <c r="D927" s="7"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="4:4" ht="15.75" customHeight="1">
       <c r="D928" s="7"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="4:4" ht="15.75" customHeight="1">
       <c r="D929" s="7"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="4:4" ht="15.75" customHeight="1">
       <c r="D930" s="7"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="4:4" ht="15.75" customHeight="1">
       <c r="D931" s="7"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="4:4" ht="15.75" customHeight="1">
       <c r="D932" s="7"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="4:4" ht="15.75" customHeight="1">
       <c r="D933" s="7"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="4:4" ht="15.75" customHeight="1">
       <c r="D934" s="7"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="4:4" ht="15.75" customHeight="1">
       <c r="D935" s="7"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="4:4" ht="15.75" customHeight="1">
       <c r="D936" s="7"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="4:4" ht="15.75" customHeight="1">
       <c r="D937" s="7"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="4:4" ht="15.75" customHeight="1">
       <c r="D938" s="7"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="4:4" ht="15.75" customHeight="1">
       <c r="D939" s="7"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="4:4" ht="15.75" customHeight="1">
       <c r="D940" s="7"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="4:4" ht="15.75" customHeight="1">
       <c r="D941" s="7"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="4:4" ht="15.75" customHeight="1">
       <c r="D942" s="7"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="4:4" ht="15.75" customHeight="1">
       <c r="D943" s="7"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="4:4" ht="15.75" customHeight="1">
       <c r="D944" s="7"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="4:4" ht="15.75" customHeight="1">
       <c r="D945" s="7"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="4:4" ht="15.75" customHeight="1">
       <c r="D946" s="7"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="4:4" ht="15.75" customHeight="1">
       <c r="D947" s="7"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="4:4" ht="15.75" customHeight="1">
       <c r="D948" s="7"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="4:4" ht="15.75" customHeight="1">
       <c r="D949" s="7"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="4:4" ht="15.75" customHeight="1">
       <c r="D950" s="7"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="4:4" ht="15.75" customHeight="1">
       <c r="D951" s="7"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="4:4" ht="15.75" customHeight="1">
       <c r="D952" s="7"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="4:4" ht="15.75" customHeight="1">
       <c r="D953" s="7"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="4:4" ht="15.75" customHeight="1">
       <c r="D954" s="7"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="4:4" ht="15.75" customHeight="1">
       <c r="D955" s="7"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="4:4" ht="15.75" customHeight="1">
       <c r="D956" s="7"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="4:4" ht="15.75" customHeight="1">
       <c r="D957" s="7"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="4:4" ht="15.75" customHeight="1">
       <c r="D958" s="7"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="4:4" ht="15.75" customHeight="1">
       <c r="D959" s="7"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="4:4" ht="15.75" customHeight="1">
       <c r="D960" s="7"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="4:4" ht="15.75" customHeight="1">
       <c r="D961" s="7"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="4:4" ht="15.75" customHeight="1">
       <c r="D962" s="7"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="4:4" ht="15.75" customHeight="1">
       <c r="D963" s="7"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="4:4" ht="15.75" customHeight="1">
       <c r="D964" s="7"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="4:4" ht="15.75" customHeight="1">
       <c r="D965" s="7"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="4:4" ht="15.75" customHeight="1">
       <c r="D966" s="7"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="4:4" ht="15.75" customHeight="1">
       <c r="D967" s="7"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="4:4" ht="15.75" customHeight="1">
       <c r="D968" s="7"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="4:4" ht="15.75" customHeight="1">
       <c r="D969" s="7"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="4:4" ht="15.75" customHeight="1">
       <c r="D970" s="7"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="4:4" ht="15.75" customHeight="1">
       <c r="D971" s="7"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="4:4" ht="15.75" customHeight="1">
       <c r="D972" s="7"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="4:4" ht="15.75" customHeight="1">
       <c r="D973" s="7"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="4:4" ht="15.75" customHeight="1">
       <c r="D974" s="7"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="4:4" ht="15.75" customHeight="1">
       <c r="D975" s="7"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="4:4" ht="15.75" customHeight="1">
       <c r="D976" s="7"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="4:4" ht="15.75" customHeight="1">
       <c r="D977" s="7"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="4:4" ht="15.75" customHeight="1">
       <c r="D978" s="7"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="4:4" ht="15.75" customHeight="1">
       <c r="D979" s="7"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="4:4" ht="15.75" customHeight="1">
       <c r="D980" s="7"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="4:4" ht="15.75" customHeight="1">
       <c r="D981" s="7"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="4:4" ht="15.75" customHeight="1">
       <c r="D982" s="7"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="4:4" ht="15.75" customHeight="1">
       <c r="D983" s="7"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="4:4" ht="15.75" customHeight="1">
       <c r="D984" s="7"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="4:4" ht="15.75" customHeight="1">
       <c r="D985" s="7"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="4:4" ht="15.75" customHeight="1">
       <c r="D986" s="7"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="4:4" ht="15.75" customHeight="1">
       <c r="D987" s="7"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="4:4" ht="15.75" customHeight="1">
       <c r="D988" s="7"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="4:4" ht="15.75" customHeight="1">
       <c r="D989" s="7"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="4:4" ht="15.75" customHeight="1">
       <c r="D990" s="7"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="4:4" ht="15.75" customHeight="1">
       <c r="D991" s="7"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="4:4" ht="15.75" customHeight="1">
       <c r="D992" s="7"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="4:4" ht="15.75" customHeight="1">
       <c r="D993" s="7"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="4:4" ht="15.75" customHeight="1">
       <c r="D994" s="7"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="4:4" ht="15.75" customHeight="1">
       <c r="D995" s="7"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="4:4" ht="15.75" customHeight="1">
       <c r="D996" s="7"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="4:4" ht="15.75" customHeight="1">
       <c r="D997" s="7"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="4:4" ht="15.75" customHeight="1">
       <c r="D998" s="7"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="4:4" ht="15.75" customHeight="1">
       <c r="D999" s="7"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="4:4" ht="15.75" customHeight="1">
       <c r="D1000" s="7"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533569\Harshitha_Chetty_Ragava\44663\Mvc\SpreadSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sem 2\44663\Web application\Mvc\SpreadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
   <si>
     <t>CreditID</t>
   </si>
@@ -319,6 +319,21 @@
   </si>
   <si>
     <t>Summer 2018</t>
+  </si>
+  <si>
+    <t>Easy study plan</t>
+  </si>
+  <si>
+    <t>1 year plan</t>
+  </si>
+  <si>
+    <t>Study with break</t>
+  </si>
+  <si>
+    <t>Complete in one year</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4554,15 +4571,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4615,6 +4632,40 @@
       </c>
       <c r="E3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4">
+        <v>7253</v>
+      </c>
+      <c r="B4">
+        <v>533982</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5">
+        <v>7254</v>
+      </c>
+      <c r="B5">
+        <v>533982</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6677,7 +6728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6891,34 +6944,618 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7252</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>664</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7252</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7252</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7252</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>691</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7252</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>555</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7252</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>618</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7252</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>460</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7252</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>542</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7252</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>563</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7252</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>560</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7252</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7252</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>692</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7253</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>542</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7253</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>563</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7253</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>460</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7253</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>560</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7253</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>664</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7253</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>64</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7253</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>691</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7253</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7253</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>555</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7253</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>692</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7253</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7253</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>356</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7254</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>460</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7254</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>542</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7254</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>356</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7254</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>563</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7254</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>560</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7254</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>664</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7254</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>618</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7254</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>555</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7254</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>691</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7254</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>692</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7254</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7254</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>64</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -7881,7 +8518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sem 2\44663\Web application\Mvc\SpreadSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533573\Documents\44663\New folder\Mvc\SpreadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="107">
   <si>
     <t>CreditID</t>
   </si>
@@ -335,12 +335,24 @@
   <si>
     <t>p</t>
   </si>
+  <si>
+    <t>slow and steady</t>
+  </si>
+  <si>
+    <t>Default fall plan</t>
+  </si>
+  <si>
+    <t>Maximum semester possible</t>
+  </si>
+  <si>
+    <t>Fall intake default 1.5 year plan.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -360,6 +372,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -400,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +449,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4571,15 +4590,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4666,6 +4685,40 @@
       </c>
       <c r="E5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6">
+        <v>7255</v>
+      </c>
+      <c r="B6">
+        <v>533573</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7">
+        <v>7256</v>
+      </c>
+      <c r="B7">
+        <v>533573</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6728,7 +6781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -8518,7 +8571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -11906,6 +11961,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
   <si>
     <t>CreditID</t>
   </si>
@@ -96,13 +96,7 @@
     <t>Network Fundamentals</t>
   </si>
   <si>
-    <t>542_OOP</t>
-  </si>
-  <si>
     <t>OOP with Java</t>
-  </si>
-  <si>
-    <t>563_Web</t>
   </si>
   <si>
     <t>Web Apps</t>
@@ -142,12 +136,6 @@
   </si>
   <si>
     <t>GDP2</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>643 or 644 Mobile</t>
   </si>
   <si>
     <t>E1</t>
@@ -346,6 +334,21 @@
   </si>
   <si>
     <t>Fall intake default 1.5 year plan.</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>643-Android</t>
+  </si>
+  <si>
+    <t>542-OOP</t>
+  </si>
+  <si>
+    <t>563-Web</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1795,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1869,10 +1872,10 @@
         <v>542</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1889,10 +1892,10 @@
         <v>563</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1909,10 +1912,10 @@
         <v>560</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1929,10 +1932,10 @@
         <v>664</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1949,10 +1952,10 @@
         <v>618</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1969,10 +1972,10 @@
         <v>555</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1989,10 +1992,10 @@
         <v>691</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2009,10 +2012,10 @@
         <v>692</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2026,13 +2029,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>64</v>
+        <v>643</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2049,10 +2052,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2069,10 +2072,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2082,6 +2085,17 @@
       </c>
       <c r="F14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15">
+        <v>644</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3078,8 +3092,8 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3219,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3351,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
@@ -3483,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>64</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -3604,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>64</v>
+        <v>644</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
@@ -4590,7 +4604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4604,16 +4618,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -4627,10 +4641,10 @@
         <v>533569</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -4644,10 +4658,10 @@
         <v>533569</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -4661,10 +4675,10 @@
         <v>533982</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -4678,10 +4692,10 @@
         <v>533982</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -4695,10 +4709,10 @@
         <v>533573</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -4712,10 +4726,10 @@
         <v>533573</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -5725,16 +5739,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1">
         <v>919</v>
@@ -5745,13 +5759,13 @@
         <v>533569</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3">
         <v>919568034</v>
@@ -5762,13 +5776,13 @@
         <v>533982</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4">
         <v>919569110</v>
@@ -5779,13 +5793,13 @@
         <v>533573</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="5">
         <v>919570332</v>
@@ -6781,8 +6795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6795,19 +6809,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6824,7 +6838,7 @@
         <v>542</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6841,7 +6855,7 @@
         <v>563</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6858,7 +6872,7 @@
         <v>560</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6875,7 +6889,7 @@
         <v>664</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6892,7 +6906,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6909,7 +6923,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6926,7 +6940,7 @@
         <v>618</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6943,7 +6957,7 @@
         <v>691</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6960,7 +6974,7 @@
         <v>692</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6977,7 +6991,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6994,7 +7008,7 @@
         <v>555</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
@@ -7011,7 +7025,7 @@
         <v>664</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
@@ -7028,7 +7042,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
@@ -7045,7 +7059,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
@@ -7062,7 +7076,7 @@
         <v>691</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
@@ -7079,7 +7093,7 @@
         <v>555</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
@@ -7096,7 +7110,7 @@
         <v>618</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
@@ -7113,7 +7127,7 @@
         <v>460</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
@@ -7130,7 +7144,7 @@
         <v>542</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
@@ -7147,7 +7161,7 @@
         <v>563</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
@@ -7164,7 +7178,7 @@
         <v>560</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
@@ -7181,7 +7195,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
@@ -7198,7 +7212,7 @@
         <v>692</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
@@ -7215,7 +7229,7 @@
         <v>542</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
@@ -7232,7 +7246,7 @@
         <v>563</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
@@ -7249,7 +7263,7 @@
         <v>460</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
@@ -7266,7 +7280,7 @@
         <v>560</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
@@ -7283,7 +7297,7 @@
         <v>664</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
@@ -7300,7 +7314,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
@@ -7317,7 +7331,7 @@
         <v>691</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
@@ -7334,7 +7348,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
@@ -7351,7 +7365,7 @@
         <v>555</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
@@ -7368,7 +7382,7 @@
         <v>692</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
@@ -7385,7 +7399,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
@@ -7402,7 +7416,7 @@
         <v>356</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
@@ -7419,7 +7433,7 @@
         <v>460</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
@@ -7436,7 +7450,7 @@
         <v>542</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
@@ -7453,7 +7467,7 @@
         <v>356</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
@@ -7470,7 +7484,7 @@
         <v>563</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
@@ -7487,7 +7501,7 @@
         <v>560</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
@@ -7504,7 +7518,7 @@
         <v>664</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
@@ -7521,7 +7535,7 @@
         <v>618</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
@@ -7538,7 +7552,7 @@
         <v>555</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
@@ -7555,7 +7569,7 @@
         <v>691</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
@@ -7572,7 +7586,7 @@
         <v>692</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
@@ -7589,7 +7603,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
@@ -7606,41 +7620,437 @@
         <v>64</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7255</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>356</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>563</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>542</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>555</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>644</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>560</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>618</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>691</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1">
+        <v>692</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1">
+        <v>643</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6">
+        <v>7255</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1">
+        <v>664</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>356</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>563</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+      <c r="B63" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>542</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>555</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>644</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>560</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>618</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>691</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1">
+        <v>692</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>643</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6">
+        <v>7256</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>664</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -8571,8 +8981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8587,19 +8997,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8613,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8630,10 +9040,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8647,10 +9057,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8664,10 +9074,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8681,10 +9091,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8698,10 +9108,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8715,10 +9125,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8732,10 +9142,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8749,10 +9159,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8766,10 +9176,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8783,10 +9193,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8800,10 +9210,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8817,10 +9227,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8834,10 +9244,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8851,10 +9261,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8868,10 +9278,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8885,10 +9295,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8902,10 +9312,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8919,10 +9329,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
@@ -8936,10 +9346,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
@@ -8953,10 +9363,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
@@ -8970,10 +9380,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
@@ -8987,10 +9397,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
@@ -9004,10 +9414,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
@@ -9021,10 +9431,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
@@ -9038,10 +9448,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1"/>

--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533573\Documents\44663\New folder\Mvc\SpreadSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533569\Harshitha_Chetty_Ragava\44663\Mvc\SpreadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,42 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
-  <si>
-    <t>CreditID</t>
-  </si>
-  <si>
-    <t>CreditAbbrev</t>
-  </si>
-  <si>
-    <t>CreditName</t>
-  </si>
-  <si>
-    <t>IsSummer</t>
-  </si>
-  <si>
-    <t>IsSpring</t>
-  </si>
-  <si>
-    <t>IsFall</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
   <si>
     <t>DB</t>
-  </si>
-  <si>
-    <t>DegreeID</t>
-  </si>
-  <si>
-    <t>DegreeCreditID</t>
   </si>
   <si>
     <t>DegreeAbrrev(U,8)</t>
   </si>
   <si>
     <t>DegreeName(U,20)</t>
-  </si>
-  <si>
-    <t>NoOfTerms</t>
   </si>
   <si>
     <t>ACS+2</t>
@@ -150,39 +123,6 @@
     <t>Elective 2</t>
   </si>
   <si>
-    <t>DegreePlanID</t>
-  </si>
-  <si>
-    <t>SlotID</t>
-  </si>
-  <si>
-    <t>DegreePlan</t>
-  </si>
-  <si>
-    <t>StudentID</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>DegreePlanAbbrev</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>DegreePlanName</t>
-  </si>
-  <si>
-    <t>FamilyName</t>
-  </si>
-  <si>
-    <t>GivenName</t>
-  </si>
-  <si>
-    <t>Snumber</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -229,18 +169,6 @@
   </si>
   <si>
     <t>S533573</t>
-  </si>
-  <si>
-    <t>StudentTermID</t>
-  </si>
-  <si>
-    <t>StudentTerm</t>
-  </si>
-  <si>
-    <t>TermAbbrev</t>
-  </si>
-  <si>
-    <t>TermName</t>
   </si>
   <si>
     <t>F18</t>
@@ -350,6 +278,93 @@
   <si>
     <t>563-Web</t>
   </si>
+  <si>
+    <t>NoOfTerms(U,2)</t>
+  </si>
+  <si>
+    <t>CreditAbbrev(U,10)</t>
+  </si>
+  <si>
+    <t>CreditName(U,25)</t>
+  </si>
+  <si>
+    <t>IsSummer(U,1)</t>
+  </si>
+  <si>
+    <t>IsSpring(U,1)</t>
+  </si>
+  <si>
+    <t>IsFall(U,1)</t>
+  </si>
+  <si>
+    <t>DegreeID(FK)(U,5)</t>
+  </si>
+  <si>
+    <t>CreditID(FK)(U,5)</t>
+  </si>
+  <si>
+    <t>DegreeCreditID(PK)(U,5)</t>
+  </si>
+  <si>
+    <t>DegreeID(PK)(U,5)</t>
+  </si>
+  <si>
+    <t>CreditID(PK)(U,5)</t>
+  </si>
+  <si>
+    <t>DegreePlanID(PK)(U,5)</t>
+  </si>
+  <si>
+    <t>StudentID(U,10)</t>
+  </si>
+  <si>
+    <t>DegreePlanAbbrev(U,15)</t>
+  </si>
+  <si>
+    <t>DegreePlanName(U,25)</t>
+  </si>
+  <si>
+    <t>StudentID(PK)(U,10)</t>
+  </si>
+  <si>
+    <t>FamilyName(U,30)</t>
+  </si>
+  <si>
+    <t>GivenName(U,30)</t>
+  </si>
+  <si>
+    <t>Snumber(U,10)</t>
+  </si>
+  <si>
+    <t>919(U,15)</t>
+  </si>
+  <si>
+    <t>SlotID(PK)(U,5)</t>
+  </si>
+  <si>
+    <t>DegreePlan(FK)(U,5)</t>
+  </si>
+  <si>
+    <t>Term(U,2)</t>
+  </si>
+  <si>
+    <t>Status(U,1)</t>
+  </si>
+  <si>
+    <t>StudentTermID(PK)(U,5)</t>
+  </si>
+  <si>
+    <t>StudentID(FK)(U,10)</t>
+  </si>
+  <si>
+    <t>StudentTerm(U,2)</t>
+  </si>
+  <si>
+    <t>TermAbbrev(U,5)</t>
+  </si>
+  <si>
+    <t>TermName(U,10)</t>
+  </si>
 </sst>
 </file>
 
@@ -357,12 +372,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -382,8 +391,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +422,20 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -417,42 +443,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,73 +778,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
+      <c r="D5" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1795,307 +1852,318 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15">
+        <v>460</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>460</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15">
+        <v>356</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15">
+        <v>542</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15">
+        <v>563</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15">
+        <v>560</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15">
+        <v>664</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15">
+        <v>618</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15">
+        <v>555</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F9" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>356</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3">
+    <row r="10" spans="1:6">
+      <c r="A10" s="15">
+        <v>691</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15">
+        <v>692</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F11" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>542</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
+    <row r="12" spans="1:6">
+      <c r="A12" s="15">
+        <v>643</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="15">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F12" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>563</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
+    <row r="13" spans="1:6">
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="15">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F13" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>560</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
+    <row r="14" spans="1:6">
+      <c r="A14" s="15">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F14" s="15">
         <v>1</v>
       </c>
-      <c r="F6">
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="15">
+        <v>644</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>664</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="F15" s="15">
         <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>618</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>555</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>691</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>692</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>643</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15">
-        <v>644</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3083,7 +3151,7 @@
     <hyperlink ref="B11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3092,554 +3160,555 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C9" s="15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C10" s="15">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15">
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="16" spans="1:3">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="C16" s="15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>2</v>
+      </c>
+      <c r="C19" s="15">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>2</v>
+      </c>
+      <c r="C24" s="15">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15">
+        <v>2</v>
+      </c>
+      <c r="C25" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15">
+        <v>2</v>
+      </c>
+      <c r="C26" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15">
+        <v>3</v>
+      </c>
+      <c r="C27" s="15">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="C28" s="15">
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15">
+        <v>3</v>
+      </c>
+      <c r="C29" s="15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3</v>
+      </c>
+      <c r="C30" s="15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3</v>
+      </c>
+      <c r="C31" s="15">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15">
+        <v>3</v>
+      </c>
+      <c r="C32" s="15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3</v>
+      </c>
+      <c r="C33" s="15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15">
+        <v>3</v>
+      </c>
+      <c r="C34" s="15">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15">
+        <v>3</v>
+      </c>
+      <c r="C35" s="15">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15">
+        <v>3</v>
+      </c>
+      <c r="C36" s="15">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="15">
+        <v>3</v>
+      </c>
+      <c r="C37" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="15">
+        <v>3</v>
+      </c>
+      <c r="C38" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="15">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="C39" s="15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15">
+        <v>4</v>
+      </c>
+      <c r="C40" s="15">
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="15">
+        <v>4</v>
+      </c>
+      <c r="C41" s="15">
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="15">
+        <v>4</v>
+      </c>
+      <c r="C42" s="15">
         <v>664</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15">
+        <v>4</v>
+      </c>
+      <c r="C43" s="15">
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15">
+        <v>4</v>
+      </c>
+      <c r="C44" s="15">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15">
+        <v>4</v>
+      </c>
+      <c r="C45" s="15">
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="15">
+        <v>4</v>
+      </c>
+      <c r="C46" s="15">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="15">
+        <v>4</v>
+      </c>
+      <c r="C47" s="15">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="15">
+        <v>4</v>
+      </c>
+      <c r="C48" s="15">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15">
         <v>4</v>
       </c>
-      <c r="C39">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
+      <c r="C49" s="15">
         <v>20</v>
       </c>
     </row>
@@ -4605,133 +4674,135 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
+      <c r="A1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="15">
         <v>7251</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="15">
         <v>533569</v>
       </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="A3" s="15">
         <v>7252</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <v>533569</v>
       </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4">
+      <c r="A4" s="15">
         <v>7253</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <v>533982</v>
       </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5">
+      <c r="A5" s="15">
         <v>7254</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>533982</v>
       </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6">
+      <c r="A6" s="15">
         <v>7255</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <v>533573</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7">
+      <c r="A7" s="15">
         <v>7256</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15">
         <v>533573</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="15">
         <v>4</v>
       </c>
     </row>
@@ -5725,83 +5796,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>533569</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5">
+        <v>919568034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6">
+        <v>533982</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
-        <v>533569</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="3">
-        <v>919568034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
-        <v>533982</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>919569110</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>533573</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="7">
         <v>919570332</v>
       </c>
     </row>
@@ -6793,1262 +6866,1260 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>542</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <v>563</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>560</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>664</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>6</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C8" s="16">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16">
+        <v>618</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>691</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16">
+        <v>692</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C11" s="16">
+        <v>4</v>
+      </c>
+      <c r="D11" s="16">
+        <v>20</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>7251</v>
+      </c>
+      <c r="C12" s="16">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16">
+        <v>555</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>664</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>64</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C16" s="16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="16">
+        <v>691</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16">
+        <v>555</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16">
+        <v>618</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C19" s="16">
+        <v>3</v>
+      </c>
+      <c r="D19" s="16">
+        <v>460</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3</v>
+      </c>
+      <c r="D20" s="16">
+        <v>542</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16">
+        <v>563</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C22" s="16">
+        <v>4</v>
+      </c>
+      <c r="D22" s="16">
+        <v>560</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C23" s="16">
+        <v>4</v>
+      </c>
+      <c r="D23" s="16">
+        <v>20</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>7252</v>
+      </c>
+      <c r="C24" s="16">
+        <v>4</v>
+      </c>
+      <c r="D24" s="16">
+        <v>692</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16">
+        <v>542</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16">
+        <v>563</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16">
+        <v>460</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C28" s="16">
+        <v>2</v>
+      </c>
+      <c r="D28" s="16">
+        <v>560</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C29" s="16">
+        <v>2</v>
+      </c>
+      <c r="D29" s="16">
+        <v>664</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C30" s="16">
+        <v>2</v>
+      </c>
+      <c r="D30" s="16">
+        <v>64</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C31" s="16">
+        <v>3</v>
+      </c>
+      <c r="D31" s="16">
+        <v>691</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C32" s="16">
+        <v>3</v>
+      </c>
+      <c r="D32" s="16">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C33" s="16">
+        <v>3</v>
+      </c>
+      <c r="D33" s="16">
+        <v>555</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C34" s="16">
+        <v>4</v>
+      </c>
+      <c r="D34" s="16">
+        <v>692</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C35" s="16">
+        <v>4</v>
+      </c>
+      <c r="D35" s="16">
+        <v>20</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15">
+        <v>7253</v>
+      </c>
+      <c r="C36" s="16">
+        <v>4</v>
+      </c>
+      <c r="D36" s="16">
+        <v>356</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1</v>
+      </c>
+      <c r="D37" s="16">
+        <v>460</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C38" s="16">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16">
+        <v>542</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1</v>
+      </c>
+      <c r="D39" s="16">
+        <v>356</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C40" s="16">
+        <v>2</v>
+      </c>
+      <c r="D40" s="16">
+        <v>563</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C41" s="16">
+        <v>2</v>
+      </c>
+      <c r="D41" s="16">
+        <v>560</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2</v>
+      </c>
+      <c r="D42" s="16">
+        <v>664</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B43" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C43" s="16">
+        <v>3</v>
+      </c>
+      <c r="D43" s="16">
+        <v>618</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B44" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C44" s="16">
+        <v>3</v>
+      </c>
+      <c r="D44" s="16">
+        <v>555</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C45" s="16">
+        <v>3</v>
+      </c>
+      <c r="D45" s="16">
+        <v>691</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B46" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C46" s="16">
+        <v>4</v>
+      </c>
+      <c r="D46" s="16">
+        <v>692</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C47" s="16">
+        <v>4</v>
+      </c>
+      <c r="D47" s="16">
+        <v>10</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="15">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="B48" s="15">
+        <v>7254</v>
+      </c>
+      <c r="C48" s="16">
+        <v>4</v>
+      </c>
+      <c r="D48" s="16">
+        <v>64</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C49" s="16">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>7251</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="D49" s="16">
+        <v>356</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C50" s="16">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D50" s="16">
+        <v>563</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C51" s="16">
+        <v>1</v>
+      </c>
+      <c r="D51" s="16">
         <v>542</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E51" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C52" s="16">
+        <v>2</v>
+      </c>
+      <c r="D52" s="16">
+        <v>555</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="15">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="B53" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C53" s="16">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>7251</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D53" s="16">
+        <v>644</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C54" s="16">
+        <v>2</v>
+      </c>
+      <c r="D54" s="16">
+        <v>560</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C55" s="16">
+        <v>3</v>
+      </c>
+      <c r="D55" s="16">
+        <v>618</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C56" s="16">
+        <v>3</v>
+      </c>
+      <c r="D56" s="16">
+        <v>691</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C57" s="16">
+        <v>4</v>
+      </c>
+      <c r="D57" s="16">
+        <v>692</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C58" s="16">
+        <v>4</v>
+      </c>
+      <c r="D58" s="16">
+        <v>643</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C59" s="16">
+        <v>4</v>
+      </c>
+      <c r="D59" s="16">
+        <v>10</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="15">
+        <v>7255</v>
+      </c>
+      <c r="C60" s="16">
+        <v>5</v>
+      </c>
+      <c r="D60" s="16">
+        <v>664</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C61" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D61" s="16">
+        <v>356</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C62" s="16">
+        <v>1</v>
+      </c>
+      <c r="D62" s="16">
         <v>563</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="E62" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+      <c r="B63" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C63" s="16">
+        <v>1</v>
+      </c>
+      <c r="D63" s="16">
+        <v>542</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C64" s="16">
+        <v>2</v>
+      </c>
+      <c r="D64" s="16">
+        <v>555</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A65" s="15">
+        <v>64</v>
+      </c>
+      <c r="B65" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C65" s="16">
+        <v>2</v>
+      </c>
+      <c r="D65" s="16">
+        <v>644</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+      <c r="B66" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C66" s="16">
+        <v>2</v>
+      </c>
+      <c r="D66" s="16">
+        <v>560</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A67" s="15">
+        <v>66</v>
+      </c>
+      <c r="B67" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C67" s="16">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>7251</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>560</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="D67" s="16">
+        <v>618</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A68" s="15">
+        <v>67</v>
+      </c>
+      <c r="B68" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C68" s="16">
+        <v>3</v>
+      </c>
+      <c r="D68" s="16">
+        <v>691</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A69" s="15">
+        <v>68</v>
+      </c>
+      <c r="B69" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C69" s="16">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>7251</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D69" s="16">
+        <v>692</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A70" s="15">
+        <v>69</v>
+      </c>
+      <c r="B70" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C70" s="16">
+        <v>4</v>
+      </c>
+      <c r="D70" s="16">
+        <v>643</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A71" s="15">
+        <v>70</v>
+      </c>
+      <c r="B71" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C71" s="16">
+        <v>5</v>
+      </c>
+      <c r="D71" s="16">
+        <v>10</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A72" s="15">
+        <v>71</v>
+      </c>
+      <c r="B72" s="15">
+        <v>7256</v>
+      </c>
+      <c r="C72" s="16">
+        <v>5</v>
+      </c>
+      <c r="D72" s="16">
         <v>664</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>7251</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7251</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7251</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>618</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>7251</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>691</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>7251</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>692</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>7251</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>7251</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>555</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>7252</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>664</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>7252</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>7252</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7252</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>691</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>7252</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>555</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>7252</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>618</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>7252</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>460</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>7252</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>542</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>7252</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>563</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>7252</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>560</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>7252</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>7252</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>692</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>7253</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>542</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>7253</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>563</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>7253</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>460</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>7253</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>560</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>7253</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>664</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>7253</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>64</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>7253</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
-        <v>691</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>7253</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>7253</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>555</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>7253</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1">
-        <v>692</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>7253</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>20</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>7253</v>
-      </c>
-      <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1">
-        <v>356</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>7254</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>460</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>7254</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>542</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39">
+      <c r="E72" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>7254</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>356</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>7254</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1">
-        <v>563</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>7254</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1">
-        <v>560</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>7254</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1">
-        <v>664</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>7254</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1">
-        <v>618</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>7254</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1">
-        <v>555</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>7254</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1">
-        <v>691</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>7254</v>
-      </c>
-      <c r="C46" s="1">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1">
-        <v>692</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>7254</v>
-      </c>
-      <c r="C47" s="1">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>7254</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1">
-        <v>64</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>7255</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>356</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>563</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>542</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1">
-        <v>555</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>644</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>560</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1">
-        <v>618</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1">
-        <v>691</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C57" s="1">
-        <v>4</v>
-      </c>
-      <c r="D57" s="1">
-        <v>692</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4</v>
-      </c>
-      <c r="D58" s="1">
-        <v>643</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C59" s="1">
-        <v>4</v>
-      </c>
-      <c r="D59" s="1">
-        <v>10</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6">
-        <v>7255</v>
-      </c>
-      <c r="C60" s="1">
-        <v>4</v>
-      </c>
-      <c r="D60" s="1">
-        <v>664</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>356</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>563</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>542</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C64" s="1">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1">
-        <v>555</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2</v>
-      </c>
-      <c r="D65" s="1">
-        <v>644</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2</v>
-      </c>
-      <c r="D66" s="1">
-        <v>560</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C67" s="1">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1">
-        <v>618</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C68" s="1">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1">
-        <v>691</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C69" s="1">
-        <v>4</v>
-      </c>
-      <c r="D69" s="1">
-        <v>692</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C70" s="1">
-        <v>4</v>
-      </c>
-      <c r="D70" s="1">
-        <v>643</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C71" s="1">
-        <v>5</v>
-      </c>
-      <c r="D71" s="1">
-        <v>10</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="6">
-        <v>7256</v>
-      </c>
-      <c r="C72" s="1">
-        <v>5</v>
-      </c>
-      <c r="D72" s="1">
-        <v>664</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B73" s="6"/>
+      <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B74" s="6"/>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B75" s="6"/>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B76" s="6"/>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B78" s="6"/>
-    </row>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="79" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="80" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
@@ -8970,7 +9041,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8981,3393 +9051,3393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>533569</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>533569</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>533569</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>533569</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>533573</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>533573</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>533573</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>533573</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>533982</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>533982</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>533982</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>533982</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>533982</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>533982</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>533982</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>533982</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>533573</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>533573</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>533573</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>533573</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>533573</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>533569</v>
+      </c>
+      <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
         <v>533569</v>
       </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8">
+      <c r="C24" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="D24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
         <v>533569</v>
       </c>
-      <c r="C3" s="9">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8">
+      <c r="C25" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="D25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
         <v>533569</v>
       </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="C26" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="D26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
         <v>533569</v>
       </c>
-      <c r="C5" s="9">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8">
+      <c r="C27" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
-        <v>533573</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>533573</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>533573</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>533573</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>533982</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>533982</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>533982</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>533982</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>533982</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>533982</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>533982</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>533982</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>533573</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>533573</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <v>533573</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <v>533573</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>533573</v>
-      </c>
-      <c r="C22" s="5">
-        <v>5</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14">
-        <v>533569</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14">
-        <v>533569</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14">
-        <v>533569</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="14">
-        <v>533569</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>533569</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>83</v>
+      <c r="D27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D30" s="7"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D31" s="7"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D32" s="7"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D33" s="7"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D34" s="7"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D35" s="7"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D36" s="7"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D37" s="7"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D38" s="7"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D39" s="7"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D40" s="7"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D41" s="7"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D42" s="7"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D43" s="7"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D44" s="7"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D45" s="7"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D46" s="7"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D47" s="7"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D48" s="7"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D49" s="7"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D50" s="7"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D51" s="7"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D52" s="7"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D53" s="7"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D54" s="7"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D55" s="7"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D56" s="7"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D57" s="7"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D58" s="7"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D59" s="7"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D60" s="7"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D61" s="7"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D62" s="7"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D63" s="7"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D64" s="7"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D65" s="7"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D66" s="7"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D67" s="7"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D68" s="7"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D69" s="7"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D70" s="7"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D71" s="7"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D72" s="7"/>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D73" s="7"/>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D74" s="7"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D75" s="7"/>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D76" s="7"/>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D77" s="7"/>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D78" s="7"/>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D79" s="7"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D80" s="7"/>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D81" s="7"/>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D82" s="7"/>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D83" s="7"/>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D84" s="7"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D85" s="7"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D86" s="7"/>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D87" s="7"/>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D88" s="7"/>
+      <c r="D88" s="2"/>
     </row>
     <row r="89" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D89" s="7"/>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D90" s="7"/>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D91" s="7"/>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D92" s="7"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D93" s="7"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D94" s="7"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D95" s="7"/>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D96" s="7"/>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D97" s="7"/>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D98" s="7"/>
+      <c r="D98" s="2"/>
     </row>
     <row r="99" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D99" s="7"/>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D100" s="7"/>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D101" s="7"/>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D102" s="7"/>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D103" s="7"/>
+      <c r="D103" s="2"/>
     </row>
     <row r="104" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D104" s="7"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D105" s="7"/>
+      <c r="D105" s="2"/>
     </row>
     <row r="106" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D106" s="7"/>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D107" s="7"/>
+      <c r="D107" s="2"/>
     </row>
     <row r="108" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D108" s="7"/>
+      <c r="D108" s="2"/>
     </row>
     <row r="109" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D109" s="7"/>
+      <c r="D109" s="2"/>
     </row>
     <row r="110" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D110" s="7"/>
+      <c r="D110" s="2"/>
     </row>
     <row r="111" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D111" s="7"/>
+      <c r="D111" s="2"/>
     </row>
     <row r="112" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D112" s="7"/>
+      <c r="D112" s="2"/>
     </row>
     <row r="113" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D113" s="7"/>
+      <c r="D113" s="2"/>
     </row>
     <row r="114" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D114" s="7"/>
+      <c r="D114" s="2"/>
     </row>
     <row r="115" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D115" s="7"/>
+      <c r="D115" s="2"/>
     </row>
     <row r="116" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D116" s="7"/>
+      <c r="D116" s="2"/>
     </row>
     <row r="117" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D117" s="7"/>
+      <c r="D117" s="2"/>
     </row>
     <row r="118" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D118" s="7"/>
+      <c r="D118" s="2"/>
     </row>
     <row r="119" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D119" s="7"/>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D120" s="7"/>
+      <c r="D120" s="2"/>
     </row>
     <row r="121" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D121" s="7"/>
+      <c r="D121" s="2"/>
     </row>
     <row r="122" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D122" s="7"/>
+      <c r="D122" s="2"/>
     </row>
     <row r="123" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D123" s="7"/>
+      <c r="D123" s="2"/>
     </row>
     <row r="124" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D124" s="7"/>
+      <c r="D124" s="2"/>
     </row>
     <row r="125" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D125" s="7"/>
+      <c r="D125" s="2"/>
     </row>
     <row r="126" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D126" s="7"/>
+      <c r="D126" s="2"/>
     </row>
     <row r="127" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D127" s="7"/>
+      <c r="D127" s="2"/>
     </row>
     <row r="128" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D128" s="7"/>
+      <c r="D128" s="2"/>
     </row>
     <row r="129" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D129" s="7"/>
+      <c r="D129" s="2"/>
     </row>
     <row r="130" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D130" s="7"/>
+      <c r="D130" s="2"/>
     </row>
     <row r="131" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D131" s="7"/>
+      <c r="D131" s="2"/>
     </row>
     <row r="132" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D132" s="7"/>
+      <c r="D132" s="2"/>
     </row>
     <row r="133" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D133" s="7"/>
+      <c r="D133" s="2"/>
     </row>
     <row r="134" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D134" s="7"/>
+      <c r="D134" s="2"/>
     </row>
     <row r="135" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D135" s="7"/>
+      <c r="D135" s="2"/>
     </row>
     <row r="136" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D136" s="7"/>
+      <c r="D136" s="2"/>
     </row>
     <row r="137" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D137" s="7"/>
+      <c r="D137" s="2"/>
     </row>
     <row r="138" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D138" s="7"/>
+      <c r="D138" s="2"/>
     </row>
     <row r="139" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D139" s="7"/>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D140" s="7"/>
+      <c r="D140" s="2"/>
     </row>
     <row r="141" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D141" s="7"/>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D142" s="7"/>
+      <c r="D142" s="2"/>
     </row>
     <row r="143" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D143" s="7"/>
+      <c r="D143" s="2"/>
     </row>
     <row r="144" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D144" s="7"/>
+      <c r="D144" s="2"/>
     </row>
     <row r="145" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D145" s="7"/>
+      <c r="D145" s="2"/>
     </row>
     <row r="146" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D146" s="7"/>
+      <c r="D146" s="2"/>
     </row>
     <row r="147" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D147" s="7"/>
+      <c r="D147" s="2"/>
     </row>
     <row r="148" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D148" s="7"/>
+      <c r="D148" s="2"/>
     </row>
     <row r="149" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D149" s="7"/>
+      <c r="D149" s="2"/>
     </row>
     <row r="150" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D150" s="7"/>
+      <c r="D150" s="2"/>
     </row>
     <row r="151" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D151" s="7"/>
+      <c r="D151" s="2"/>
     </row>
     <row r="152" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D152" s="7"/>
+      <c r="D152" s="2"/>
     </row>
     <row r="153" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D153" s="7"/>
+      <c r="D153" s="2"/>
     </row>
     <row r="154" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D154" s="7"/>
+      <c r="D154" s="2"/>
     </row>
     <row r="155" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D155" s="7"/>
+      <c r="D155" s="2"/>
     </row>
     <row r="156" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D156" s="7"/>
+      <c r="D156" s="2"/>
     </row>
     <row r="157" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D157" s="7"/>
+      <c r="D157" s="2"/>
     </row>
     <row r="158" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D158" s="7"/>
+      <c r="D158" s="2"/>
     </row>
     <row r="159" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D159" s="7"/>
+      <c r="D159" s="2"/>
     </row>
     <row r="160" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D160" s="7"/>
+      <c r="D160" s="2"/>
     </row>
     <row r="161" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D161" s="7"/>
+      <c r="D161" s="2"/>
     </row>
     <row r="162" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D162" s="7"/>
+      <c r="D162" s="2"/>
     </row>
     <row r="163" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D163" s="7"/>
+      <c r="D163" s="2"/>
     </row>
     <row r="164" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D164" s="7"/>
+      <c r="D164" s="2"/>
     </row>
     <row r="165" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D165" s="7"/>
+      <c r="D165" s="2"/>
     </row>
     <row r="166" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D166" s="7"/>
+      <c r="D166" s="2"/>
     </row>
     <row r="167" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D167" s="7"/>
+      <c r="D167" s="2"/>
     </row>
     <row r="168" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D168" s="7"/>
+      <c r="D168" s="2"/>
     </row>
     <row r="169" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D169" s="7"/>
+      <c r="D169" s="2"/>
     </row>
     <row r="170" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D170" s="7"/>
+      <c r="D170" s="2"/>
     </row>
     <row r="171" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D171" s="7"/>
+      <c r="D171" s="2"/>
     </row>
     <row r="172" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D172" s="7"/>
+      <c r="D172" s="2"/>
     </row>
     <row r="173" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D173" s="7"/>
+      <c r="D173" s="2"/>
     </row>
     <row r="174" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D174" s="7"/>
+      <c r="D174" s="2"/>
     </row>
     <row r="175" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D175" s="7"/>
+      <c r="D175" s="2"/>
     </row>
     <row r="176" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D176" s="7"/>
+      <c r="D176" s="2"/>
     </row>
     <row r="177" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D177" s="7"/>
+      <c r="D177" s="2"/>
     </row>
     <row r="178" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D178" s="7"/>
+      <c r="D178" s="2"/>
     </row>
     <row r="179" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D179" s="7"/>
+      <c r="D179" s="2"/>
     </row>
     <row r="180" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D180" s="7"/>
+      <c r="D180" s="2"/>
     </row>
     <row r="181" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D181" s="7"/>
+      <c r="D181" s="2"/>
     </row>
     <row r="182" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D182" s="7"/>
+      <c r="D182" s="2"/>
     </row>
     <row r="183" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D183" s="7"/>
+      <c r="D183" s="2"/>
     </row>
     <row r="184" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D184" s="7"/>
+      <c r="D184" s="2"/>
     </row>
     <row r="185" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D185" s="7"/>
+      <c r="D185" s="2"/>
     </row>
     <row r="186" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D186" s="7"/>
+      <c r="D186" s="2"/>
     </row>
     <row r="187" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D187" s="7"/>
+      <c r="D187" s="2"/>
     </row>
     <row r="188" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D188" s="7"/>
+      <c r="D188" s="2"/>
     </row>
     <row r="189" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D189" s="7"/>
+      <c r="D189" s="2"/>
     </row>
     <row r="190" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D190" s="7"/>
+      <c r="D190" s="2"/>
     </row>
     <row r="191" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D191" s="7"/>
+      <c r="D191" s="2"/>
     </row>
     <row r="192" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D192" s="7"/>
+      <c r="D192" s="2"/>
     </row>
     <row r="193" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D193" s="7"/>
+      <c r="D193" s="2"/>
     </row>
     <row r="194" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D194" s="7"/>
+      <c r="D194" s="2"/>
     </row>
     <row r="195" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D195" s="7"/>
+      <c r="D195" s="2"/>
     </row>
     <row r="196" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D196" s="7"/>
+      <c r="D196" s="2"/>
     </row>
     <row r="197" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D197" s="7"/>
+      <c r="D197" s="2"/>
     </row>
     <row r="198" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D198" s="7"/>
+      <c r="D198" s="2"/>
     </row>
     <row r="199" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D199" s="7"/>
+      <c r="D199" s="2"/>
     </row>
     <row r="200" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D200" s="7"/>
+      <c r="D200" s="2"/>
     </row>
     <row r="201" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D201" s="7"/>
+      <c r="D201" s="2"/>
     </row>
     <row r="202" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D202" s="7"/>
+      <c r="D202" s="2"/>
     </row>
     <row r="203" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D203" s="7"/>
+      <c r="D203" s="2"/>
     </row>
     <row r="204" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D204" s="7"/>
+      <c r="D204" s="2"/>
     </row>
     <row r="205" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D205" s="7"/>
+      <c r="D205" s="2"/>
     </row>
     <row r="206" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D206" s="7"/>
+      <c r="D206" s="2"/>
     </row>
     <row r="207" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D207" s="7"/>
+      <c r="D207" s="2"/>
     </row>
     <row r="208" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D208" s="7"/>
+      <c r="D208" s="2"/>
     </row>
     <row r="209" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D209" s="7"/>
+      <c r="D209" s="2"/>
     </row>
     <row r="210" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D210" s="7"/>
+      <c r="D210" s="2"/>
     </row>
     <row r="211" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D211" s="7"/>
+      <c r="D211" s="2"/>
     </row>
     <row r="212" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D212" s="7"/>
+      <c r="D212" s="2"/>
     </row>
     <row r="213" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D213" s="7"/>
+      <c r="D213" s="2"/>
     </row>
     <row r="214" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D214" s="7"/>
+      <c r="D214" s="2"/>
     </row>
     <row r="215" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D215" s="7"/>
+      <c r="D215" s="2"/>
     </row>
     <row r="216" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D216" s="7"/>
+      <c r="D216" s="2"/>
     </row>
     <row r="217" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D217" s="7"/>
+      <c r="D217" s="2"/>
     </row>
     <row r="218" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D218" s="7"/>
+      <c r="D218" s="2"/>
     </row>
     <row r="219" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D219" s="7"/>
+      <c r="D219" s="2"/>
     </row>
     <row r="220" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D220" s="7"/>
+      <c r="D220" s="2"/>
     </row>
     <row r="221" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D221" s="7"/>
+      <c r="D221" s="2"/>
     </row>
     <row r="222" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D222" s="7"/>
+      <c r="D222" s="2"/>
     </row>
     <row r="223" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D223" s="7"/>
+      <c r="D223" s="2"/>
     </row>
     <row r="224" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D224" s="7"/>
+      <c r="D224" s="2"/>
     </row>
     <row r="225" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D225" s="7"/>
+      <c r="D225" s="2"/>
     </row>
     <row r="226" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D226" s="7"/>
+      <c r="D226" s="2"/>
     </row>
     <row r="227" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D227" s="7"/>
+      <c r="D227" s="2"/>
     </row>
     <row r="228" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D228" s="7"/>
+      <c r="D228" s="2"/>
     </row>
     <row r="229" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D229" s="7"/>
+      <c r="D229" s="2"/>
     </row>
     <row r="230" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D230" s="7"/>
+      <c r="D230" s="2"/>
     </row>
     <row r="231" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D231" s="7"/>
+      <c r="D231" s="2"/>
     </row>
     <row r="232" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D232" s="7"/>
+      <c r="D232" s="2"/>
     </row>
     <row r="233" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D233" s="7"/>
+      <c r="D233" s="2"/>
     </row>
     <row r="234" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D234" s="7"/>
+      <c r="D234" s="2"/>
     </row>
     <row r="235" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D235" s="7"/>
+      <c r="D235" s="2"/>
     </row>
     <row r="236" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D236" s="7"/>
+      <c r="D236" s="2"/>
     </row>
     <row r="237" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D237" s="7"/>
+      <c r="D237" s="2"/>
     </row>
     <row r="238" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D238" s="7"/>
+      <c r="D238" s="2"/>
     </row>
     <row r="239" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D239" s="7"/>
+      <c r="D239" s="2"/>
     </row>
     <row r="240" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D240" s="7"/>
+      <c r="D240" s="2"/>
     </row>
     <row r="241" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D241" s="7"/>
+      <c r="D241" s="2"/>
     </row>
     <row r="242" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D242" s="7"/>
+      <c r="D242" s="2"/>
     </row>
     <row r="243" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D243" s="7"/>
+      <c r="D243" s="2"/>
     </row>
     <row r="244" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D244" s="7"/>
+      <c r="D244" s="2"/>
     </row>
     <row r="245" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D245" s="7"/>
+      <c r="D245" s="2"/>
     </row>
     <row r="246" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D246" s="7"/>
+      <c r="D246" s="2"/>
     </row>
     <row r="247" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D247" s="7"/>
+      <c r="D247" s="2"/>
     </row>
     <row r="248" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D248" s="7"/>
+      <c r="D248" s="2"/>
     </row>
     <row r="249" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D249" s="7"/>
+      <c r="D249" s="2"/>
     </row>
     <row r="250" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D250" s="7"/>
+      <c r="D250" s="2"/>
     </row>
     <row r="251" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D251" s="7"/>
+      <c r="D251" s="2"/>
     </row>
     <row r="252" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D252" s="7"/>
+      <c r="D252" s="2"/>
     </row>
     <row r="253" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D253" s="7"/>
+      <c r="D253" s="2"/>
     </row>
     <row r="254" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D254" s="7"/>
+      <c r="D254" s="2"/>
     </row>
     <row r="255" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D255" s="7"/>
+      <c r="D255" s="2"/>
     </row>
     <row r="256" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D256" s="7"/>
+      <c r="D256" s="2"/>
     </row>
     <row r="257" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D257" s="7"/>
+      <c r="D257" s="2"/>
     </row>
     <row r="258" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D258" s="7"/>
+      <c r="D258" s="2"/>
     </row>
     <row r="259" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D259" s="7"/>
+      <c r="D259" s="2"/>
     </row>
     <row r="260" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D260" s="7"/>
+      <c r="D260" s="2"/>
     </row>
     <row r="261" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D261" s="7"/>
+      <c r="D261" s="2"/>
     </row>
     <row r="262" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D262" s="7"/>
+      <c r="D262" s="2"/>
     </row>
     <row r="263" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D263" s="7"/>
+      <c r="D263" s="2"/>
     </row>
     <row r="264" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D264" s="7"/>
+      <c r="D264" s="2"/>
     </row>
     <row r="265" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D265" s="7"/>
+      <c r="D265" s="2"/>
     </row>
     <row r="266" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D266" s="7"/>
+      <c r="D266" s="2"/>
     </row>
     <row r="267" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D267" s="7"/>
+      <c r="D267" s="2"/>
     </row>
     <row r="268" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D268" s="7"/>
+      <c r="D268" s="2"/>
     </row>
     <row r="269" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D269" s="7"/>
+      <c r="D269" s="2"/>
     </row>
     <row r="270" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D270" s="7"/>
+      <c r="D270" s="2"/>
     </row>
     <row r="271" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D271" s="7"/>
+      <c r="D271" s="2"/>
     </row>
     <row r="272" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D272" s="7"/>
+      <c r="D272" s="2"/>
     </row>
     <row r="273" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D273" s="7"/>
+      <c r="D273" s="2"/>
     </row>
     <row r="274" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D274" s="7"/>
+      <c r="D274" s="2"/>
     </row>
     <row r="275" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D275" s="7"/>
+      <c r="D275" s="2"/>
     </row>
     <row r="276" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D276" s="7"/>
+      <c r="D276" s="2"/>
     </row>
     <row r="277" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D277" s="7"/>
+      <c r="D277" s="2"/>
     </row>
     <row r="278" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D278" s="7"/>
+      <c r="D278" s="2"/>
     </row>
     <row r="279" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D279" s="7"/>
+      <c r="D279" s="2"/>
     </row>
     <row r="280" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D280" s="7"/>
+      <c r="D280" s="2"/>
     </row>
     <row r="281" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D281" s="7"/>
+      <c r="D281" s="2"/>
     </row>
     <row r="282" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D282" s="7"/>
+      <c r="D282" s="2"/>
     </row>
     <row r="283" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D283" s="7"/>
+      <c r="D283" s="2"/>
     </row>
     <row r="284" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D284" s="7"/>
+      <c r="D284" s="2"/>
     </row>
     <row r="285" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D285" s="7"/>
+      <c r="D285" s="2"/>
     </row>
     <row r="286" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D286" s="7"/>
+      <c r="D286" s="2"/>
     </row>
     <row r="287" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D287" s="7"/>
+      <c r="D287" s="2"/>
     </row>
     <row r="288" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D288" s="7"/>
+      <c r="D288" s="2"/>
     </row>
     <row r="289" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D289" s="7"/>
+      <c r="D289" s="2"/>
     </row>
     <row r="290" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D290" s="7"/>
+      <c r="D290" s="2"/>
     </row>
     <row r="291" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D291" s="7"/>
+      <c r="D291" s="2"/>
     </row>
     <row r="292" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D292" s="7"/>
+      <c r="D292" s="2"/>
     </row>
     <row r="293" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D293" s="7"/>
+      <c r="D293" s="2"/>
     </row>
     <row r="294" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D294" s="7"/>
+      <c r="D294" s="2"/>
     </row>
     <row r="295" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D295" s="7"/>
+      <c r="D295" s="2"/>
     </row>
     <row r="296" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D296" s="7"/>
+      <c r="D296" s="2"/>
     </row>
     <row r="297" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D297" s="7"/>
+      <c r="D297" s="2"/>
     </row>
     <row r="298" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D298" s="7"/>
+      <c r="D298" s="2"/>
     </row>
     <row r="299" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D299" s="7"/>
+      <c r="D299" s="2"/>
     </row>
     <row r="300" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D300" s="7"/>
+      <c r="D300" s="2"/>
     </row>
     <row r="301" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D301" s="7"/>
+      <c r="D301" s="2"/>
     </row>
     <row r="302" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D302" s="7"/>
+      <c r="D302" s="2"/>
     </row>
     <row r="303" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D303" s="7"/>
+      <c r="D303" s="2"/>
     </row>
     <row r="304" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D304" s="7"/>
+      <c r="D304" s="2"/>
     </row>
     <row r="305" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D305" s="7"/>
+      <c r="D305" s="2"/>
     </row>
     <row r="306" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D306" s="7"/>
+      <c r="D306" s="2"/>
     </row>
     <row r="307" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D307" s="7"/>
+      <c r="D307" s="2"/>
     </row>
     <row r="308" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D308" s="7"/>
+      <c r="D308" s="2"/>
     </row>
     <row r="309" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D309" s="7"/>
+      <c r="D309" s="2"/>
     </row>
     <row r="310" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D310" s="7"/>
+      <c r="D310" s="2"/>
     </row>
     <row r="311" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D311" s="7"/>
+      <c r="D311" s="2"/>
     </row>
     <row r="312" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D312" s="7"/>
+      <c r="D312" s="2"/>
     </row>
     <row r="313" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D313" s="7"/>
+      <c r="D313" s="2"/>
     </row>
     <row r="314" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D314" s="7"/>
+      <c r="D314" s="2"/>
     </row>
     <row r="315" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D315" s="7"/>
+      <c r="D315" s="2"/>
     </row>
     <row r="316" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D316" s="7"/>
+      <c r="D316" s="2"/>
     </row>
     <row r="317" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D317" s="7"/>
+      <c r="D317" s="2"/>
     </row>
     <row r="318" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D318" s="7"/>
+      <c r="D318" s="2"/>
     </row>
     <row r="319" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D319" s="7"/>
+      <c r="D319" s="2"/>
     </row>
     <row r="320" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D320" s="7"/>
+      <c r="D320" s="2"/>
     </row>
     <row r="321" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D321" s="7"/>
+      <c r="D321" s="2"/>
     </row>
     <row r="322" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D322" s="7"/>
+      <c r="D322" s="2"/>
     </row>
     <row r="323" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D323" s="7"/>
+      <c r="D323" s="2"/>
     </row>
     <row r="324" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D324" s="7"/>
+      <c r="D324" s="2"/>
     </row>
     <row r="325" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D325" s="7"/>
+      <c r="D325" s="2"/>
     </row>
     <row r="326" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D326" s="7"/>
+      <c r="D326" s="2"/>
     </row>
     <row r="327" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D327" s="7"/>
+      <c r="D327" s="2"/>
     </row>
     <row r="328" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D328" s="7"/>
+      <c r="D328" s="2"/>
     </row>
     <row r="329" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D329" s="7"/>
+      <c r="D329" s="2"/>
     </row>
     <row r="330" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D330" s="7"/>
+      <c r="D330" s="2"/>
     </row>
     <row r="331" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D331" s="7"/>
+      <c r="D331" s="2"/>
     </row>
     <row r="332" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D332" s="7"/>
+      <c r="D332" s="2"/>
     </row>
     <row r="333" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D333" s="7"/>
+      <c r="D333" s="2"/>
     </row>
     <row r="334" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D334" s="7"/>
+      <c r="D334" s="2"/>
     </row>
     <row r="335" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D335" s="7"/>
+      <c r="D335" s="2"/>
     </row>
     <row r="336" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D336" s="7"/>
+      <c r="D336" s="2"/>
     </row>
     <row r="337" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D337" s="7"/>
+      <c r="D337" s="2"/>
     </row>
     <row r="338" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D338" s="7"/>
+      <c r="D338" s="2"/>
     </row>
     <row r="339" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D339" s="7"/>
+      <c r="D339" s="2"/>
     </row>
     <row r="340" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D340" s="7"/>
+      <c r="D340" s="2"/>
     </row>
     <row r="341" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D341" s="7"/>
+      <c r="D341" s="2"/>
     </row>
     <row r="342" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D342" s="7"/>
+      <c r="D342" s="2"/>
     </row>
     <row r="343" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D343" s="7"/>
+      <c r="D343" s="2"/>
     </row>
     <row r="344" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D344" s="7"/>
+      <c r="D344" s="2"/>
     </row>
     <row r="345" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D345" s="7"/>
+      <c r="D345" s="2"/>
     </row>
     <row r="346" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D346" s="7"/>
+      <c r="D346" s="2"/>
     </row>
     <row r="347" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D347" s="7"/>
+      <c r="D347" s="2"/>
     </row>
     <row r="348" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D348" s="7"/>
+      <c r="D348" s="2"/>
     </row>
     <row r="349" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D349" s="7"/>
+      <c r="D349" s="2"/>
     </row>
     <row r="350" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D350" s="7"/>
+      <c r="D350" s="2"/>
     </row>
     <row r="351" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D351" s="7"/>
+      <c r="D351" s="2"/>
     </row>
     <row r="352" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D352" s="7"/>
+      <c r="D352" s="2"/>
     </row>
     <row r="353" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D353" s="7"/>
+      <c r="D353" s="2"/>
     </row>
     <row r="354" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D354" s="7"/>
+      <c r="D354" s="2"/>
     </row>
     <row r="355" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D355" s="7"/>
+      <c r="D355" s="2"/>
     </row>
     <row r="356" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D356" s="7"/>
+      <c r="D356" s="2"/>
     </row>
     <row r="357" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D357" s="7"/>
+      <c r="D357" s="2"/>
     </row>
     <row r="358" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D358" s="7"/>
+      <c r="D358" s="2"/>
     </row>
     <row r="359" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D359" s="7"/>
+      <c r="D359" s="2"/>
     </row>
     <row r="360" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D360" s="7"/>
+      <c r="D360" s="2"/>
     </row>
     <row r="361" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D361" s="7"/>
+      <c r="D361" s="2"/>
     </row>
     <row r="362" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D362" s="7"/>
+      <c r="D362" s="2"/>
     </row>
     <row r="363" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D363" s="7"/>
+      <c r="D363" s="2"/>
     </row>
     <row r="364" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D364" s="7"/>
+      <c r="D364" s="2"/>
     </row>
     <row r="365" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D365" s="7"/>
+      <c r="D365" s="2"/>
     </row>
     <row r="366" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D366" s="7"/>
+      <c r="D366" s="2"/>
     </row>
     <row r="367" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D367" s="7"/>
+      <c r="D367" s="2"/>
     </row>
     <row r="368" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D368" s="7"/>
+      <c r="D368" s="2"/>
     </row>
     <row r="369" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D369" s="7"/>
+      <c r="D369" s="2"/>
     </row>
     <row r="370" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D370" s="7"/>
+      <c r="D370" s="2"/>
     </row>
     <row r="371" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D371" s="7"/>
+      <c r="D371" s="2"/>
     </row>
     <row r="372" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D372" s="7"/>
+      <c r="D372" s="2"/>
     </row>
     <row r="373" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D373" s="7"/>
+      <c r="D373" s="2"/>
     </row>
     <row r="374" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D374" s="7"/>
+      <c r="D374" s="2"/>
     </row>
     <row r="375" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D375" s="7"/>
+      <c r="D375" s="2"/>
     </row>
     <row r="376" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D376" s="7"/>
+      <c r="D376" s="2"/>
     </row>
     <row r="377" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D377" s="7"/>
+      <c r="D377" s="2"/>
     </row>
     <row r="378" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D378" s="7"/>
+      <c r="D378" s="2"/>
     </row>
     <row r="379" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D379" s="7"/>
+      <c r="D379" s="2"/>
     </row>
     <row r="380" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D380" s="7"/>
+      <c r="D380" s="2"/>
     </row>
     <row r="381" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D381" s="7"/>
+      <c r="D381" s="2"/>
     </row>
     <row r="382" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D382" s="7"/>
+      <c r="D382" s="2"/>
     </row>
     <row r="383" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D383" s="7"/>
+      <c r="D383" s="2"/>
     </row>
     <row r="384" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D384" s="7"/>
+      <c r="D384" s="2"/>
     </row>
     <row r="385" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D385" s="7"/>
+      <c r="D385" s="2"/>
     </row>
     <row r="386" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D386" s="7"/>
+      <c r="D386" s="2"/>
     </row>
     <row r="387" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D387" s="7"/>
+      <c r="D387" s="2"/>
     </row>
     <row r="388" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D388" s="7"/>
+      <c r="D388" s="2"/>
     </row>
     <row r="389" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D389" s="7"/>
+      <c r="D389" s="2"/>
     </row>
     <row r="390" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D390" s="7"/>
+      <c r="D390" s="2"/>
     </row>
     <row r="391" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D391" s="7"/>
+      <c r="D391" s="2"/>
     </row>
     <row r="392" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D392" s="7"/>
+      <c r="D392" s="2"/>
     </row>
     <row r="393" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D393" s="7"/>
+      <c r="D393" s="2"/>
     </row>
     <row r="394" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D394" s="7"/>
+      <c r="D394" s="2"/>
     </row>
     <row r="395" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D395" s="7"/>
+      <c r="D395" s="2"/>
     </row>
     <row r="396" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D396" s="7"/>
+      <c r="D396" s="2"/>
     </row>
     <row r="397" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D397" s="7"/>
+      <c r="D397" s="2"/>
     </row>
     <row r="398" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D398" s="7"/>
+      <c r="D398" s="2"/>
     </row>
     <row r="399" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D399" s="7"/>
+      <c r="D399" s="2"/>
     </row>
     <row r="400" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D400" s="7"/>
+      <c r="D400" s="2"/>
     </row>
     <row r="401" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D401" s="7"/>
+      <c r="D401" s="2"/>
     </row>
     <row r="402" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D402" s="7"/>
+      <c r="D402" s="2"/>
     </row>
     <row r="403" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D403" s="7"/>
+      <c r="D403" s="2"/>
     </row>
     <row r="404" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D404" s="7"/>
+      <c r="D404" s="2"/>
     </row>
     <row r="405" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D405" s="7"/>
+      <c r="D405" s="2"/>
     </row>
     <row r="406" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D406" s="7"/>
+      <c r="D406" s="2"/>
     </row>
     <row r="407" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D407" s="7"/>
+      <c r="D407" s="2"/>
     </row>
     <row r="408" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D408" s="7"/>
+      <c r="D408" s="2"/>
     </row>
     <row r="409" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D409" s="7"/>
+      <c r="D409" s="2"/>
     </row>
     <row r="410" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D410" s="7"/>
+      <c r="D410" s="2"/>
     </row>
     <row r="411" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D411" s="7"/>
+      <c r="D411" s="2"/>
     </row>
     <row r="412" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D412" s="7"/>
+      <c r="D412" s="2"/>
     </row>
     <row r="413" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D413" s="7"/>
+      <c r="D413" s="2"/>
     </row>
     <row r="414" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D414" s="7"/>
+      <c r="D414" s="2"/>
     </row>
     <row r="415" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D415" s="7"/>
+      <c r="D415" s="2"/>
     </row>
     <row r="416" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D416" s="7"/>
+      <c r="D416" s="2"/>
     </row>
     <row r="417" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D417" s="7"/>
+      <c r="D417" s="2"/>
     </row>
     <row r="418" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D418" s="7"/>
+      <c r="D418" s="2"/>
     </row>
     <row r="419" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D419" s="7"/>
+      <c r="D419" s="2"/>
     </row>
     <row r="420" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D420" s="7"/>
+      <c r="D420" s="2"/>
     </row>
     <row r="421" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D421" s="7"/>
+      <c r="D421" s="2"/>
     </row>
     <row r="422" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D422" s="7"/>
+      <c r="D422" s="2"/>
     </row>
     <row r="423" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D423" s="7"/>
+      <c r="D423" s="2"/>
     </row>
     <row r="424" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D424" s="7"/>
+      <c r="D424" s="2"/>
     </row>
     <row r="425" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D425" s="7"/>
+      <c r="D425" s="2"/>
     </row>
     <row r="426" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D426" s="7"/>
+      <c r="D426" s="2"/>
     </row>
     <row r="427" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D427" s="7"/>
+      <c r="D427" s="2"/>
     </row>
     <row r="428" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D428" s="7"/>
+      <c r="D428" s="2"/>
     </row>
     <row r="429" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D429" s="7"/>
+      <c r="D429" s="2"/>
     </row>
     <row r="430" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D430" s="7"/>
+      <c r="D430" s="2"/>
     </row>
     <row r="431" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D431" s="7"/>
+      <c r="D431" s="2"/>
     </row>
     <row r="432" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D432" s="7"/>
+      <c r="D432" s="2"/>
     </row>
     <row r="433" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D433" s="7"/>
+      <c r="D433" s="2"/>
     </row>
     <row r="434" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D434" s="7"/>
+      <c r="D434" s="2"/>
     </row>
     <row r="435" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D435" s="7"/>
+      <c r="D435" s="2"/>
     </row>
     <row r="436" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D436" s="7"/>
+      <c r="D436" s="2"/>
     </row>
     <row r="437" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D437" s="7"/>
+      <c r="D437" s="2"/>
     </row>
     <row r="438" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D438" s="7"/>
+      <c r="D438" s="2"/>
     </row>
     <row r="439" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D439" s="7"/>
+      <c r="D439" s="2"/>
     </row>
     <row r="440" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D440" s="7"/>
+      <c r="D440" s="2"/>
     </row>
     <row r="441" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D441" s="7"/>
+      <c r="D441" s="2"/>
     </row>
     <row r="442" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D442" s="7"/>
+      <c r="D442" s="2"/>
     </row>
     <row r="443" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D443" s="7"/>
+      <c r="D443" s="2"/>
     </row>
     <row r="444" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D444" s="7"/>
+      <c r="D444" s="2"/>
     </row>
     <row r="445" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D445" s="7"/>
+      <c r="D445" s="2"/>
     </row>
     <row r="446" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D446" s="7"/>
+      <c r="D446" s="2"/>
     </row>
     <row r="447" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D447" s="7"/>
+      <c r="D447" s="2"/>
     </row>
     <row r="448" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D448" s="7"/>
+      <c r="D448" s="2"/>
     </row>
     <row r="449" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D449" s="7"/>
+      <c r="D449" s="2"/>
     </row>
     <row r="450" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D450" s="7"/>
+      <c r="D450" s="2"/>
     </row>
     <row r="451" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D451" s="7"/>
+      <c r="D451" s="2"/>
     </row>
     <row r="452" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D452" s="7"/>
+      <c r="D452" s="2"/>
     </row>
     <row r="453" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D453" s="7"/>
+      <c r="D453" s="2"/>
     </row>
     <row r="454" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D454" s="7"/>
+      <c r="D454" s="2"/>
     </row>
     <row r="455" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D455" s="7"/>
+      <c r="D455" s="2"/>
     </row>
     <row r="456" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D456" s="7"/>
+      <c r="D456" s="2"/>
     </row>
     <row r="457" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D457" s="7"/>
+      <c r="D457" s="2"/>
     </row>
     <row r="458" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D458" s="7"/>
+      <c r="D458" s="2"/>
     </row>
     <row r="459" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D459" s="7"/>
+      <c r="D459" s="2"/>
     </row>
     <row r="460" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D460" s="7"/>
+      <c r="D460" s="2"/>
     </row>
     <row r="461" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D461" s="7"/>
+      <c r="D461" s="2"/>
     </row>
     <row r="462" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D462" s="7"/>
+      <c r="D462" s="2"/>
     </row>
     <row r="463" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D463" s="7"/>
+      <c r="D463" s="2"/>
     </row>
     <row r="464" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D464" s="7"/>
+      <c r="D464" s="2"/>
     </row>
     <row r="465" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D465" s="7"/>
+      <c r="D465" s="2"/>
     </row>
     <row r="466" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D466" s="7"/>
+      <c r="D466" s="2"/>
     </row>
     <row r="467" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D467" s="7"/>
+      <c r="D467" s="2"/>
     </row>
     <row r="468" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D468" s="7"/>
+      <c r="D468" s="2"/>
     </row>
     <row r="469" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D469" s="7"/>
+      <c r="D469" s="2"/>
     </row>
     <row r="470" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D470" s="7"/>
+      <c r="D470" s="2"/>
     </row>
     <row r="471" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D471" s="7"/>
+      <c r="D471" s="2"/>
     </row>
     <row r="472" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D472" s="7"/>
+      <c r="D472" s="2"/>
     </row>
     <row r="473" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D473" s="7"/>
+      <c r="D473" s="2"/>
     </row>
     <row r="474" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D474" s="7"/>
+      <c r="D474" s="2"/>
     </row>
     <row r="475" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D475" s="7"/>
+      <c r="D475" s="2"/>
     </row>
     <row r="476" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D476" s="7"/>
+      <c r="D476" s="2"/>
     </row>
     <row r="477" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D477" s="7"/>
+      <c r="D477" s="2"/>
     </row>
     <row r="478" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D478" s="7"/>
+      <c r="D478" s="2"/>
     </row>
     <row r="479" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D479" s="7"/>
+      <c r="D479" s="2"/>
     </row>
     <row r="480" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D480" s="7"/>
+      <c r="D480" s="2"/>
     </row>
     <row r="481" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D481" s="7"/>
+      <c r="D481" s="2"/>
     </row>
     <row r="482" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D482" s="7"/>
+      <c r="D482" s="2"/>
     </row>
     <row r="483" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D483" s="7"/>
+      <c r="D483" s="2"/>
     </row>
     <row r="484" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D484" s="7"/>
+      <c r="D484" s="2"/>
     </row>
     <row r="485" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D485" s="7"/>
+      <c r="D485" s="2"/>
     </row>
     <row r="486" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D486" s="7"/>
+      <c r="D486" s="2"/>
     </row>
     <row r="487" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D487" s="7"/>
+      <c r="D487" s="2"/>
     </row>
     <row r="488" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D488" s="7"/>
+      <c r="D488" s="2"/>
     </row>
     <row r="489" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D489" s="7"/>
+      <c r="D489" s="2"/>
     </row>
     <row r="490" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D490" s="7"/>
+      <c r="D490" s="2"/>
     </row>
     <row r="491" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D491" s="7"/>
+      <c r="D491" s="2"/>
     </row>
     <row r="492" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D492" s="7"/>
+      <c r="D492" s="2"/>
     </row>
     <row r="493" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D493" s="7"/>
+      <c r="D493" s="2"/>
     </row>
     <row r="494" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D494" s="7"/>
+      <c r="D494" s="2"/>
     </row>
     <row r="495" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D495" s="7"/>
+      <c r="D495" s="2"/>
     </row>
     <row r="496" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D496" s="7"/>
+      <c r="D496" s="2"/>
     </row>
     <row r="497" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D497" s="7"/>
+      <c r="D497" s="2"/>
     </row>
     <row r="498" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D498" s="7"/>
+      <c r="D498" s="2"/>
     </row>
     <row r="499" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D499" s="7"/>
+      <c r="D499" s="2"/>
     </row>
     <row r="500" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D500" s="7"/>
+      <c r="D500" s="2"/>
     </row>
     <row r="501" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D501" s="7"/>
+      <c r="D501" s="2"/>
     </row>
     <row r="502" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D502" s="7"/>
+      <c r="D502" s="2"/>
     </row>
     <row r="503" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D503" s="7"/>
+      <c r="D503" s="2"/>
     </row>
     <row r="504" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D504" s="7"/>
+      <c r="D504" s="2"/>
     </row>
     <row r="505" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D505" s="7"/>
+      <c r="D505" s="2"/>
     </row>
     <row r="506" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D506" s="7"/>
+      <c r="D506" s="2"/>
     </row>
     <row r="507" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D507" s="7"/>
+      <c r="D507" s="2"/>
     </row>
     <row r="508" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D508" s="7"/>
+      <c r="D508" s="2"/>
     </row>
     <row r="509" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D509" s="7"/>
+      <c r="D509" s="2"/>
     </row>
     <row r="510" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D510" s="7"/>
+      <c r="D510" s="2"/>
     </row>
     <row r="511" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D511" s="7"/>
+      <c r="D511" s="2"/>
     </row>
     <row r="512" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D512" s="7"/>
+      <c r="D512" s="2"/>
     </row>
     <row r="513" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D513" s="7"/>
+      <c r="D513" s="2"/>
     </row>
     <row r="514" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D514" s="7"/>
+      <c r="D514" s="2"/>
     </row>
     <row r="515" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D515" s="7"/>
+      <c r="D515" s="2"/>
     </row>
     <row r="516" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D516" s="7"/>
+      <c r="D516" s="2"/>
     </row>
     <row r="517" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D517" s="7"/>
+      <c r="D517" s="2"/>
     </row>
     <row r="518" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D518" s="7"/>
+      <c r="D518" s="2"/>
     </row>
     <row r="519" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D519" s="7"/>
+      <c r="D519" s="2"/>
     </row>
     <row r="520" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D520" s="7"/>
+      <c r="D520" s="2"/>
     </row>
     <row r="521" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D521" s="7"/>
+      <c r="D521" s="2"/>
     </row>
     <row r="522" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D522" s="7"/>
+      <c r="D522" s="2"/>
     </row>
     <row r="523" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D523" s="7"/>
+      <c r="D523" s="2"/>
     </row>
     <row r="524" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D524" s="7"/>
+      <c r="D524" s="2"/>
     </row>
     <row r="525" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D525" s="7"/>
+      <c r="D525" s="2"/>
     </row>
     <row r="526" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D526" s="7"/>
+      <c r="D526" s="2"/>
     </row>
     <row r="527" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D527" s="7"/>
+      <c r="D527" s="2"/>
     </row>
     <row r="528" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D528" s="7"/>
+      <c r="D528" s="2"/>
     </row>
     <row r="529" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D529" s="7"/>
+      <c r="D529" s="2"/>
     </row>
     <row r="530" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D530" s="7"/>
+      <c r="D530" s="2"/>
     </row>
     <row r="531" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D531" s="7"/>
+      <c r="D531" s="2"/>
     </row>
     <row r="532" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D532" s="7"/>
+      <c r="D532" s="2"/>
     </row>
     <row r="533" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D533" s="7"/>
+      <c r="D533" s="2"/>
     </row>
     <row r="534" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D534" s="7"/>
+      <c r="D534" s="2"/>
     </row>
     <row r="535" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D535" s="7"/>
+      <c r="D535" s="2"/>
     </row>
     <row r="536" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D536" s="7"/>
+      <c r="D536" s="2"/>
     </row>
     <row r="537" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D537" s="7"/>
+      <c r="D537" s="2"/>
     </row>
     <row r="538" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D538" s="7"/>
+      <c r="D538" s="2"/>
     </row>
     <row r="539" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D539" s="7"/>
+      <c r="D539" s="2"/>
     </row>
     <row r="540" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D540" s="7"/>
+      <c r="D540" s="2"/>
     </row>
     <row r="541" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D541" s="7"/>
+      <c r="D541" s="2"/>
     </row>
     <row r="542" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D542" s="7"/>
+      <c r="D542" s="2"/>
     </row>
     <row r="543" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D543" s="7"/>
+      <c r="D543" s="2"/>
     </row>
     <row r="544" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D544" s="7"/>
+      <c r="D544" s="2"/>
     </row>
     <row r="545" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D545" s="7"/>
+      <c r="D545" s="2"/>
     </row>
     <row r="546" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D546" s="7"/>
+      <c r="D546" s="2"/>
     </row>
     <row r="547" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D547" s="7"/>
+      <c r="D547" s="2"/>
     </row>
     <row r="548" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D548" s="7"/>
+      <c r="D548" s="2"/>
     </row>
     <row r="549" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D549" s="7"/>
+      <c r="D549" s="2"/>
     </row>
     <row r="550" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D550" s="7"/>
+      <c r="D550" s="2"/>
     </row>
     <row r="551" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D551" s="7"/>
+      <c r="D551" s="2"/>
     </row>
     <row r="552" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D552" s="7"/>
+      <c r="D552" s="2"/>
     </row>
     <row r="553" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D553" s="7"/>
+      <c r="D553" s="2"/>
     </row>
     <row r="554" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D554" s="7"/>
+      <c r="D554" s="2"/>
     </row>
     <row r="555" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D555" s="7"/>
+      <c r="D555" s="2"/>
     </row>
     <row r="556" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D556" s="7"/>
+      <c r="D556" s="2"/>
     </row>
     <row r="557" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D557" s="7"/>
+      <c r="D557" s="2"/>
     </row>
     <row r="558" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D558" s="7"/>
+      <c r="D558" s="2"/>
     </row>
     <row r="559" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D559" s="7"/>
+      <c r="D559" s="2"/>
     </row>
     <row r="560" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D560" s="7"/>
+      <c r="D560" s="2"/>
     </row>
     <row r="561" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D561" s="7"/>
+      <c r="D561" s="2"/>
     </row>
     <row r="562" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D562" s="7"/>
+      <c r="D562" s="2"/>
     </row>
     <row r="563" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D563" s="7"/>
+      <c r="D563" s="2"/>
     </row>
     <row r="564" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D564" s="7"/>
+      <c r="D564" s="2"/>
     </row>
     <row r="565" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D565" s="7"/>
+      <c r="D565" s="2"/>
     </row>
     <row r="566" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D566" s="7"/>
+      <c r="D566" s="2"/>
     </row>
     <row r="567" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D567" s="7"/>
+      <c r="D567" s="2"/>
     </row>
     <row r="568" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D568" s="7"/>
+      <c r="D568" s="2"/>
     </row>
     <row r="569" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D569" s="7"/>
+      <c r="D569" s="2"/>
     </row>
     <row r="570" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D570" s="7"/>
+      <c r="D570" s="2"/>
     </row>
     <row r="571" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D571" s="7"/>
+      <c r="D571" s="2"/>
     </row>
     <row r="572" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D572" s="7"/>
+      <c r="D572" s="2"/>
     </row>
     <row r="573" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D573" s="7"/>
+      <c r="D573" s="2"/>
     </row>
     <row r="574" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D574" s="7"/>
+      <c r="D574" s="2"/>
     </row>
     <row r="575" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D575" s="7"/>
+      <c r="D575" s="2"/>
     </row>
     <row r="576" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D576" s="7"/>
+      <c r="D576" s="2"/>
     </row>
     <row r="577" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D577" s="7"/>
+      <c r="D577" s="2"/>
     </row>
     <row r="578" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D578" s="7"/>
+      <c r="D578" s="2"/>
     </row>
     <row r="579" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D579" s="7"/>
+      <c r="D579" s="2"/>
     </row>
     <row r="580" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D580" s="7"/>
+      <c r="D580" s="2"/>
     </row>
     <row r="581" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D581" s="7"/>
+      <c r="D581" s="2"/>
     </row>
     <row r="582" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D582" s="7"/>
+      <c r="D582" s="2"/>
     </row>
     <row r="583" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D583" s="7"/>
+      <c r="D583" s="2"/>
     </row>
     <row r="584" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D584" s="7"/>
+      <c r="D584" s="2"/>
     </row>
     <row r="585" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D585" s="7"/>
+      <c r="D585" s="2"/>
     </row>
     <row r="586" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D586" s="7"/>
+      <c r="D586" s="2"/>
     </row>
     <row r="587" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D587" s="7"/>
+      <c r="D587" s="2"/>
     </row>
     <row r="588" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D588" s="7"/>
+      <c r="D588" s="2"/>
     </row>
     <row r="589" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D589" s="7"/>
+      <c r="D589" s="2"/>
     </row>
     <row r="590" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D590" s="7"/>
+      <c r="D590" s="2"/>
     </row>
     <row r="591" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D591" s="7"/>
+      <c r="D591" s="2"/>
     </row>
     <row r="592" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D592" s="7"/>
+      <c r="D592" s="2"/>
     </row>
     <row r="593" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D593" s="7"/>
+      <c r="D593" s="2"/>
     </row>
     <row r="594" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D594" s="7"/>
+      <c r="D594" s="2"/>
     </row>
     <row r="595" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D595" s="7"/>
+      <c r="D595" s="2"/>
     </row>
     <row r="596" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D596" s="7"/>
+      <c r="D596" s="2"/>
     </row>
     <row r="597" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D597" s="7"/>
+      <c r="D597" s="2"/>
     </row>
     <row r="598" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D598" s="7"/>
+      <c r="D598" s="2"/>
     </row>
     <row r="599" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D599" s="7"/>
+      <c r="D599" s="2"/>
     </row>
     <row r="600" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D600" s="7"/>
+      <c r="D600" s="2"/>
     </row>
     <row r="601" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D601" s="7"/>
+      <c r="D601" s="2"/>
     </row>
     <row r="602" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D602" s="7"/>
+      <c r="D602" s="2"/>
     </row>
     <row r="603" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D603" s="7"/>
+      <c r="D603" s="2"/>
     </row>
     <row r="604" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D604" s="7"/>
+      <c r="D604" s="2"/>
     </row>
     <row r="605" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D605" s="7"/>
+      <c r="D605" s="2"/>
     </row>
     <row r="606" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D606" s="7"/>
+      <c r="D606" s="2"/>
     </row>
     <row r="607" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D607" s="7"/>
+      <c r="D607" s="2"/>
     </row>
     <row r="608" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D608" s="7"/>
+      <c r="D608" s="2"/>
     </row>
     <row r="609" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D609" s="7"/>
+      <c r="D609" s="2"/>
     </row>
     <row r="610" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D610" s="7"/>
+      <c r="D610" s="2"/>
     </row>
     <row r="611" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D611" s="7"/>
+      <c r="D611" s="2"/>
     </row>
     <row r="612" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D612" s="7"/>
+      <c r="D612" s="2"/>
     </row>
     <row r="613" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D613" s="7"/>
+      <c r="D613" s="2"/>
     </row>
     <row r="614" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D614" s="7"/>
+      <c r="D614" s="2"/>
     </row>
     <row r="615" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D615" s="7"/>
+      <c r="D615" s="2"/>
     </row>
     <row r="616" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D616" s="7"/>
+      <c r="D616" s="2"/>
     </row>
     <row r="617" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D617" s="7"/>
+      <c r="D617" s="2"/>
     </row>
     <row r="618" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D618" s="7"/>
+      <c r="D618" s="2"/>
     </row>
     <row r="619" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D619" s="7"/>
+      <c r="D619" s="2"/>
     </row>
     <row r="620" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D620" s="7"/>
+      <c r="D620" s="2"/>
     </row>
     <row r="621" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D621" s="7"/>
+      <c r="D621" s="2"/>
     </row>
     <row r="622" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D622" s="7"/>
+      <c r="D622" s="2"/>
     </row>
     <row r="623" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D623" s="7"/>
+      <c r="D623" s="2"/>
     </row>
     <row r="624" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D624" s="7"/>
+      <c r="D624" s="2"/>
     </row>
     <row r="625" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D625" s="7"/>
+      <c r="D625" s="2"/>
     </row>
     <row r="626" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D626" s="7"/>
+      <c r="D626" s="2"/>
     </row>
     <row r="627" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D627" s="7"/>
+      <c r="D627" s="2"/>
     </row>
     <row r="628" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D628" s="7"/>
+      <c r="D628" s="2"/>
     </row>
     <row r="629" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D629" s="7"/>
+      <c r="D629" s="2"/>
     </row>
     <row r="630" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D630" s="7"/>
+      <c r="D630" s="2"/>
     </row>
     <row r="631" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D631" s="7"/>
+      <c r="D631" s="2"/>
     </row>
     <row r="632" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D632" s="7"/>
+      <c r="D632" s="2"/>
     </row>
     <row r="633" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D633" s="7"/>
+      <c r="D633" s="2"/>
     </row>
     <row r="634" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D634" s="7"/>
+      <c r="D634" s="2"/>
     </row>
     <row r="635" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D635" s="7"/>
+      <c r="D635" s="2"/>
     </row>
     <row r="636" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D636" s="7"/>
+      <c r="D636" s="2"/>
     </row>
     <row r="637" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D637" s="7"/>
+      <c r="D637" s="2"/>
     </row>
     <row r="638" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D638" s="7"/>
+      <c r="D638" s="2"/>
     </row>
     <row r="639" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D639" s="7"/>
+      <c r="D639" s="2"/>
     </row>
     <row r="640" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D640" s="7"/>
+      <c r="D640" s="2"/>
     </row>
     <row r="641" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D641" s="7"/>
+      <c r="D641" s="2"/>
     </row>
     <row r="642" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D642" s="7"/>
+      <c r="D642" s="2"/>
     </row>
     <row r="643" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D643" s="7"/>
+      <c r="D643" s="2"/>
     </row>
     <row r="644" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D644" s="7"/>
+      <c r="D644" s="2"/>
     </row>
     <row r="645" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D645" s="7"/>
+      <c r="D645" s="2"/>
     </row>
     <row r="646" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D646" s="7"/>
+      <c r="D646" s="2"/>
     </row>
     <row r="647" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D647" s="7"/>
+      <c r="D647" s="2"/>
     </row>
     <row r="648" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D648" s="7"/>
+      <c r="D648" s="2"/>
     </row>
     <row r="649" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D649" s="7"/>
+      <c r="D649" s="2"/>
     </row>
     <row r="650" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D650" s="7"/>
+      <c r="D650" s="2"/>
     </row>
     <row r="651" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D651" s="7"/>
+      <c r="D651" s="2"/>
     </row>
     <row r="652" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D652" s="7"/>
+      <c r="D652" s="2"/>
     </row>
     <row r="653" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D653" s="7"/>
+      <c r="D653" s="2"/>
     </row>
     <row r="654" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D654" s="7"/>
+      <c r="D654" s="2"/>
     </row>
     <row r="655" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D655" s="7"/>
+      <c r="D655" s="2"/>
     </row>
     <row r="656" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D656" s="7"/>
+      <c r="D656" s="2"/>
     </row>
     <row r="657" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D657" s="7"/>
+      <c r="D657" s="2"/>
     </row>
     <row r="658" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D658" s="7"/>
+      <c r="D658" s="2"/>
     </row>
     <row r="659" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D659" s="7"/>
+      <c r="D659" s="2"/>
     </row>
     <row r="660" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D660" s="7"/>
+      <c r="D660" s="2"/>
     </row>
     <row r="661" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D661" s="7"/>
+      <c r="D661" s="2"/>
     </row>
     <row r="662" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D662" s="7"/>
+      <c r="D662" s="2"/>
     </row>
     <row r="663" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D663" s="7"/>
+      <c r="D663" s="2"/>
     </row>
     <row r="664" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D664" s="7"/>
+      <c r="D664" s="2"/>
     </row>
     <row r="665" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D665" s="7"/>
+      <c r="D665" s="2"/>
     </row>
     <row r="666" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D666" s="7"/>
+      <c r="D666" s="2"/>
     </row>
     <row r="667" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D667" s="7"/>
+      <c r="D667" s="2"/>
     </row>
     <row r="668" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D668" s="7"/>
+      <c r="D668" s="2"/>
     </row>
     <row r="669" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D669" s="7"/>
+      <c r="D669" s="2"/>
     </row>
     <row r="670" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D670" s="7"/>
+      <c r="D670" s="2"/>
     </row>
     <row r="671" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D671" s="7"/>
+      <c r="D671" s="2"/>
     </row>
     <row r="672" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D672" s="7"/>
+      <c r="D672" s="2"/>
     </row>
     <row r="673" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D673" s="7"/>
+      <c r="D673" s="2"/>
     </row>
     <row r="674" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D674" s="7"/>
+      <c r="D674" s="2"/>
     </row>
     <row r="675" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D675" s="7"/>
+      <c r="D675" s="2"/>
     </row>
     <row r="676" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D676" s="7"/>
+      <c r="D676" s="2"/>
     </row>
     <row r="677" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D677" s="7"/>
+      <c r="D677" s="2"/>
     </row>
     <row r="678" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D678" s="7"/>
+      <c r="D678" s="2"/>
     </row>
     <row r="679" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D679" s="7"/>
+      <c r="D679" s="2"/>
     </row>
     <row r="680" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D680" s="7"/>
+      <c r="D680" s="2"/>
     </row>
     <row r="681" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D681" s="7"/>
+      <c r="D681" s="2"/>
     </row>
     <row r="682" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D682" s="7"/>
+      <c r="D682" s="2"/>
     </row>
     <row r="683" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D683" s="7"/>
+      <c r="D683" s="2"/>
     </row>
     <row r="684" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D684" s="7"/>
+      <c r="D684" s="2"/>
     </row>
     <row r="685" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D685" s="7"/>
+      <c r="D685" s="2"/>
     </row>
     <row r="686" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D686" s="7"/>
+      <c r="D686" s="2"/>
     </row>
     <row r="687" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D687" s="7"/>
+      <c r="D687" s="2"/>
     </row>
     <row r="688" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D688" s="7"/>
+      <c r="D688" s="2"/>
     </row>
     <row r="689" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D689" s="7"/>
+      <c r="D689" s="2"/>
     </row>
     <row r="690" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D690" s="7"/>
+      <c r="D690" s="2"/>
     </row>
     <row r="691" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D691" s="7"/>
+      <c r="D691" s="2"/>
     </row>
     <row r="692" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D692" s="7"/>
+      <c r="D692" s="2"/>
     </row>
     <row r="693" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D693" s="7"/>
+      <c r="D693" s="2"/>
     </row>
     <row r="694" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D694" s="7"/>
+      <c r="D694" s="2"/>
     </row>
     <row r="695" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D695" s="7"/>
+      <c r="D695" s="2"/>
     </row>
     <row r="696" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D696" s="7"/>
+      <c r="D696" s="2"/>
     </row>
     <row r="697" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D697" s="7"/>
+      <c r="D697" s="2"/>
     </row>
     <row r="698" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D698" s="7"/>
+      <c r="D698" s="2"/>
     </row>
     <row r="699" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D699" s="7"/>
+      <c r="D699" s="2"/>
     </row>
     <row r="700" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D700" s="7"/>
+      <c r="D700" s="2"/>
     </row>
     <row r="701" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D701" s="7"/>
+      <c r="D701" s="2"/>
     </row>
     <row r="702" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D702" s="7"/>
+      <c r="D702" s="2"/>
     </row>
     <row r="703" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D703" s="7"/>
+      <c r="D703" s="2"/>
     </row>
     <row r="704" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D704" s="7"/>
+      <c r="D704" s="2"/>
     </row>
     <row r="705" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D705" s="7"/>
+      <c r="D705" s="2"/>
     </row>
     <row r="706" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D706" s="7"/>
+      <c r="D706" s="2"/>
     </row>
     <row r="707" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D707" s="7"/>
+      <c r="D707" s="2"/>
     </row>
     <row r="708" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D708" s="7"/>
+      <c r="D708" s="2"/>
     </row>
     <row r="709" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D709" s="7"/>
+      <c r="D709" s="2"/>
     </row>
     <row r="710" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D710" s="7"/>
+      <c r="D710" s="2"/>
     </row>
     <row r="711" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D711" s="7"/>
+      <c r="D711" s="2"/>
     </row>
     <row r="712" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D712" s="7"/>
+      <c r="D712" s="2"/>
     </row>
     <row r="713" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D713" s="7"/>
+      <c r="D713" s="2"/>
     </row>
     <row r="714" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D714" s="7"/>
+      <c r="D714" s="2"/>
     </row>
     <row r="715" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D715" s="7"/>
+      <c r="D715" s="2"/>
     </row>
     <row r="716" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D716" s="7"/>
+      <c r="D716" s="2"/>
     </row>
     <row r="717" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D717" s="7"/>
+      <c r="D717" s="2"/>
     </row>
     <row r="718" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D718" s="7"/>
+      <c r="D718" s="2"/>
     </row>
     <row r="719" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D719" s="7"/>
+      <c r="D719" s="2"/>
     </row>
     <row r="720" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D720" s="7"/>
+      <c r="D720" s="2"/>
     </row>
     <row r="721" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D721" s="7"/>
+      <c r="D721" s="2"/>
     </row>
     <row r="722" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D722" s="7"/>
+      <c r="D722" s="2"/>
     </row>
     <row r="723" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D723" s="7"/>
+      <c r="D723" s="2"/>
     </row>
     <row r="724" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D724" s="7"/>
+      <c r="D724" s="2"/>
     </row>
     <row r="725" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D725" s="7"/>
+      <c r="D725" s="2"/>
     </row>
     <row r="726" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D726" s="7"/>
+      <c r="D726" s="2"/>
     </row>
     <row r="727" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D727" s="7"/>
+      <c r="D727" s="2"/>
     </row>
     <row r="728" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D728" s="7"/>
+      <c r="D728" s="2"/>
     </row>
     <row r="729" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D729" s="7"/>
+      <c r="D729" s="2"/>
     </row>
     <row r="730" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D730" s="7"/>
+      <c r="D730" s="2"/>
     </row>
     <row r="731" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D731" s="7"/>
+      <c r="D731" s="2"/>
     </row>
     <row r="732" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D732" s="7"/>
+      <c r="D732" s="2"/>
     </row>
     <row r="733" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D733" s="7"/>
+      <c r="D733" s="2"/>
     </row>
     <row r="734" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D734" s="7"/>
+      <c r="D734" s="2"/>
     </row>
     <row r="735" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D735" s="7"/>
+      <c r="D735" s="2"/>
     </row>
     <row r="736" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D736" s="7"/>
+      <c r="D736" s="2"/>
     </row>
     <row r="737" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D737" s="7"/>
+      <c r="D737" s="2"/>
     </row>
     <row r="738" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D738" s="7"/>
+      <c r="D738" s="2"/>
     </row>
     <row r="739" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D739" s="7"/>
+      <c r="D739" s="2"/>
     </row>
     <row r="740" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D740" s="7"/>
+      <c r="D740" s="2"/>
     </row>
     <row r="741" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D741" s="7"/>
+      <c r="D741" s="2"/>
     </row>
     <row r="742" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D742" s="7"/>
+      <c r="D742" s="2"/>
     </row>
     <row r="743" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D743" s="7"/>
+      <c r="D743" s="2"/>
     </row>
     <row r="744" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D744" s="7"/>
+      <c r="D744" s="2"/>
     </row>
     <row r="745" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D745" s="7"/>
+      <c r="D745" s="2"/>
     </row>
     <row r="746" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D746" s="7"/>
+      <c r="D746" s="2"/>
     </row>
     <row r="747" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D747" s="7"/>
+      <c r="D747" s="2"/>
     </row>
     <row r="748" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D748" s="7"/>
+      <c r="D748" s="2"/>
     </row>
     <row r="749" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D749" s="7"/>
+      <c r="D749" s="2"/>
     </row>
     <row r="750" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D750" s="7"/>
+      <c r="D750" s="2"/>
     </row>
     <row r="751" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D751" s="7"/>
+      <c r="D751" s="2"/>
     </row>
     <row r="752" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D752" s="7"/>
+      <c r="D752" s="2"/>
     </row>
     <row r="753" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D753" s="7"/>
+      <c r="D753" s="2"/>
     </row>
     <row r="754" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D754" s="7"/>
+      <c r="D754" s="2"/>
     </row>
     <row r="755" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D755" s="7"/>
+      <c r="D755" s="2"/>
     </row>
     <row r="756" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D756" s="7"/>
+      <c r="D756" s="2"/>
     </row>
     <row r="757" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D757" s="7"/>
+      <c r="D757" s="2"/>
     </row>
     <row r="758" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D758" s="7"/>
+      <c r="D758" s="2"/>
     </row>
     <row r="759" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D759" s="7"/>
+      <c r="D759" s="2"/>
     </row>
     <row r="760" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D760" s="7"/>
+      <c r="D760" s="2"/>
     </row>
     <row r="761" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D761" s="7"/>
+      <c r="D761" s="2"/>
     </row>
     <row r="762" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D762" s="7"/>
+      <c r="D762" s="2"/>
     </row>
     <row r="763" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D763" s="7"/>
+      <c r="D763" s="2"/>
     </row>
     <row r="764" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D764" s="7"/>
+      <c r="D764" s="2"/>
     </row>
     <row r="765" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D765" s="7"/>
+      <c r="D765" s="2"/>
     </row>
     <row r="766" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D766" s="7"/>
+      <c r="D766" s="2"/>
     </row>
     <row r="767" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D767" s="7"/>
+      <c r="D767" s="2"/>
     </row>
     <row r="768" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D768" s="7"/>
+      <c r="D768" s="2"/>
     </row>
     <row r="769" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D769" s="7"/>
+      <c r="D769" s="2"/>
     </row>
     <row r="770" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D770" s="7"/>
+      <c r="D770" s="2"/>
     </row>
     <row r="771" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D771" s="7"/>
+      <c r="D771" s="2"/>
     </row>
     <row r="772" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D772" s="7"/>
+      <c r="D772" s="2"/>
     </row>
     <row r="773" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D773" s="7"/>
+      <c r="D773" s="2"/>
     </row>
     <row r="774" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D774" s="7"/>
+      <c r="D774" s="2"/>
     </row>
     <row r="775" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D775" s="7"/>
+      <c r="D775" s="2"/>
     </row>
     <row r="776" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D776" s="7"/>
+      <c r="D776" s="2"/>
     </row>
     <row r="777" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D777" s="7"/>
+      <c r="D777" s="2"/>
     </row>
     <row r="778" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D778" s="7"/>
+      <c r="D778" s="2"/>
     </row>
     <row r="779" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D779" s="7"/>
+      <c r="D779" s="2"/>
     </row>
     <row r="780" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D780" s="7"/>
+      <c r="D780" s="2"/>
     </row>
     <row r="781" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D781" s="7"/>
+      <c r="D781" s="2"/>
     </row>
     <row r="782" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D782" s="7"/>
+      <c r="D782" s="2"/>
     </row>
     <row r="783" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D783" s="7"/>
+      <c r="D783" s="2"/>
     </row>
     <row r="784" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D784" s="7"/>
+      <c r="D784" s="2"/>
     </row>
     <row r="785" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D785" s="7"/>
+      <c r="D785" s="2"/>
     </row>
     <row r="786" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D786" s="7"/>
+      <c r="D786" s="2"/>
     </row>
     <row r="787" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D787" s="7"/>
+      <c r="D787" s="2"/>
     </row>
     <row r="788" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D788" s="7"/>
+      <c r="D788" s="2"/>
     </row>
     <row r="789" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D789" s="7"/>
+      <c r="D789" s="2"/>
     </row>
     <row r="790" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D790" s="7"/>
+      <c r="D790" s="2"/>
     </row>
     <row r="791" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D791" s="7"/>
+      <c r="D791" s="2"/>
     </row>
     <row r="792" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D792" s="7"/>
+      <c r="D792" s="2"/>
     </row>
     <row r="793" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D793" s="7"/>
+      <c r="D793" s="2"/>
     </row>
     <row r="794" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D794" s="7"/>
+      <c r="D794" s="2"/>
     </row>
     <row r="795" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D795" s="7"/>
+      <c r="D795" s="2"/>
     </row>
     <row r="796" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D796" s="7"/>
+      <c r="D796" s="2"/>
     </row>
     <row r="797" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D797" s="7"/>
+      <c r="D797" s="2"/>
     </row>
     <row r="798" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D798" s="7"/>
+      <c r="D798" s="2"/>
     </row>
     <row r="799" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D799" s="7"/>
+      <c r="D799" s="2"/>
     </row>
     <row r="800" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D800" s="7"/>
+      <c r="D800" s="2"/>
     </row>
     <row r="801" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D801" s="7"/>
+      <c r="D801" s="2"/>
     </row>
     <row r="802" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D802" s="7"/>
+      <c r="D802" s="2"/>
     </row>
     <row r="803" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D803" s="7"/>
+      <c r="D803" s="2"/>
     </row>
     <row r="804" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D804" s="7"/>
+      <c r="D804" s="2"/>
     </row>
     <row r="805" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D805" s="7"/>
+      <c r="D805" s="2"/>
     </row>
     <row r="806" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D806" s="7"/>
+      <c r="D806" s="2"/>
     </row>
     <row r="807" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D807" s="7"/>
+      <c r="D807" s="2"/>
     </row>
     <row r="808" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D808" s="7"/>
+      <c r="D808" s="2"/>
     </row>
     <row r="809" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D809" s="7"/>
+      <c r="D809" s="2"/>
     </row>
     <row r="810" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D810" s="7"/>
+      <c r="D810" s="2"/>
     </row>
     <row r="811" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D811" s="7"/>
+      <c r="D811" s="2"/>
     </row>
     <row r="812" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D812" s="7"/>
+      <c r="D812" s="2"/>
     </row>
     <row r="813" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D813" s="7"/>
+      <c r="D813" s="2"/>
     </row>
     <row r="814" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D814" s="7"/>
+      <c r="D814" s="2"/>
     </row>
     <row r="815" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D815" s="7"/>
+      <c r="D815" s="2"/>
     </row>
     <row r="816" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D816" s="7"/>
+      <c r="D816" s="2"/>
     </row>
     <row r="817" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D817" s="7"/>
+      <c r="D817" s="2"/>
     </row>
     <row r="818" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D818" s="7"/>
+      <c r="D818" s="2"/>
     </row>
     <row r="819" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D819" s="7"/>
+      <c r="D819" s="2"/>
     </row>
     <row r="820" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D820" s="7"/>
+      <c r="D820" s="2"/>
     </row>
     <row r="821" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D821" s="7"/>
+      <c r="D821" s="2"/>
     </row>
     <row r="822" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D822" s="7"/>
+      <c r="D822" s="2"/>
     </row>
     <row r="823" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D823" s="7"/>
+      <c r="D823" s="2"/>
     </row>
     <row r="824" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D824" s="7"/>
+      <c r="D824" s="2"/>
     </row>
     <row r="825" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D825" s="7"/>
+      <c r="D825" s="2"/>
     </row>
     <row r="826" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D826" s="7"/>
+      <c r="D826" s="2"/>
     </row>
     <row r="827" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D827" s="7"/>
+      <c r="D827" s="2"/>
     </row>
     <row r="828" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D828" s="7"/>
+      <c r="D828" s="2"/>
     </row>
     <row r="829" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D829" s="7"/>
+      <c r="D829" s="2"/>
     </row>
     <row r="830" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D830" s="7"/>
+      <c r="D830" s="2"/>
     </row>
     <row r="831" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D831" s="7"/>
+      <c r="D831" s="2"/>
     </row>
     <row r="832" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D832" s="7"/>
+      <c r="D832" s="2"/>
     </row>
     <row r="833" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D833" s="7"/>
+      <c r="D833" s="2"/>
     </row>
     <row r="834" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D834" s="7"/>
+      <c r="D834" s="2"/>
     </row>
     <row r="835" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D835" s="7"/>
+      <c r="D835" s="2"/>
     </row>
     <row r="836" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D836" s="7"/>
+      <c r="D836" s="2"/>
     </row>
     <row r="837" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D837" s="7"/>
+      <c r="D837" s="2"/>
     </row>
     <row r="838" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D838" s="7"/>
+      <c r="D838" s="2"/>
     </row>
     <row r="839" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D839" s="7"/>
+      <c r="D839" s="2"/>
     </row>
     <row r="840" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D840" s="7"/>
+      <c r="D840" s="2"/>
     </row>
     <row r="841" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D841" s="7"/>
+      <c r="D841" s="2"/>
     </row>
     <row r="842" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D842" s="7"/>
+      <c r="D842" s="2"/>
     </row>
     <row r="843" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D843" s="7"/>
+      <c r="D843" s="2"/>
     </row>
     <row r="844" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D844" s="7"/>
+      <c r="D844" s="2"/>
     </row>
     <row r="845" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D845" s="7"/>
+      <c r="D845" s="2"/>
     </row>
     <row r="846" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D846" s="7"/>
+      <c r="D846" s="2"/>
     </row>
     <row r="847" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D847" s="7"/>
+      <c r="D847" s="2"/>
     </row>
     <row r="848" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D848" s="7"/>
+      <c r="D848" s="2"/>
     </row>
     <row r="849" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D849" s="7"/>
+      <c r="D849" s="2"/>
     </row>
     <row r="850" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D850" s="7"/>
+      <c r="D850" s="2"/>
     </row>
     <row r="851" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D851" s="7"/>
+      <c r="D851" s="2"/>
     </row>
     <row r="852" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D852" s="7"/>
+      <c r="D852" s="2"/>
     </row>
     <row r="853" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D853" s="7"/>
+      <c r="D853" s="2"/>
     </row>
     <row r="854" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D854" s="7"/>
+      <c r="D854" s="2"/>
     </row>
     <row r="855" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D855" s="7"/>
+      <c r="D855" s="2"/>
     </row>
     <row r="856" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D856" s="7"/>
+      <c r="D856" s="2"/>
     </row>
     <row r="857" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D857" s="7"/>
+      <c r="D857" s="2"/>
     </row>
     <row r="858" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D858" s="7"/>
+      <c r="D858" s="2"/>
     </row>
     <row r="859" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D859" s="7"/>
+      <c r="D859" s="2"/>
     </row>
     <row r="860" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D860" s="7"/>
+      <c r="D860" s="2"/>
     </row>
     <row r="861" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D861" s="7"/>
+      <c r="D861" s="2"/>
     </row>
     <row r="862" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D862" s="7"/>
+      <c r="D862" s="2"/>
     </row>
     <row r="863" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D863" s="7"/>
+      <c r="D863" s="2"/>
     </row>
     <row r="864" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D864" s="7"/>
+      <c r="D864" s="2"/>
     </row>
     <row r="865" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D865" s="7"/>
+      <c r="D865" s="2"/>
     </row>
     <row r="866" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D866" s="7"/>
+      <c r="D866" s="2"/>
     </row>
     <row r="867" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D867" s="7"/>
+      <c r="D867" s="2"/>
     </row>
     <row r="868" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D868" s="7"/>
+      <c r="D868" s="2"/>
     </row>
     <row r="869" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D869" s="7"/>
+      <c r="D869" s="2"/>
     </row>
     <row r="870" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D870" s="7"/>
+      <c r="D870" s="2"/>
     </row>
     <row r="871" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D871" s="7"/>
+      <c r="D871" s="2"/>
     </row>
     <row r="872" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D872" s="7"/>
+      <c r="D872" s="2"/>
     </row>
     <row r="873" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D873" s="7"/>
+      <c r="D873" s="2"/>
     </row>
     <row r="874" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D874" s="7"/>
+      <c r="D874" s="2"/>
     </row>
     <row r="875" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D875" s="7"/>
+      <c r="D875" s="2"/>
     </row>
     <row r="876" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D876" s="7"/>
+      <c r="D876" s="2"/>
     </row>
     <row r="877" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D877" s="7"/>
+      <c r="D877" s="2"/>
     </row>
     <row r="878" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D878" s="7"/>
+      <c r="D878" s="2"/>
     </row>
     <row r="879" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D879" s="7"/>
+      <c r="D879" s="2"/>
     </row>
     <row r="880" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D880" s="7"/>
+      <c r="D880" s="2"/>
     </row>
     <row r="881" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D881" s="7"/>
+      <c r="D881" s="2"/>
     </row>
     <row r="882" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D882" s="7"/>
+      <c r="D882" s="2"/>
     </row>
     <row r="883" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D883" s="7"/>
+      <c r="D883" s="2"/>
     </row>
     <row r="884" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D884" s="7"/>
+      <c r="D884" s="2"/>
     </row>
     <row r="885" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D885" s="7"/>
+      <c r="D885" s="2"/>
     </row>
     <row r="886" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D886" s="7"/>
+      <c r="D886" s="2"/>
     </row>
     <row r="887" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D887" s="7"/>
+      <c r="D887" s="2"/>
     </row>
     <row r="888" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D888" s="7"/>
+      <c r="D888" s="2"/>
     </row>
     <row r="889" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D889" s="7"/>
+      <c r="D889" s="2"/>
     </row>
     <row r="890" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D890" s="7"/>
+      <c r="D890" s="2"/>
     </row>
     <row r="891" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D891" s="7"/>
+      <c r="D891" s="2"/>
     </row>
     <row r="892" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D892" s="7"/>
+      <c r="D892" s="2"/>
     </row>
     <row r="893" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D893" s="7"/>
+      <c r="D893" s="2"/>
     </row>
     <row r="894" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D894" s="7"/>
+      <c r="D894" s="2"/>
     </row>
     <row r="895" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D895" s="7"/>
+      <c r="D895" s="2"/>
     </row>
     <row r="896" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D896" s="7"/>
+      <c r="D896" s="2"/>
     </row>
     <row r="897" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D897" s="7"/>
+      <c r="D897" s="2"/>
     </row>
     <row r="898" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D898" s="7"/>
+      <c r="D898" s="2"/>
     </row>
     <row r="899" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D899" s="7"/>
+      <c r="D899" s="2"/>
     </row>
     <row r="900" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D900" s="7"/>
+      <c r="D900" s="2"/>
     </row>
     <row r="901" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D901" s="7"/>
+      <c r="D901" s="2"/>
     </row>
     <row r="902" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D902" s="7"/>
+      <c r="D902" s="2"/>
     </row>
     <row r="903" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D903" s="7"/>
+      <c r="D903" s="2"/>
     </row>
     <row r="904" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D904" s="7"/>
+      <c r="D904" s="2"/>
     </row>
     <row r="905" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D905" s="7"/>
+      <c r="D905" s="2"/>
     </row>
     <row r="906" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D906" s="7"/>
+      <c r="D906" s="2"/>
     </row>
     <row r="907" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D907" s="7"/>
+      <c r="D907" s="2"/>
     </row>
     <row r="908" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D908" s="7"/>
+      <c r="D908" s="2"/>
     </row>
     <row r="909" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D909" s="7"/>
+      <c r="D909" s="2"/>
     </row>
     <row r="910" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D910" s="7"/>
+      <c r="D910" s="2"/>
     </row>
     <row r="911" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D911" s="7"/>
+      <c r="D911" s="2"/>
     </row>
     <row r="912" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D912" s="7"/>
+      <c r="D912" s="2"/>
     </row>
     <row r="913" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D913" s="7"/>
+      <c r="D913" s="2"/>
     </row>
     <row r="914" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D914" s="7"/>
+      <c r="D914" s="2"/>
     </row>
     <row r="915" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D915" s="7"/>
+      <c r="D915" s="2"/>
     </row>
     <row r="916" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D916" s="7"/>
+      <c r="D916" s="2"/>
     </row>
     <row r="917" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D917" s="7"/>
+      <c r="D917" s="2"/>
     </row>
     <row r="918" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D918" s="7"/>
+      <c r="D918" s="2"/>
     </row>
     <row r="919" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D919" s="7"/>
+      <c r="D919" s="2"/>
     </row>
     <row r="920" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D920" s="7"/>
+      <c r="D920" s="2"/>
     </row>
     <row r="921" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D921" s="7"/>
+      <c r="D921" s="2"/>
     </row>
     <row r="922" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D922" s="7"/>
+      <c r="D922" s="2"/>
     </row>
     <row r="923" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D923" s="7"/>
+      <c r="D923" s="2"/>
     </row>
     <row r="924" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D924" s="7"/>
+      <c r="D924" s="2"/>
     </row>
     <row r="925" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D925" s="7"/>
+      <c r="D925" s="2"/>
     </row>
     <row r="926" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D926" s="7"/>
+      <c r="D926" s="2"/>
     </row>
     <row r="927" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D927" s="7"/>
+      <c r="D927" s="2"/>
     </row>
     <row r="928" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D928" s="7"/>
+      <c r="D928" s="2"/>
     </row>
     <row r="929" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D929" s="7"/>
+      <c r="D929" s="2"/>
     </row>
     <row r="930" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D930" s="7"/>
+      <c r="D930" s="2"/>
     </row>
     <row r="931" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D931" s="7"/>
+      <c r="D931" s="2"/>
     </row>
     <row r="932" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D932" s="7"/>
+      <c r="D932" s="2"/>
     </row>
     <row r="933" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D933" s="7"/>
+      <c r="D933" s="2"/>
     </row>
     <row r="934" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D934" s="7"/>
+      <c r="D934" s="2"/>
     </row>
     <row r="935" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D935" s="7"/>
+      <c r="D935" s="2"/>
     </row>
     <row r="936" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D936" s="7"/>
+      <c r="D936" s="2"/>
     </row>
     <row r="937" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D937" s="7"/>
+      <c r="D937" s="2"/>
     </row>
     <row r="938" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D938" s="7"/>
+      <c r="D938" s="2"/>
     </row>
     <row r="939" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D939" s="7"/>
+      <c r="D939" s="2"/>
     </row>
     <row r="940" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D940" s="7"/>
+      <c r="D940" s="2"/>
     </row>
     <row r="941" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D941" s="7"/>
+      <c r="D941" s="2"/>
     </row>
     <row r="942" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D942" s="7"/>
+      <c r="D942" s="2"/>
     </row>
     <row r="943" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D943" s="7"/>
+      <c r="D943" s="2"/>
     </row>
     <row r="944" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D944" s="7"/>
+      <c r="D944" s="2"/>
     </row>
     <row r="945" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D945" s="7"/>
+      <c r="D945" s="2"/>
     </row>
     <row r="946" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D946" s="7"/>
+      <c r="D946" s="2"/>
     </row>
     <row r="947" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D947" s="7"/>
+      <c r="D947" s="2"/>
     </row>
     <row r="948" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D948" s="7"/>
+      <c r="D948" s="2"/>
     </row>
     <row r="949" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D949" s="7"/>
+      <c r="D949" s="2"/>
     </row>
     <row r="950" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D950" s="7"/>
+      <c r="D950" s="2"/>
     </row>
     <row r="951" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D951" s="7"/>
+      <c r="D951" s="2"/>
     </row>
     <row r="952" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D952" s="7"/>
+      <c r="D952" s="2"/>
     </row>
     <row r="953" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D953" s="7"/>
+      <c r="D953" s="2"/>
     </row>
     <row r="954" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D954" s="7"/>
+      <c r="D954" s="2"/>
     </row>
     <row r="955" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D955" s="7"/>
+      <c r="D955" s="2"/>
     </row>
     <row r="956" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D956" s="7"/>
+      <c r="D956" s="2"/>
     </row>
     <row r="957" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D957" s="7"/>
+      <c r="D957" s="2"/>
     </row>
     <row r="958" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D958" s="7"/>
+      <c r="D958" s="2"/>
     </row>
     <row r="959" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D959" s="7"/>
+      <c r="D959" s="2"/>
     </row>
     <row r="960" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D960" s="7"/>
+      <c r="D960" s="2"/>
     </row>
     <row r="961" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D961" s="7"/>
+      <c r="D961" s="2"/>
     </row>
     <row r="962" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D962" s="7"/>
+      <c r="D962" s="2"/>
     </row>
     <row r="963" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D963" s="7"/>
+      <c r="D963" s="2"/>
     </row>
     <row r="964" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D964" s="7"/>
+      <c r="D964" s="2"/>
     </row>
     <row r="965" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D965" s="7"/>
+      <c r="D965" s="2"/>
     </row>
     <row r="966" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D966" s="7"/>
+      <c r="D966" s="2"/>
     </row>
     <row r="967" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D967" s="7"/>
+      <c r="D967" s="2"/>
     </row>
     <row r="968" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D968" s="7"/>
+      <c r="D968" s="2"/>
     </row>
     <row r="969" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D969" s="7"/>
+      <c r="D969" s="2"/>
     </row>
     <row r="970" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D970" s="7"/>
+      <c r="D970" s="2"/>
     </row>
     <row r="971" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D971" s="7"/>
+      <c r="D971" s="2"/>
     </row>
     <row r="972" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D972" s="7"/>
+      <c r="D972" s="2"/>
     </row>
     <row r="973" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D973" s="7"/>
+      <c r="D973" s="2"/>
     </row>
     <row r="974" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D974" s="7"/>
+      <c r="D974" s="2"/>
     </row>
     <row r="975" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D975" s="7"/>
+      <c r="D975" s="2"/>
     </row>
     <row r="976" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D976" s="7"/>
+      <c r="D976" s="2"/>
     </row>
     <row r="977" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D977" s="7"/>
+      <c r="D977" s="2"/>
     </row>
     <row r="978" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D978" s="7"/>
+      <c r="D978" s="2"/>
     </row>
     <row r="979" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D979" s="7"/>
+      <c r="D979" s="2"/>
     </row>
     <row r="980" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D980" s="7"/>
+      <c r="D980" s="2"/>
     </row>
     <row r="981" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D981" s="7"/>
+      <c r="D981" s="2"/>
     </row>
     <row r="982" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D982" s="7"/>
+      <c r="D982" s="2"/>
     </row>
     <row r="983" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D983" s="7"/>
+      <c r="D983" s="2"/>
     </row>
     <row r="984" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D984" s="7"/>
+      <c r="D984" s="2"/>
     </row>
     <row r="985" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D985" s="7"/>
+      <c r="D985" s="2"/>
     </row>
     <row r="986" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D986" s="7"/>
+      <c r="D986" s="2"/>
     </row>
     <row r="987" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D987" s="7"/>
+      <c r="D987" s="2"/>
     </row>
     <row r="988" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D988" s="7"/>
+      <c r="D988" s="2"/>
     </row>
     <row r="989" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D989" s="7"/>
+      <c r="D989" s="2"/>
     </row>
     <row r="990" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D990" s="7"/>
+      <c r="D990" s="2"/>
     </row>
     <row r="991" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D991" s="7"/>
+      <c r="D991" s="2"/>
     </row>
     <row r="992" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D992" s="7"/>
+      <c r="D992" s="2"/>
     </row>
     <row r="993" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D993" s="7"/>
+      <c r="D993" s="2"/>
     </row>
     <row r="994" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D994" s="7"/>
+      <c r="D994" s="2"/>
     </row>
     <row r="995" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D995" s="7"/>
+      <c r="D995" s="2"/>
     </row>
     <row r="996" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D996" s="7"/>
+      <c r="D996" s="2"/>
     </row>
     <row r="997" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D997" s="7"/>
+      <c r="D997" s="2"/>
     </row>
     <row r="998" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D998" s="7"/>
+      <c r="D998" s="2"/>
     </row>
     <row r="999" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D999" s="7"/>
+      <c r="D999" s="2"/>
     </row>
     <row r="1000" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D1000" s="7"/>
+      <c r="D1000" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="DegreePlan" sheetId="4" r:id="rId4"/>
     <sheet name="Student" sheetId="5" r:id="rId5"/>
     <sheet name="Slot" sheetId="6" r:id="rId6"/>
-    <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
+    <sheet name="StudentTerm1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t>DB</t>
   </si>
@@ -150,27 +150,18 @@
     <t>Harshitha</t>
   </si>
   <si>
-    <t>S533569</t>
-  </si>
-  <si>
     <t>Ali</t>
   </si>
   <si>
     <t>Zaiba</t>
   </si>
   <si>
-    <t>S533982</t>
-  </si>
-  <si>
     <t>Nuka</t>
   </si>
   <si>
     <t>Vamshi Krishna</t>
   </si>
   <si>
-    <t>S533573</t>
-  </si>
-  <si>
     <t>F18</t>
   </si>
   <si>
@@ -207,36 +198,6 @@
     <t>Summer 2020</t>
   </si>
   <si>
-    <t>F20</t>
-  </si>
-  <si>
-    <t>Fall 2010</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Spring 2021</t>
-  </si>
-  <si>
-    <t>Su21</t>
-  </si>
-  <si>
-    <t>summer 2021</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Spring 2018</t>
-  </si>
-  <si>
-    <t>Su18</t>
-  </si>
-  <si>
-    <t>Summer 2018</t>
-  </si>
-  <si>
     <t>Easy study plan</t>
   </si>
   <si>
@@ -364,13 +325,16 @@
   </si>
   <si>
     <t>TermName(U,10)</t>
+  </si>
+  <si>
+    <t>Fall2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -379,11 +343,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="11"/>
@@ -435,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -458,18 +417,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -477,25 +444,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -792,72 +758,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>84</v>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>5</v>
       </c>
     </row>
@@ -1867,302 +1833,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>89</v>
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>460</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>356</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>542</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>563</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>560</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>664</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>618</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>0</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>555</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>691</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>692</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>643</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="B12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="12">
         <v>0</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>0</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>20</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>0</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>644</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="B15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="12">
         <v>0</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3160,8 +3126,8 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3174,541 +3140,541 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>91</v>
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="12">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12">
         <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12">
         <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
         <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12">
         <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12">
         <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="12">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12">
         <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12">
         <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="12">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12">
         <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12">
         <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="12">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12">
         <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>1</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12">
         <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
-        <v>1</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="12">
+        <v>3</v>
+      </c>
+      <c r="C15" s="12">
         <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
-        <v>2</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="12">
+        <v>3</v>
+      </c>
+      <c r="C16" s="12">
         <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="15">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
-        <v>2</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="12">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12">
         <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
         <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
-        <v>2</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="B19" s="12">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12">
         <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="15">
-        <v>2</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="12">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12">
         <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
-        <v>2</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B21" s="12">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12">
         <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="15">
-        <v>2</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="B22" s="12">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12">
         <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="15">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="15">
-        <v>2</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="12">
+        <v>3</v>
+      </c>
+      <c r="C23" s="12">
         <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="15">
-        <v>2</v>
-      </c>
-      <c r="C24" s="15">
+      <c r="B24" s="12">
+        <v>3</v>
+      </c>
+      <c r="C24" s="12">
         <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="15">
-        <v>2</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="12">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="15">
-        <v>2</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="12">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="12">
         <v>3</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="12">
         <v>3</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="15">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="12">
         <v>3</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="15">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="12">
         <v>3</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="15">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="12">
         <v>3</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="15">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="12">
         <v>3</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>618</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="15">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="12">
         <v>3</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="15">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="12">
         <v>3</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="15">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="12">
         <v>3</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>692</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="15">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="12">
         <v>3</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="12">
         <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="15">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="12">
         <v>3</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="15">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="12">
         <v>3</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="15">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="15">
-        <v>4</v>
-      </c>
-      <c r="C39" s="15">
+      <c r="B39" s="12">
+        <v>3</v>
+      </c>
+      <c r="C39" s="12">
         <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="15">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="15">
-        <v>4</v>
-      </c>
-      <c r="C40" s="15">
+      <c r="B40" s="12">
+        <v>3</v>
+      </c>
+      <c r="C40" s="12">
         <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="15">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="15">
-        <v>4</v>
-      </c>
-      <c r="C41" s="15">
+      <c r="B41" s="12">
+        <v>3</v>
+      </c>
+      <c r="C41" s="12">
         <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="15">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="15">
-        <v>4</v>
-      </c>
-      <c r="C42" s="15">
+      <c r="B42" s="12">
+        <v>3</v>
+      </c>
+      <c r="C42" s="12">
         <v>664</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="15">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="15">
-        <v>4</v>
-      </c>
-      <c r="C43" s="15">
+      <c r="B43" s="12">
+        <v>3</v>
+      </c>
+      <c r="C43" s="12">
         <v>618</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="15">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="15">
-        <v>4</v>
-      </c>
-      <c r="C44" s="15">
+      <c r="B44" s="12">
+        <v>3</v>
+      </c>
+      <c r="C44" s="12">
         <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="15">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="15">
-        <v>4</v>
-      </c>
-      <c r="C45" s="15">
+      <c r="B45" s="12">
+        <v>3</v>
+      </c>
+      <c r="C45" s="12">
         <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="15">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="15">
-        <v>4</v>
-      </c>
-      <c r="C46" s="15">
+      <c r="B46" s="12">
+        <v>3</v>
+      </c>
+      <c r="C46" s="12">
         <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="15">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="15">
-        <v>4</v>
-      </c>
-      <c r="C47" s="15">
+      <c r="B47" s="12">
+        <v>3</v>
+      </c>
+      <c r="C47" s="12">
         <v>644</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="15">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="15">
-        <v>4</v>
-      </c>
-      <c r="C48" s="15">
+      <c r="B48" s="12">
+        <v>3</v>
+      </c>
+      <c r="C48" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="15">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="15">
-        <v>4</v>
-      </c>
-      <c r="C49" s="15">
+      <c r="B49" s="12">
+        <v>3</v>
+      </c>
+      <c r="C49" s="12">
         <v>20</v>
       </c>
     </row>
@@ -4688,121 +4654,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>90</v>
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>7251</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>533569</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>7252</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>533569</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>7253</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>533982</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="C4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>7254</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>533982</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="C5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>7255</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>533573</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="C6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>7256</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>533573</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="C7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="12">
         <v>4</v>
       </c>
     </row>
@@ -5796,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5811,70 +5777,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>103</v>
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>533569</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4">
+        <v>533569</v>
+      </c>
+      <c r="E2" s="4">
+        <v>919568034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>533982</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="5">
-        <v>919568034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6">
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5">
         <v>533982</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="5">
+        <v>919569110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6">
+        <v>533573</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="6">
-        <v>919569110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7">
+      <c r="D4" s="6">
         <v>533573</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>919570332</v>
       </c>
     </row>
@@ -6881,1226 +6847,1226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>107</v>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>7251</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>542</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>7251</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>563</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>7251</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>560</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>7251</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>664</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>7251</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>2</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>6</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>7251</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="13">
         <v>10</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>7251</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>618</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>7251</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>3</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>691</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>7251</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>4</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>692</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>7251</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>4</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>20</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>7251</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>4</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="13">
         <v>555</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="12">
         <v>7252</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="13">
         <v>664</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>74</v>
+      <c r="E13" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="12">
         <v>7252</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="13">
         <v>64</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>74</v>
+      <c r="E14" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="12">
         <v>7252</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>1</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>10</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>74</v>
+      <c r="E15" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="12">
         <v>7252</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="13">
         <v>691</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>74</v>
+      <c r="E16" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="15">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="12">
         <v>7252</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="13">
         <v>555</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>74</v>
+      <c r="E17" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="12">
         <v>7252</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="13">
         <v>618</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>74</v>
+      <c r="E18" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="12">
         <v>7252</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>3</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="13">
         <v>460</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="12">
         <v>7252</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="13">
         <v>542</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="12">
         <v>7252</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="13">
         <v>563</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="12">
         <v>7252</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="13">
         <v>4</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="13">
         <v>560</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="15">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="12">
         <v>7252</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <v>20</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="12">
         <v>7252</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="13">
         <v>4</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="13">
         <v>692</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="12">
         <v>7253</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="13">
         <v>1</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="13">
         <v>542</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>74</v>
+      <c r="E25" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="12">
         <v>7253</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <v>1</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="13">
         <v>563</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="12">
         <v>7253</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="13">
         <v>1</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="13">
         <v>460</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="12">
         <v>7253</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="13">
         <v>2</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="13">
         <v>560</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="15">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="12">
         <v>7253</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="13">
         <v>2</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="13">
         <v>664</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="15">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="12">
         <v>7253</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>2</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="13">
         <v>64</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="15">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="12">
         <v>7253</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="13">
         <v>3</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="13">
         <v>691</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="15">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="12">
         <v>7253</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>3</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="13">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="15">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="12">
         <v>7253</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="13">
         <v>3</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="13">
         <v>555</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="15">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="12">
         <v>7253</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="13">
         <v>4</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="13">
         <v>692</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="15">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="12">
         <v>7253</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>4</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>20</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="15">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="12">
         <v>7253</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="13">
         <v>4</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="13">
         <v>356</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="15">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="12">
         <v>7254</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="13">
         <v>1</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="13">
         <v>460</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="15">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="12">
         <v>7254</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="13">
         <v>1</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="13">
         <v>542</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="15">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="12">
         <v>7254</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="13">
         <v>1</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="13">
         <v>356</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="15">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="12">
         <v>7254</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="13">
         <v>2</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="13">
         <v>563</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="15">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="12">
         <v>7254</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="13">
         <v>2</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="13">
         <v>560</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="15">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="12">
         <v>7254</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="13">
         <v>2</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="13">
         <v>664</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="15">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="12">
         <v>7254</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="13">
         <v>3</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="13">
         <v>618</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="15">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="12">
         <v>7254</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="13">
         <v>3</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="13">
         <v>555</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="15">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="12">
         <v>7254</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="13">
         <v>3</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="13">
         <v>691</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="15">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="12">
         <v>7254</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="13">
         <v>4</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="13">
         <v>692</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="15">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="12">
         <v>7254</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="13">
         <v>4</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="13">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="15">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="12">
         <v>7254</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="13">
         <v>4</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="13">
         <v>64</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="15">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="12">
         <v>7255</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="13">
         <v>1</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="13">
         <v>356</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="15">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="12">
         <v>7255</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="13">
         <v>1</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="13">
         <v>563</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="15">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="12">
         <v>7255</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="13">
         <v>1</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="13">
         <v>542</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="15">
+      <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="12">
         <v>7255</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="13">
         <v>2</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="13">
         <v>555</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="15">
+      <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="12">
         <v>7255</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="13">
         <v>2</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="13">
         <v>644</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="15">
+      <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="12">
         <v>7255</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="13">
         <v>2</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="13">
         <v>560</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="15">
+      <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="12">
         <v>7255</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="13">
         <v>3</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="13">
         <v>618</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="15">
+      <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="12">
         <v>7255</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="13">
         <v>3</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="13">
         <v>691</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="15">
+      <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="12">
         <v>7255</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="13">
         <v>4</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="13">
         <v>692</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="15">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="12">
         <v>7255</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="13">
         <v>4</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="13">
         <v>643</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="15">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="12">
         <v>7255</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="13">
         <v>4</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="13">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1">
-      <c r="A60" s="15">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="12">
         <v>7255</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="13">
         <v>5</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="13">
         <v>664</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="15">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="12">
         <v>7256</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="13">
         <v>1</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="13">
         <v>356</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="15">
+      <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="12">
         <v>7256</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="13">
         <v>1</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="13">
         <v>563</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="15">
+      <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="12">
         <v>7256</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="13">
         <v>1</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="13">
         <v>542</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64" s="15">
+      <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="12">
         <v>7256</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="13">
         <v>2</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="13">
         <v>555</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65" s="15">
+      <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="12">
         <v>7256</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="13">
         <v>2</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="13">
         <v>644</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="15">
+      <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="12">
         <v>7256</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="13">
         <v>2</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="13">
         <v>560</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="15">
+      <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="12">
         <v>7256</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="13">
         <v>3</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="13">
         <v>618</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="15">
+      <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="12">
         <v>7256</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="13">
         <v>3</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="13">
         <v>691</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69" s="15">
+      <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="12">
         <v>7256</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="13">
         <v>4</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="13">
         <v>692</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A70" s="15">
+      <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="12">
         <v>7256</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="13">
         <v>4</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="13">
         <v>643</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A71" s="15">
+      <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="12">
         <v>7256</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="13">
         <v>5</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="13">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A72" s="15">
+      <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="12">
         <v>7256</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="13">
         <v>5</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="13">
         <v>664</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9049,3398 +9015,294 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>112</v>
+      <c r="A1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>533569</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>533569</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>533569</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>533569</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>533569</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>533982</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>533569</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B8" s="5">
+        <v>533982</v>
+      </c>
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5">
+        <v>533982</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>533569</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="8" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <v>533982</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>533569</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="8" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>533982</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>533573</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>533573</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>533573</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>533573</v>
-      </c>
-      <c r="C9" s="7">
-        <v>4</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>533982</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>533982</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" s="6">
-        <v>533982</v>
+        <v>533573</v>
       </c>
       <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B13" s="6">
-        <v>533982</v>
+        <v>533573</v>
       </c>
       <c r="C13" s="6">
-        <v>4</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14" s="6">
-        <v>533982</v>
+        <v>533573</v>
       </c>
       <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" s="6">
-        <v>533982</v>
+        <v>533573</v>
       </c>
       <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>60</v>
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" s="6">
-        <v>533982</v>
+        <v>533573</v>
       </c>
       <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>533982</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7">
-        <v>533573</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7">
-        <v>533573</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="10">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7">
-        <v>533573</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7">
-        <v>533573</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="10">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7">
-        <v>533573</v>
-      </c>
-      <c r="C22" s="7">
-        <v>5</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>533569</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>533569</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>533569</v>
-      </c>
-      <c r="C25" s="5">
-        <v>3</v>
-      </c>
-      <c r="D25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>533569</v>
-      </c>
-      <c r="C26" s="5">
-        <v>4</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>533569</v>
-      </c>
-      <c r="C27" s="5">
-        <v>5</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D191" s="2"/>
-    </row>
-    <row r="192" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D192" s="2"/>
-    </row>
-    <row r="193" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D194" s="2"/>
-    </row>
-    <row r="195" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D195" s="2"/>
-    </row>
-    <row r="196" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D198" s="2"/>
-    </row>
-    <row r="199" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D199" s="2"/>
-    </row>
-    <row r="200" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D204" s="2"/>
-    </row>
-    <row r="205" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D205" s="2"/>
-    </row>
-    <row r="206" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D206" s="2"/>
-    </row>
-    <row r="207" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D207" s="2"/>
-    </row>
-    <row r="208" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D208" s="2"/>
-    </row>
-    <row r="209" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D209" s="2"/>
-    </row>
-    <row r="210" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D210" s="2"/>
-    </row>
-    <row r="211" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D211" s="2"/>
-    </row>
-    <row r="212" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D212" s="2"/>
-    </row>
-    <row r="213" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D213" s="2"/>
-    </row>
-    <row r="214" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D214" s="2"/>
-    </row>
-    <row r="215" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D215" s="2"/>
-    </row>
-    <row r="216" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D216" s="2"/>
-    </row>
-    <row r="217" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D217" s="2"/>
-    </row>
-    <row r="218" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D218" s="2"/>
-    </row>
-    <row r="219" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D219" s="2"/>
-    </row>
-    <row r="220" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D221" s="2"/>
-    </row>
-    <row r="222" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D222" s="2"/>
-    </row>
-    <row r="223" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D223" s="2"/>
-    </row>
-    <row r="224" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D224" s="2"/>
-    </row>
-    <row r="225" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D225" s="2"/>
-    </row>
-    <row r="226" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D226" s="2"/>
-    </row>
-    <row r="227" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D227" s="2"/>
-    </row>
-    <row r="228" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D228" s="2"/>
-    </row>
-    <row r="229" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D229" s="2"/>
-    </row>
-    <row r="230" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D230" s="2"/>
-    </row>
-    <row r="231" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D232" s="2"/>
-    </row>
-    <row r="233" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D233" s="2"/>
-    </row>
-    <row r="234" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D237" s="2"/>
-    </row>
-    <row r="238" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D238" s="2"/>
-    </row>
-    <row r="239" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D239" s="2"/>
-    </row>
-    <row r="240" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D240" s="2"/>
-    </row>
-    <row r="241" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D241" s="2"/>
-    </row>
-    <row r="242" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D242" s="2"/>
-    </row>
-    <row r="243" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D243" s="2"/>
-    </row>
-    <row r="244" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D244" s="2"/>
-    </row>
-    <row r="245" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D245" s="2"/>
-    </row>
-    <row r="246" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D246" s="2"/>
-    </row>
-    <row r="247" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D247" s="2"/>
-    </row>
-    <row r="248" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D248" s="2"/>
-    </row>
-    <row r="249" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D249" s="2"/>
-    </row>
-    <row r="250" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D250" s="2"/>
-    </row>
-    <row r="251" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D251" s="2"/>
-    </row>
-    <row r="252" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D252" s="2"/>
-    </row>
-    <row r="253" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D253" s="2"/>
-    </row>
-    <row r="254" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D254" s="2"/>
-    </row>
-    <row r="255" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D255" s="2"/>
-    </row>
-    <row r="256" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D256" s="2"/>
-    </row>
-    <row r="257" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D257" s="2"/>
-    </row>
-    <row r="258" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D258" s="2"/>
-    </row>
-    <row r="259" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D259" s="2"/>
-    </row>
-    <row r="260" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D260" s="2"/>
-    </row>
-    <row r="261" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D261" s="2"/>
-    </row>
-    <row r="262" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D262" s="2"/>
-    </row>
-    <row r="263" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D263" s="2"/>
-    </row>
-    <row r="264" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D264" s="2"/>
-    </row>
-    <row r="265" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D265" s="2"/>
-    </row>
-    <row r="266" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D266" s="2"/>
-    </row>
-    <row r="267" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D267" s="2"/>
-    </row>
-    <row r="268" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D268" s="2"/>
-    </row>
-    <row r="269" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D269" s="2"/>
-    </row>
-    <row r="270" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D270" s="2"/>
-    </row>
-    <row r="271" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D271" s="2"/>
-    </row>
-    <row r="272" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D272" s="2"/>
-    </row>
-    <row r="273" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D273" s="2"/>
-    </row>
-    <row r="274" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D274" s="2"/>
-    </row>
-    <row r="275" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D275" s="2"/>
-    </row>
-    <row r="276" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D276" s="2"/>
-    </row>
-    <row r="277" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D277" s="2"/>
-    </row>
-    <row r="278" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D278" s="2"/>
-    </row>
-    <row r="279" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D279" s="2"/>
-    </row>
-    <row r="280" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D280" s="2"/>
-    </row>
-    <row r="281" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D281" s="2"/>
-    </row>
-    <row r="282" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D282" s="2"/>
-    </row>
-    <row r="283" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D283" s="2"/>
-    </row>
-    <row r="284" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D284" s="2"/>
-    </row>
-    <row r="285" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D285" s="2"/>
-    </row>
-    <row r="286" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D286" s="2"/>
-    </row>
-    <row r="287" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D287" s="2"/>
-    </row>
-    <row r="288" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D288" s="2"/>
-    </row>
-    <row r="289" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D289" s="2"/>
-    </row>
-    <row r="290" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D290" s="2"/>
-    </row>
-    <row r="291" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D291" s="2"/>
-    </row>
-    <row r="292" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D292" s="2"/>
-    </row>
-    <row r="293" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D293" s="2"/>
-    </row>
-    <row r="294" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D294" s="2"/>
-    </row>
-    <row r="295" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D295" s="2"/>
-    </row>
-    <row r="296" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D296" s="2"/>
-    </row>
-    <row r="297" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D297" s="2"/>
-    </row>
-    <row r="298" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D298" s="2"/>
-    </row>
-    <row r="299" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D299" s="2"/>
-    </row>
-    <row r="300" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D300" s="2"/>
-    </row>
-    <row r="301" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D301" s="2"/>
-    </row>
-    <row r="302" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D303" s="2"/>
-    </row>
-    <row r="304" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D304" s="2"/>
-    </row>
-    <row r="305" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D305" s="2"/>
-    </row>
-    <row r="306" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D306" s="2"/>
-    </row>
-    <row r="307" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D307" s="2"/>
-    </row>
-    <row r="308" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D308" s="2"/>
-    </row>
-    <row r="309" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D309" s="2"/>
-    </row>
-    <row r="310" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D310" s="2"/>
-    </row>
-    <row r="311" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D311" s="2"/>
-    </row>
-    <row r="312" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D312" s="2"/>
-    </row>
-    <row r="313" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D313" s="2"/>
-    </row>
-    <row r="314" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D314" s="2"/>
-    </row>
-    <row r="315" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D315" s="2"/>
-    </row>
-    <row r="316" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D316" s="2"/>
-    </row>
-    <row r="317" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D317" s="2"/>
-    </row>
-    <row r="318" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D318" s="2"/>
-    </row>
-    <row r="319" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D319" s="2"/>
-    </row>
-    <row r="320" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D320" s="2"/>
-    </row>
-    <row r="321" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D321" s="2"/>
-    </row>
-    <row r="322" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D322" s="2"/>
-    </row>
-    <row r="323" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D323" s="2"/>
-    </row>
-    <row r="324" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D324" s="2"/>
-    </row>
-    <row r="325" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D325" s="2"/>
-    </row>
-    <row r="326" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D326" s="2"/>
-    </row>
-    <row r="327" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D327" s="2"/>
-    </row>
-    <row r="328" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D328" s="2"/>
-    </row>
-    <row r="329" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D329" s="2"/>
-    </row>
-    <row r="330" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D330" s="2"/>
-    </row>
-    <row r="331" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D331" s="2"/>
-    </row>
-    <row r="332" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D332" s="2"/>
-    </row>
-    <row r="333" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D333" s="2"/>
-    </row>
-    <row r="334" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D334" s="2"/>
-    </row>
-    <row r="335" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D335" s="2"/>
-    </row>
-    <row r="336" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D336" s="2"/>
-    </row>
-    <row r="337" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D337" s="2"/>
-    </row>
-    <row r="338" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D338" s="2"/>
-    </row>
-    <row r="339" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D339" s="2"/>
-    </row>
-    <row r="340" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D340" s="2"/>
-    </row>
-    <row r="341" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D341" s="2"/>
-    </row>
-    <row r="342" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D342" s="2"/>
-    </row>
-    <row r="343" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D343" s="2"/>
-    </row>
-    <row r="344" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D344" s="2"/>
-    </row>
-    <row r="345" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D345" s="2"/>
-    </row>
-    <row r="346" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D348" s="2"/>
-    </row>
-    <row r="349" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D349" s="2"/>
-    </row>
-    <row r="350" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D350" s="2"/>
-    </row>
-    <row r="351" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D351" s="2"/>
-    </row>
-    <row r="352" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D352" s="2"/>
-    </row>
-    <row r="353" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D354" s="2"/>
-    </row>
-    <row r="355" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D355" s="2"/>
-    </row>
-    <row r="356" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D356" s="2"/>
-    </row>
-    <row r="357" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D358" s="2"/>
-    </row>
-    <row r="359" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D359" s="2"/>
-    </row>
-    <row r="360" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D360" s="2"/>
-    </row>
-    <row r="361" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D361" s="2"/>
-    </row>
-    <row r="362" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D362" s="2"/>
-    </row>
-    <row r="363" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D363" s="2"/>
-    </row>
-    <row r="364" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D364" s="2"/>
-    </row>
-    <row r="365" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D365" s="2"/>
-    </row>
-    <row r="366" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D366" s="2"/>
-    </row>
-    <row r="367" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D368" s="2"/>
-    </row>
-    <row r="369" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D373" s="2"/>
-    </row>
-    <row r="374" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D376" s="2"/>
-    </row>
-    <row r="377" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D377" s="2"/>
-    </row>
-    <row r="378" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D379" s="2"/>
-    </row>
-    <row r="380" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D381" s="2"/>
-    </row>
-    <row r="382" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D382" s="2"/>
-    </row>
-    <row r="383" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D383" s="2"/>
-    </row>
-    <row r="384" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D384" s="2"/>
-    </row>
-    <row r="385" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D385" s="2"/>
-    </row>
-    <row r="386" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D386" s="2"/>
-    </row>
-    <row r="387" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D387" s="2"/>
-    </row>
-    <row r="388" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D388" s="2"/>
-    </row>
-    <row r="389" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D391" s="2"/>
-    </row>
-    <row r="392" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D392" s="2"/>
-    </row>
-    <row r="393" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D393" s="2"/>
-    </row>
-    <row r="394" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D394" s="2"/>
-    </row>
-    <row r="395" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D395" s="2"/>
-    </row>
-    <row r="396" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D396" s="2"/>
-    </row>
-    <row r="397" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D397" s="2"/>
-    </row>
-    <row r="398" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D398" s="2"/>
-    </row>
-    <row r="399" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D399" s="2"/>
-    </row>
-    <row r="400" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D400" s="2"/>
-    </row>
-    <row r="401" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D401" s="2"/>
-    </row>
-    <row r="402" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D402" s="2"/>
-    </row>
-    <row r="403" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D403" s="2"/>
-    </row>
-    <row r="404" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D404" s="2"/>
-    </row>
-    <row r="405" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D405" s="2"/>
-    </row>
-    <row r="406" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D406" s="2"/>
-    </row>
-    <row r="407" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D407" s="2"/>
-    </row>
-    <row r="408" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D408" s="2"/>
-    </row>
-    <row r="409" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D409" s="2"/>
-    </row>
-    <row r="410" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D410" s="2"/>
-    </row>
-    <row r="411" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D411" s="2"/>
-    </row>
-    <row r="412" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D412" s="2"/>
-    </row>
-    <row r="413" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D413" s="2"/>
-    </row>
-    <row r="414" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D414" s="2"/>
-    </row>
-    <row r="415" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D415" s="2"/>
-    </row>
-    <row r="416" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D416" s="2"/>
-    </row>
-    <row r="417" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D417" s="2"/>
-    </row>
-    <row r="418" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D418" s="2"/>
-    </row>
-    <row r="419" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D419" s="2"/>
-    </row>
-    <row r="420" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D420" s="2"/>
-    </row>
-    <row r="421" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D421" s="2"/>
-    </row>
-    <row r="422" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D422" s="2"/>
-    </row>
-    <row r="423" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D423" s="2"/>
-    </row>
-    <row r="424" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D424" s="2"/>
-    </row>
-    <row r="425" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D425" s="2"/>
-    </row>
-    <row r="426" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D426" s="2"/>
-    </row>
-    <row r="427" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D427" s="2"/>
-    </row>
-    <row r="428" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D428" s="2"/>
-    </row>
-    <row r="429" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D429" s="2"/>
-    </row>
-    <row r="430" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D430" s="2"/>
-    </row>
-    <row r="431" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D431" s="2"/>
-    </row>
-    <row r="432" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D432" s="2"/>
-    </row>
-    <row r="433" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D433" s="2"/>
-    </row>
-    <row r="434" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D434" s="2"/>
-    </row>
-    <row r="435" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D435" s="2"/>
-    </row>
-    <row r="436" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D436" s="2"/>
-    </row>
-    <row r="437" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D437" s="2"/>
-    </row>
-    <row r="438" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D438" s="2"/>
-    </row>
-    <row r="439" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D439" s="2"/>
-    </row>
-    <row r="440" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D440" s="2"/>
-    </row>
-    <row r="441" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D441" s="2"/>
-    </row>
-    <row r="442" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D442" s="2"/>
-    </row>
-    <row r="443" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D443" s="2"/>
-    </row>
-    <row r="444" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D444" s="2"/>
-    </row>
-    <row r="445" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D445" s="2"/>
-    </row>
-    <row r="446" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D446" s="2"/>
-    </row>
-    <row r="447" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D447" s="2"/>
-    </row>
-    <row r="448" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D448" s="2"/>
-    </row>
-    <row r="449" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D449" s="2"/>
-    </row>
-    <row r="450" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D450" s="2"/>
-    </row>
-    <row r="451" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D451" s="2"/>
-    </row>
-    <row r="452" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D452" s="2"/>
-    </row>
-    <row r="453" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D453" s="2"/>
-    </row>
-    <row r="454" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D454" s="2"/>
-    </row>
-    <row r="455" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D455" s="2"/>
-    </row>
-    <row r="456" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D456" s="2"/>
-    </row>
-    <row r="457" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D457" s="2"/>
-    </row>
-    <row r="458" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D458" s="2"/>
-    </row>
-    <row r="459" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D459" s="2"/>
-    </row>
-    <row r="460" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D460" s="2"/>
-    </row>
-    <row r="461" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D461" s="2"/>
-    </row>
-    <row r="462" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D462" s="2"/>
-    </row>
-    <row r="463" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D463" s="2"/>
-    </row>
-    <row r="464" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D464" s="2"/>
-    </row>
-    <row r="465" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D465" s="2"/>
-    </row>
-    <row r="466" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D466" s="2"/>
-    </row>
-    <row r="467" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D467" s="2"/>
-    </row>
-    <row r="468" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D468" s="2"/>
-    </row>
-    <row r="469" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D469" s="2"/>
-    </row>
-    <row r="470" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D470" s="2"/>
-    </row>
-    <row r="471" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D471" s="2"/>
-    </row>
-    <row r="472" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D472" s="2"/>
-    </row>
-    <row r="473" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D473" s="2"/>
-    </row>
-    <row r="474" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D474" s="2"/>
-    </row>
-    <row r="475" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D475" s="2"/>
-    </row>
-    <row r="476" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D476" s="2"/>
-    </row>
-    <row r="477" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D477" s="2"/>
-    </row>
-    <row r="478" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D478" s="2"/>
-    </row>
-    <row r="479" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D479" s="2"/>
-    </row>
-    <row r="480" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D480" s="2"/>
-    </row>
-    <row r="481" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D481" s="2"/>
-    </row>
-    <row r="482" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D482" s="2"/>
-    </row>
-    <row r="483" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D483" s="2"/>
-    </row>
-    <row r="484" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D484" s="2"/>
-    </row>
-    <row r="485" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D485" s="2"/>
-    </row>
-    <row r="486" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D486" s="2"/>
-    </row>
-    <row r="487" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D487" s="2"/>
-    </row>
-    <row r="488" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D488" s="2"/>
-    </row>
-    <row r="489" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D489" s="2"/>
-    </row>
-    <row r="490" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D490" s="2"/>
-    </row>
-    <row r="491" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D491" s="2"/>
-    </row>
-    <row r="492" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D492" s="2"/>
-    </row>
-    <row r="493" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D493" s="2"/>
-    </row>
-    <row r="494" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D494" s="2"/>
-    </row>
-    <row r="495" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D495" s="2"/>
-    </row>
-    <row r="496" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D496" s="2"/>
-    </row>
-    <row r="497" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D497" s="2"/>
-    </row>
-    <row r="498" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D498" s="2"/>
-    </row>
-    <row r="499" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D499" s="2"/>
-    </row>
-    <row r="500" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D500" s="2"/>
-    </row>
-    <row r="501" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D501" s="2"/>
-    </row>
-    <row r="502" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D502" s="2"/>
-    </row>
-    <row r="503" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D503" s="2"/>
-    </row>
-    <row r="504" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D504" s="2"/>
-    </row>
-    <row r="505" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D505" s="2"/>
-    </row>
-    <row r="506" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D506" s="2"/>
-    </row>
-    <row r="507" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D507" s="2"/>
-    </row>
-    <row r="508" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D508" s="2"/>
-    </row>
-    <row r="509" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D509" s="2"/>
-    </row>
-    <row r="510" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D510" s="2"/>
-    </row>
-    <row r="511" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D511" s="2"/>
-    </row>
-    <row r="512" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D512" s="2"/>
-    </row>
-    <row r="513" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D513" s="2"/>
-    </row>
-    <row r="514" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D514" s="2"/>
-    </row>
-    <row r="515" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D515" s="2"/>
-    </row>
-    <row r="516" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D516" s="2"/>
-    </row>
-    <row r="517" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D517" s="2"/>
-    </row>
-    <row r="518" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D518" s="2"/>
-    </row>
-    <row r="519" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D519" s="2"/>
-    </row>
-    <row r="520" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D520" s="2"/>
-    </row>
-    <row r="521" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D521" s="2"/>
-    </row>
-    <row r="522" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D522" s="2"/>
-    </row>
-    <row r="523" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D523" s="2"/>
-    </row>
-    <row r="524" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D524" s="2"/>
-    </row>
-    <row r="525" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D525" s="2"/>
-    </row>
-    <row r="526" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D526" s="2"/>
-    </row>
-    <row r="527" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D527" s="2"/>
-    </row>
-    <row r="528" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D528" s="2"/>
-    </row>
-    <row r="529" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D529" s="2"/>
-    </row>
-    <row r="530" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D530" s="2"/>
-    </row>
-    <row r="531" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D531" s="2"/>
-    </row>
-    <row r="532" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D532" s="2"/>
-    </row>
-    <row r="533" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D533" s="2"/>
-    </row>
-    <row r="534" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D534" s="2"/>
-    </row>
-    <row r="535" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D535" s="2"/>
-    </row>
-    <row r="536" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D536" s="2"/>
-    </row>
-    <row r="537" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D537" s="2"/>
-    </row>
-    <row r="538" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D538" s="2"/>
-    </row>
-    <row r="539" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D539" s="2"/>
-    </row>
-    <row r="540" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D540" s="2"/>
-    </row>
-    <row r="541" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D541" s="2"/>
-    </row>
-    <row r="542" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D542" s="2"/>
-    </row>
-    <row r="543" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D543" s="2"/>
-    </row>
-    <row r="544" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D544" s="2"/>
-    </row>
-    <row r="545" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D545" s="2"/>
-    </row>
-    <row r="546" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D546" s="2"/>
-    </row>
-    <row r="547" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D547" s="2"/>
-    </row>
-    <row r="548" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D548" s="2"/>
-    </row>
-    <row r="549" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D549" s="2"/>
-    </row>
-    <row r="550" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D550" s="2"/>
-    </row>
-    <row r="551" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D551" s="2"/>
-    </row>
-    <row r="552" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D552" s="2"/>
-    </row>
-    <row r="553" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D553" s="2"/>
-    </row>
-    <row r="554" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D554" s="2"/>
-    </row>
-    <row r="555" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D555" s="2"/>
-    </row>
-    <row r="556" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D556" s="2"/>
-    </row>
-    <row r="557" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D557" s="2"/>
-    </row>
-    <row r="558" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D558" s="2"/>
-    </row>
-    <row r="559" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D559" s="2"/>
-    </row>
-    <row r="560" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D560" s="2"/>
-    </row>
-    <row r="561" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D561" s="2"/>
-    </row>
-    <row r="562" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D562" s="2"/>
-    </row>
-    <row r="563" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D563" s="2"/>
-    </row>
-    <row r="564" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D564" s="2"/>
-    </row>
-    <row r="565" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D565" s="2"/>
-    </row>
-    <row r="566" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D566" s="2"/>
-    </row>
-    <row r="567" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D567" s="2"/>
-    </row>
-    <row r="568" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D568" s="2"/>
-    </row>
-    <row r="569" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D569" s="2"/>
-    </row>
-    <row r="570" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D570" s="2"/>
-    </row>
-    <row r="571" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D571" s="2"/>
-    </row>
-    <row r="572" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D572" s="2"/>
-    </row>
-    <row r="573" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D573" s="2"/>
-    </row>
-    <row r="574" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D574" s="2"/>
-    </row>
-    <row r="575" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D575" s="2"/>
-    </row>
-    <row r="576" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D576" s="2"/>
-    </row>
-    <row r="577" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D577" s="2"/>
-    </row>
-    <row r="578" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D578" s="2"/>
-    </row>
-    <row r="579" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D579" s="2"/>
-    </row>
-    <row r="580" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D580" s="2"/>
-    </row>
-    <row r="581" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D581" s="2"/>
-    </row>
-    <row r="582" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D582" s="2"/>
-    </row>
-    <row r="583" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D583" s="2"/>
-    </row>
-    <row r="584" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D584" s="2"/>
-    </row>
-    <row r="585" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D585" s="2"/>
-    </row>
-    <row r="586" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D586" s="2"/>
-    </row>
-    <row r="587" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D587" s="2"/>
-    </row>
-    <row r="588" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D588" s="2"/>
-    </row>
-    <row r="589" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D589" s="2"/>
-    </row>
-    <row r="590" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D590" s="2"/>
-    </row>
-    <row r="591" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D591" s="2"/>
-    </row>
-    <row r="592" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D592" s="2"/>
-    </row>
-    <row r="593" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D593" s="2"/>
-    </row>
-    <row r="594" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D594" s="2"/>
-    </row>
-    <row r="595" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D595" s="2"/>
-    </row>
-    <row r="596" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D596" s="2"/>
-    </row>
-    <row r="597" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D597" s="2"/>
-    </row>
-    <row r="598" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D598" s="2"/>
-    </row>
-    <row r="599" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D599" s="2"/>
-    </row>
-    <row r="600" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D600" s="2"/>
-    </row>
-    <row r="601" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D601" s="2"/>
-    </row>
-    <row r="602" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D602" s="2"/>
-    </row>
-    <row r="603" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D603" s="2"/>
-    </row>
-    <row r="604" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D604" s="2"/>
-    </row>
-    <row r="605" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D605" s="2"/>
-    </row>
-    <row r="606" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D606" s="2"/>
-    </row>
-    <row r="607" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D607" s="2"/>
-    </row>
-    <row r="608" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D608" s="2"/>
-    </row>
-    <row r="609" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D609" s="2"/>
-    </row>
-    <row r="610" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D610" s="2"/>
-    </row>
-    <row r="611" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D611" s="2"/>
-    </row>
-    <row r="612" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D612" s="2"/>
-    </row>
-    <row r="613" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D613" s="2"/>
-    </row>
-    <row r="614" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D614" s="2"/>
-    </row>
-    <row r="615" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D615" s="2"/>
-    </row>
-    <row r="616" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D616" s="2"/>
-    </row>
-    <row r="617" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D617" s="2"/>
-    </row>
-    <row r="618" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D618" s="2"/>
-    </row>
-    <row r="619" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D619" s="2"/>
-    </row>
-    <row r="620" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D620" s="2"/>
-    </row>
-    <row r="621" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D621" s="2"/>
-    </row>
-    <row r="622" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D622" s="2"/>
-    </row>
-    <row r="623" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D623" s="2"/>
-    </row>
-    <row r="624" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D624" s="2"/>
-    </row>
-    <row r="625" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D625" s="2"/>
-    </row>
-    <row r="626" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D626" s="2"/>
-    </row>
-    <row r="627" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D627" s="2"/>
-    </row>
-    <row r="628" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D628" s="2"/>
-    </row>
-    <row r="629" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D629" s="2"/>
-    </row>
-    <row r="630" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D630" s="2"/>
-    </row>
-    <row r="631" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D631" s="2"/>
-    </row>
-    <row r="632" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D632" s="2"/>
-    </row>
-    <row r="633" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D633" s="2"/>
-    </row>
-    <row r="634" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D634" s="2"/>
-    </row>
-    <row r="635" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D635" s="2"/>
-    </row>
-    <row r="636" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D636" s="2"/>
-    </row>
-    <row r="637" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D637" s="2"/>
-    </row>
-    <row r="638" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D638" s="2"/>
-    </row>
-    <row r="639" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D639" s="2"/>
-    </row>
-    <row r="640" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D640" s="2"/>
-    </row>
-    <row r="641" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D641" s="2"/>
-    </row>
-    <row r="642" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D642" s="2"/>
-    </row>
-    <row r="643" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D643" s="2"/>
-    </row>
-    <row r="644" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D644" s="2"/>
-    </row>
-    <row r="645" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D645" s="2"/>
-    </row>
-    <row r="646" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D646" s="2"/>
-    </row>
-    <row r="647" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D647" s="2"/>
-    </row>
-    <row r="648" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D648" s="2"/>
-    </row>
-    <row r="649" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D649" s="2"/>
-    </row>
-    <row r="650" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D650" s="2"/>
-    </row>
-    <row r="651" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D651" s="2"/>
-    </row>
-    <row r="652" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D652" s="2"/>
-    </row>
-    <row r="653" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D653" s="2"/>
-    </row>
-    <row r="654" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D654" s="2"/>
-    </row>
-    <row r="655" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D655" s="2"/>
-    </row>
-    <row r="656" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D656" s="2"/>
-    </row>
-    <row r="657" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D657" s="2"/>
-    </row>
-    <row r="658" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D658" s="2"/>
-    </row>
-    <row r="659" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D659" s="2"/>
-    </row>
-    <row r="660" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D660" s="2"/>
-    </row>
-    <row r="661" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D661" s="2"/>
-    </row>
-    <row r="662" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D662" s="2"/>
-    </row>
-    <row r="663" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D663" s="2"/>
-    </row>
-    <row r="664" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D664" s="2"/>
-    </row>
-    <row r="665" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D665" s="2"/>
-    </row>
-    <row r="666" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D666" s="2"/>
-    </row>
-    <row r="667" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D667" s="2"/>
-    </row>
-    <row r="668" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D668" s="2"/>
-    </row>
-    <row r="669" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D669" s="2"/>
-    </row>
-    <row r="670" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D670" s="2"/>
-    </row>
-    <row r="671" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D671" s="2"/>
-    </row>
-    <row r="672" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D672" s="2"/>
-    </row>
-    <row r="673" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D673" s="2"/>
-    </row>
-    <row r="674" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D674" s="2"/>
-    </row>
-    <row r="675" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D675" s="2"/>
-    </row>
-    <row r="676" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D676" s="2"/>
-    </row>
-    <row r="677" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D677" s="2"/>
-    </row>
-    <row r="678" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D678" s="2"/>
-    </row>
-    <row r="679" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D679" s="2"/>
-    </row>
-    <row r="680" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D680" s="2"/>
-    </row>
-    <row r="681" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D681" s="2"/>
-    </row>
-    <row r="682" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D682" s="2"/>
-    </row>
-    <row r="683" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D683" s="2"/>
-    </row>
-    <row r="684" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D684" s="2"/>
-    </row>
-    <row r="685" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D685" s="2"/>
-    </row>
-    <row r="686" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D686" s="2"/>
-    </row>
-    <row r="687" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D687" s="2"/>
-    </row>
-    <row r="688" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D688" s="2"/>
-    </row>
-    <row r="689" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D689" s="2"/>
-    </row>
-    <row r="690" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D690" s="2"/>
-    </row>
-    <row r="691" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D691" s="2"/>
-    </row>
-    <row r="692" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D692" s="2"/>
-    </row>
-    <row r="693" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D693" s="2"/>
-    </row>
-    <row r="694" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D694" s="2"/>
-    </row>
-    <row r="695" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D695" s="2"/>
-    </row>
-    <row r="696" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D696" s="2"/>
-    </row>
-    <row r="697" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D697" s="2"/>
-    </row>
-    <row r="698" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D698" s="2"/>
-    </row>
-    <row r="699" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D699" s="2"/>
-    </row>
-    <row r="700" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D700" s="2"/>
-    </row>
-    <row r="701" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D701" s="2"/>
-    </row>
-    <row r="702" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D702" s="2"/>
-    </row>
-    <row r="703" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D703" s="2"/>
-    </row>
-    <row r="704" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D704" s="2"/>
-    </row>
-    <row r="705" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D705" s="2"/>
-    </row>
-    <row r="706" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D706" s="2"/>
-    </row>
-    <row r="707" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D707" s="2"/>
-    </row>
-    <row r="708" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D708" s="2"/>
-    </row>
-    <row r="709" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D709" s="2"/>
-    </row>
-    <row r="710" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D710" s="2"/>
-    </row>
-    <row r="711" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D711" s="2"/>
-    </row>
-    <row r="712" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D712" s="2"/>
-    </row>
-    <row r="713" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D713" s="2"/>
-    </row>
-    <row r="714" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D714" s="2"/>
-    </row>
-    <row r="715" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D715" s="2"/>
-    </row>
-    <row r="716" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D716" s="2"/>
-    </row>
-    <row r="717" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D717" s="2"/>
-    </row>
-    <row r="718" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D718" s="2"/>
-    </row>
-    <row r="719" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D719" s="2"/>
-    </row>
-    <row r="720" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D720" s="2"/>
-    </row>
-    <row r="721" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D721" s="2"/>
-    </row>
-    <row r="722" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D722" s="2"/>
-    </row>
-    <row r="723" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D723" s="2"/>
-    </row>
-    <row r="724" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D724" s="2"/>
-    </row>
-    <row r="725" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D725" s="2"/>
-    </row>
-    <row r="726" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D726" s="2"/>
-    </row>
-    <row r="727" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D727" s="2"/>
-    </row>
-    <row r="728" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D728" s="2"/>
-    </row>
-    <row r="729" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D729" s="2"/>
-    </row>
-    <row r="730" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D730" s="2"/>
-    </row>
-    <row r="731" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D731" s="2"/>
-    </row>
-    <row r="732" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D732" s="2"/>
-    </row>
-    <row r="733" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D733" s="2"/>
-    </row>
-    <row r="734" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D734" s="2"/>
-    </row>
-    <row r="735" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D735" s="2"/>
-    </row>
-    <row r="736" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D736" s="2"/>
-    </row>
-    <row r="737" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D737" s="2"/>
-    </row>
-    <row r="738" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D738" s="2"/>
-    </row>
-    <row r="739" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D739" s="2"/>
-    </row>
-    <row r="740" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D740" s="2"/>
-    </row>
-    <row r="741" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D741" s="2"/>
-    </row>
-    <row r="742" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D742" s="2"/>
-    </row>
-    <row r="743" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D743" s="2"/>
-    </row>
-    <row r="744" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D744" s="2"/>
-    </row>
-    <row r="745" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D745" s="2"/>
-    </row>
-    <row r="746" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D746" s="2"/>
-    </row>
-    <row r="747" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D747" s="2"/>
-    </row>
-    <row r="748" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D748" s="2"/>
-    </row>
-    <row r="749" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D749" s="2"/>
-    </row>
-    <row r="750" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D750" s="2"/>
-    </row>
-    <row r="751" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D751" s="2"/>
-    </row>
-    <row r="752" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D752" s="2"/>
-    </row>
-    <row r="753" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D753" s="2"/>
-    </row>
-    <row r="754" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D754" s="2"/>
-    </row>
-    <row r="755" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D755" s="2"/>
-    </row>
-    <row r="756" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D756" s="2"/>
-    </row>
-    <row r="757" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D757" s="2"/>
-    </row>
-    <row r="758" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D758" s="2"/>
-    </row>
-    <row r="759" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D759" s="2"/>
-    </row>
-    <row r="760" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D760" s="2"/>
-    </row>
-    <row r="761" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D761" s="2"/>
-    </row>
-    <row r="762" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D762" s="2"/>
-    </row>
-    <row r="763" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D763" s="2"/>
-    </row>
-    <row r="764" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D764" s="2"/>
-    </row>
-    <row r="765" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D765" s="2"/>
-    </row>
-    <row r="766" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D766" s="2"/>
-    </row>
-    <row r="767" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D767" s="2"/>
-    </row>
-    <row r="768" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D768" s="2"/>
-    </row>
-    <row r="769" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D769" s="2"/>
-    </row>
-    <row r="770" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D770" s="2"/>
-    </row>
-    <row r="771" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D771" s="2"/>
-    </row>
-    <row r="772" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D772" s="2"/>
-    </row>
-    <row r="773" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D773" s="2"/>
-    </row>
-    <row r="774" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D774" s="2"/>
-    </row>
-    <row r="775" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D775" s="2"/>
-    </row>
-    <row r="776" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D776" s="2"/>
-    </row>
-    <row r="777" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D777" s="2"/>
-    </row>
-    <row r="778" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D778" s="2"/>
-    </row>
-    <row r="779" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D779" s="2"/>
-    </row>
-    <row r="780" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D780" s="2"/>
-    </row>
-    <row r="781" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D781" s="2"/>
-    </row>
-    <row r="782" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D782" s="2"/>
-    </row>
-    <row r="783" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D783" s="2"/>
-    </row>
-    <row r="784" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D784" s="2"/>
-    </row>
-    <row r="785" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D785" s="2"/>
-    </row>
-    <row r="786" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D786" s="2"/>
-    </row>
-    <row r="787" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D787" s="2"/>
-    </row>
-    <row r="788" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D788" s="2"/>
-    </row>
-    <row r="789" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D789" s="2"/>
-    </row>
-    <row r="790" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D790" s="2"/>
-    </row>
-    <row r="791" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D791" s="2"/>
-    </row>
-    <row r="792" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D792" s="2"/>
-    </row>
-    <row r="793" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D793" s="2"/>
-    </row>
-    <row r="794" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D794" s="2"/>
-    </row>
-    <row r="795" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D795" s="2"/>
-    </row>
-    <row r="796" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D796" s="2"/>
-    </row>
-    <row r="797" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D797" s="2"/>
-    </row>
-    <row r="798" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D798" s="2"/>
-    </row>
-    <row r="799" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D799" s="2"/>
-    </row>
-    <row r="800" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D800" s="2"/>
-    </row>
-    <row r="801" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D801" s="2"/>
-    </row>
-    <row r="802" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D802" s="2"/>
-    </row>
-    <row r="803" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D803" s="2"/>
-    </row>
-    <row r="804" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D804" s="2"/>
-    </row>
-    <row r="805" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D805" s="2"/>
-    </row>
-    <row r="806" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D806" s="2"/>
-    </row>
-    <row r="807" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D807" s="2"/>
-    </row>
-    <row r="808" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D808" s="2"/>
-    </row>
-    <row r="809" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D809" s="2"/>
-    </row>
-    <row r="810" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D810" s="2"/>
-    </row>
-    <row r="811" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D811" s="2"/>
-    </row>
-    <row r="812" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D812" s="2"/>
-    </row>
-    <row r="813" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D813" s="2"/>
-    </row>
-    <row r="814" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D814" s="2"/>
-    </row>
-    <row r="815" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D815" s="2"/>
-    </row>
-    <row r="816" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D816" s="2"/>
-    </row>
-    <row r="817" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D817" s="2"/>
-    </row>
-    <row r="818" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D818" s="2"/>
-    </row>
-    <row r="819" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D819" s="2"/>
-    </row>
-    <row r="820" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D820" s="2"/>
-    </row>
-    <row r="821" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D821" s="2"/>
-    </row>
-    <row r="822" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D822" s="2"/>
-    </row>
-    <row r="823" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D823" s="2"/>
-    </row>
-    <row r="824" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D824" s="2"/>
-    </row>
-    <row r="825" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D825" s="2"/>
-    </row>
-    <row r="826" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D826" s="2"/>
-    </row>
-    <row r="827" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D827" s="2"/>
-    </row>
-    <row r="828" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D828" s="2"/>
-    </row>
-    <row r="829" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D829" s="2"/>
-    </row>
-    <row r="830" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D830" s="2"/>
-    </row>
-    <row r="831" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D831" s="2"/>
-    </row>
-    <row r="832" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D832" s="2"/>
-    </row>
-    <row r="833" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D833" s="2"/>
-    </row>
-    <row r="834" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D834" s="2"/>
-    </row>
-    <row r="835" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D835" s="2"/>
-    </row>
-    <row r="836" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D836" s="2"/>
-    </row>
-    <row r="837" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D837" s="2"/>
-    </row>
-    <row r="838" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D838" s="2"/>
-    </row>
-    <row r="839" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D839" s="2"/>
-    </row>
-    <row r="840" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D840" s="2"/>
-    </row>
-    <row r="841" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D841" s="2"/>
-    </row>
-    <row r="842" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D842" s="2"/>
-    </row>
-    <row r="843" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D843" s="2"/>
-    </row>
-    <row r="844" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D844" s="2"/>
-    </row>
-    <row r="845" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D845" s="2"/>
-    </row>
-    <row r="846" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D846" s="2"/>
-    </row>
-    <row r="847" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D847" s="2"/>
-    </row>
-    <row r="848" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D848" s="2"/>
-    </row>
-    <row r="849" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D849" s="2"/>
-    </row>
-    <row r="850" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D850" s="2"/>
-    </row>
-    <row r="851" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D851" s="2"/>
-    </row>
-    <row r="852" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D852" s="2"/>
-    </row>
-    <row r="853" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D853" s="2"/>
-    </row>
-    <row r="854" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D854" s="2"/>
-    </row>
-    <row r="855" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D855" s="2"/>
-    </row>
-    <row r="856" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D856" s="2"/>
-    </row>
-    <row r="857" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D857" s="2"/>
-    </row>
-    <row r="858" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D858" s="2"/>
-    </row>
-    <row r="859" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D859" s="2"/>
-    </row>
-    <row r="860" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D860" s="2"/>
-    </row>
-    <row r="861" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D861" s="2"/>
-    </row>
-    <row r="862" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D862" s="2"/>
-    </row>
-    <row r="863" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D863" s="2"/>
-    </row>
-    <row r="864" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D864" s="2"/>
-    </row>
-    <row r="865" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D865" s="2"/>
-    </row>
-    <row r="866" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D866" s="2"/>
-    </row>
-    <row r="867" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D867" s="2"/>
-    </row>
-    <row r="868" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D868" s="2"/>
-    </row>
-    <row r="869" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D869" s="2"/>
-    </row>
-    <row r="870" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D870" s="2"/>
-    </row>
-    <row r="871" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D871" s="2"/>
-    </row>
-    <row r="872" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D872" s="2"/>
-    </row>
-    <row r="873" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D873" s="2"/>
-    </row>
-    <row r="874" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D874" s="2"/>
-    </row>
-    <row r="875" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D875" s="2"/>
-    </row>
-    <row r="876" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D876" s="2"/>
-    </row>
-    <row r="877" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D877" s="2"/>
-    </row>
-    <row r="878" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D878" s="2"/>
-    </row>
-    <row r="879" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D879" s="2"/>
-    </row>
-    <row r="880" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D880" s="2"/>
-    </row>
-    <row r="881" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D881" s="2"/>
-    </row>
-    <row r="882" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D882" s="2"/>
-    </row>
-    <row r="883" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D883" s="2"/>
-    </row>
-    <row r="884" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D884" s="2"/>
-    </row>
-    <row r="885" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D885" s="2"/>
-    </row>
-    <row r="886" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D886" s="2"/>
-    </row>
-    <row r="887" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D887" s="2"/>
-    </row>
-    <row r="888" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D888" s="2"/>
-    </row>
-    <row r="889" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D889" s="2"/>
-    </row>
-    <row r="890" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D890" s="2"/>
-    </row>
-    <row r="891" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D891" s="2"/>
-    </row>
-    <row r="892" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D892" s="2"/>
-    </row>
-    <row r="893" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D893" s="2"/>
-    </row>
-    <row r="894" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D894" s="2"/>
-    </row>
-    <row r="895" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D895" s="2"/>
-    </row>
-    <row r="896" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D896" s="2"/>
-    </row>
-    <row r="897" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D897" s="2"/>
-    </row>
-    <row r="898" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D898" s="2"/>
-    </row>
-    <row r="899" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D899" s="2"/>
-    </row>
-    <row r="900" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D900" s="2"/>
-    </row>
-    <row r="901" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D901" s="2"/>
-    </row>
-    <row r="902" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D902" s="2"/>
-    </row>
-    <row r="903" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D903" s="2"/>
-    </row>
-    <row r="904" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D904" s="2"/>
-    </row>
-    <row r="905" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D905" s="2"/>
-    </row>
-    <row r="906" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D906" s="2"/>
-    </row>
-    <row r="907" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D907" s="2"/>
-    </row>
-    <row r="908" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D908" s="2"/>
-    </row>
-    <row r="909" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D909" s="2"/>
-    </row>
-    <row r="910" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D910" s="2"/>
-    </row>
-    <row r="911" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D911" s="2"/>
-    </row>
-    <row r="912" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D912" s="2"/>
-    </row>
-    <row r="913" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D913" s="2"/>
-    </row>
-    <row r="914" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D914" s="2"/>
-    </row>
-    <row r="915" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D915" s="2"/>
-    </row>
-    <row r="916" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D916" s="2"/>
-    </row>
-    <row r="917" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D917" s="2"/>
-    </row>
-    <row r="918" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D918" s="2"/>
-    </row>
-    <row r="919" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D919" s="2"/>
-    </row>
-    <row r="920" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D920" s="2"/>
-    </row>
-    <row r="921" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D921" s="2"/>
-    </row>
-    <row r="922" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D922" s="2"/>
-    </row>
-    <row r="923" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D923" s="2"/>
-    </row>
-    <row r="924" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D924" s="2"/>
-    </row>
-    <row r="925" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D925" s="2"/>
-    </row>
-    <row r="926" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D926" s="2"/>
-    </row>
-    <row r="927" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D927" s="2"/>
-    </row>
-    <row r="928" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D928" s="2"/>
-    </row>
-    <row r="929" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D929" s="2"/>
-    </row>
-    <row r="930" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D930" s="2"/>
-    </row>
-    <row r="931" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D931" s="2"/>
-    </row>
-    <row r="932" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D932" s="2"/>
-    </row>
-    <row r="933" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D933" s="2"/>
-    </row>
-    <row r="934" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D934" s="2"/>
-    </row>
-    <row r="935" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D935" s="2"/>
-    </row>
-    <row r="936" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D936" s="2"/>
-    </row>
-    <row r="937" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D937" s="2"/>
-    </row>
-    <row r="938" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D938" s="2"/>
-    </row>
-    <row r="939" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D939" s="2"/>
-    </row>
-    <row r="940" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D940" s="2"/>
-    </row>
-    <row r="941" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D941" s="2"/>
-    </row>
-    <row r="942" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D942" s="2"/>
-    </row>
-    <row r="943" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D943" s="2"/>
-    </row>
-    <row r="944" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D944" s="2"/>
-    </row>
-    <row r="945" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D945" s="2"/>
-    </row>
-    <row r="946" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D946" s="2"/>
-    </row>
-    <row r="947" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D947" s="2"/>
-    </row>
-    <row r="948" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D948" s="2"/>
-    </row>
-    <row r="949" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D949" s="2"/>
-    </row>
-    <row r="950" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D950" s="2"/>
-    </row>
-    <row r="951" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D951" s="2"/>
-    </row>
-    <row r="952" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D952" s="2"/>
-    </row>
-    <row r="953" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D953" s="2"/>
-    </row>
-    <row r="954" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D954" s="2"/>
-    </row>
-    <row r="955" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D955" s="2"/>
-    </row>
-    <row r="956" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D956" s="2"/>
-    </row>
-    <row r="957" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D957" s="2"/>
-    </row>
-    <row r="958" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D958" s="2"/>
-    </row>
-    <row r="959" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D959" s="2"/>
-    </row>
-    <row r="960" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D960" s="2"/>
-    </row>
-    <row r="961" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D961" s="2"/>
-    </row>
-    <row r="962" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D962" s="2"/>
-    </row>
-    <row r="963" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D963" s="2"/>
-    </row>
-    <row r="964" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D964" s="2"/>
-    </row>
-    <row r="965" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D965" s="2"/>
-    </row>
-    <row r="966" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D966" s="2"/>
-    </row>
-    <row r="967" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D967" s="2"/>
-    </row>
-    <row r="968" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D968" s="2"/>
-    </row>
-    <row r="969" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D969" s="2"/>
-    </row>
-    <row r="970" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D970" s="2"/>
-    </row>
-    <row r="971" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D971" s="2"/>
-    </row>
-    <row r="972" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D972" s="2"/>
-    </row>
-    <row r="973" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D973" s="2"/>
-    </row>
-    <row r="974" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D974" s="2"/>
-    </row>
-    <row r="975" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D975" s="2"/>
-    </row>
-    <row r="976" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D976" s="2"/>
-    </row>
-    <row r="977" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D977" s="2"/>
-    </row>
-    <row r="978" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D978" s="2"/>
-    </row>
-    <row r="979" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D979" s="2"/>
-    </row>
-    <row r="980" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D980" s="2"/>
-    </row>
-    <row r="981" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D981" s="2"/>
-    </row>
-    <row r="982" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D982" s="2"/>
-    </row>
-    <row r="983" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D983" s="2"/>
-    </row>
-    <row r="984" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D984" s="2"/>
-    </row>
-    <row r="985" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D985" s="2"/>
-    </row>
-    <row r="986" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D986" s="2"/>
-    </row>
-    <row r="987" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D987" s="2"/>
-    </row>
-    <row r="988" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D988" s="2"/>
-    </row>
-    <row r="989" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D989" s="2"/>
-    </row>
-    <row r="990" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D990" s="2"/>
-    </row>
-    <row r="991" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D991" s="2"/>
-    </row>
-    <row r="992" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D992" s="2"/>
-    </row>
-    <row r="993" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D993" s="2"/>
-    </row>
-    <row r="994" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D994" s="2"/>
-    </row>
-    <row r="995" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D995" s="2"/>
-    </row>
-    <row r="996" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D996" s="2"/>
-    </row>
-    <row r="997" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D997" s="2"/>
-    </row>
-    <row r="998" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D998" s="2"/>
-    </row>
-    <row r="999" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D999" s="2"/>
-    </row>
-    <row r="1000" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D1000" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533569\Harshitha_Chetty_Ragava\44663\Mvc\SpreadSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533573\Documents\44663\New folder\Mvc\SpreadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DegreePlan" sheetId="4" r:id="rId4"/>
     <sheet name="Student" sheetId="5" r:id="rId5"/>
     <sheet name="Slot" sheetId="6" r:id="rId6"/>
-    <sheet name="StudentTerm1" sheetId="8" r:id="rId7"/>
+    <sheet name="StudentTerm" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -5762,7 +5762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -9017,7 +9017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533573\Documents\44663\New folder\Mvc\SpreadSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533569\Harshitha_Chetty_Ragava\44663\Mvc\SpreadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
   <si>
     <t>DB</t>
   </si>
@@ -276,9 +276,6 @@
     <t>DegreePlanID(PK)(U,5)</t>
   </si>
   <si>
-    <t>StudentID(U,10)</t>
-  </si>
-  <si>
     <t>DegreePlanAbbrev(U,15)</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>SlotID(PK)(U,5)</t>
   </si>
   <si>
-    <t>DegreePlan(FK)(U,5)</t>
-  </si>
-  <si>
     <t>Term(U,2)</t>
   </si>
   <si>
@@ -328,6 +322,9 @@
   </si>
   <si>
     <t>Fall2019</t>
+  </si>
+  <si>
+    <t>DegreePlanID(FK)(U,5)</t>
   </si>
 </sst>
 </file>
@@ -4640,13 +4637,13 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -4658,13 +4655,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>77</v>
@@ -5762,7 +5759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5778,19 +5775,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6834,12 +6831,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -6848,19 +6847,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9017,8 +9016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9032,19 +9031,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9282,7 +9281,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Slot" sheetId="6" r:id="rId6"/>
     <sheet name="StudentTerm" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t>DB</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>DegreePlanID(FK)(U,5)</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -459,6 +462,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -751,10 +755,11 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>80</v>
       </c>
@@ -767,8 +772,11 @@
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -781,8 +789,12 @@
       <c r="D2" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="str">
+        <f>" new Degree {" &amp;$A$1 &amp; "=" &amp; A2 &amp;","&amp;$B$1 &amp; "=" &amp;B2&amp;","&amp;$C$1&amp;"="&amp;C2&amp; "},"</f>
+        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=1,DegreeAbrrev(U,8)=ACS+2,DegreeName(U,20)=MS ACS + 2 },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -795,8 +807,12 @@
       <c r="D3" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E5" si="0">" new Degree {" &amp;$A$1 &amp; "=" &amp; A3 &amp;","&amp;$B$1 &amp; "=" &amp;B3&amp;","&amp;$C$1&amp;"="&amp;C3&amp; "},"</f>
+        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=2,DegreeAbrrev(U,8)=ACS+DB,DegreeName(U,20)=MS ACS + DB},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -809,8 +825,12 @@
       <c r="D4" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=3,DegreeAbrrev(U,8)=ACS+NF,DegreeName(U,20)=MS ACS + NF},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -822,6 +842,10 @@
       </c>
       <c r="D5" s="12">
         <v>5</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=4,DegreeAbrrev(U,8)=ACS,DegreeName(U,20)=MS ACS},</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1815,7 +1839,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5759,7 +5783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533569\Harshitha_Chetty_Ragava\44663\Mvc\SpreadSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sem 2\44663\Web application\Mvc\SpreadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>Maximum semester possible</t>
   </si>
   <si>
-    <t>Fall intake default 1.5 year plan.</t>
-  </si>
-  <si>
     <t>Android</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Default one and half year plan</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -761,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -770,10 +770,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1855,22 +1855,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1918,7 +1918,7 @@
         <v>542</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>14</v>
@@ -1938,7 +1938,7 @@
         <v>563</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>15</v>
@@ -2078,10 +2078,10 @@
         <v>643</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>644</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -3147,7 +3147,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3162,13 +3162,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4660,8 +4660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4676,19 +4676,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4705,7 +4705,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4722,7 +4722,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
@@ -4787,10 +4787,10 @@
         <v>63</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E7" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5799,19 +5799,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6871,19 +6871,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9055,19 +9055,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9305,7 +9305,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sem 2\44663\Web application\Mvc\SpreadSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533573\Documents\44663\New folder\Mvc\SpreadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -4660,7 +4660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -9040,8 +9040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>533982</v>
@@ -9174,7 +9174,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>533982</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>533982</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>533982</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>533982</v>
@@ -9242,7 +9242,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>533573</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>533573</v>
@@ -9276,7 +9276,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>533573</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>533573</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>533573</v>

--- a/SpreadSheet/Sample Data.xlsx
+++ b/SpreadSheet/Sample Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533573\Documents\44663\New folder\Mvc\SpreadSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533569\Harshitha_Chetty_Ragava\44663\Mvc\SpreadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
   <si>
     <t>DB</t>
   </si>
@@ -294,9 +294,6 @@
     <t>919(U,15)</t>
   </si>
   <si>
-    <t>SlotID(PK)(U,5)</t>
-  </si>
-  <si>
     <t>Term(U,2)</t>
   </si>
   <si>
@@ -321,13 +318,22 @@
     <t>Fall2019</t>
   </si>
   <si>
-    <t>DegreePlanID(FK)(U,5)</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
     <t>Default one and half year plan</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>SlotId(PK)(U,5)</t>
+  </si>
+  <si>
+    <t>DegreePlanId(FK)(U,5)</t>
+  </si>
+  <si>
+    <t>CreditId(FK)(U,5)</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -463,6 +469,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,7 +780,7 @@
         <v>70</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -790,8 +797,8 @@
         <v>5</v>
       </c>
       <c r="E2" t="str">
-        <f>" new Degree {" &amp;$A$1 &amp; "=" &amp; A2 &amp;","&amp;$B$1 &amp; "=" &amp;B2&amp;","&amp;$C$1&amp;"="&amp;C2&amp; "},"</f>
-        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=1,DegreeAbrrev(U,8)=ACS+2,DegreeName(U,20)=MS ACS + 2 },</v>
+        <f>" new Degree {" &amp;$A$1 &amp; "=" &amp; A2 &amp;","&amp;$B$1 &amp; "="&amp;"'"&amp;B2&amp;"'"&amp;","&amp;$C$1&amp;"="&amp;C2&amp; "},"</f>
+        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=1,DegreeAbrrev(U,8)='ACS+2',DegreeName(U,20)=MS ACS + 2 },</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,8 +815,8 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E5" si="0">" new Degree {" &amp;$A$1 &amp; "=" &amp; A3 &amp;","&amp;$B$1 &amp; "=" &amp;B3&amp;","&amp;$C$1&amp;"="&amp;C3&amp; "},"</f>
-        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=2,DegreeAbrrev(U,8)=ACS+DB,DegreeName(U,20)=MS ACS + DB},</v>
+        <f t="shared" ref="E3:E5" si="0">" new Degree {" &amp;$A$1 &amp; "=" &amp; A3 &amp;","&amp;$B$1 &amp; "="&amp;"'"&amp;B3&amp;"'"&amp;","&amp;$C$1&amp;"="&amp;C3&amp; "},"</f>
+        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=2,DegreeAbrrev(U,8)='ACS+DB',DegreeName(U,20)=MS ACS + DB},</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -827,7 +834,7 @@
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=3,DegreeAbrrev(U,8)=ACS+NF,DegreeName(U,20)=MS ACS + NF},</v>
+        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=3,DegreeAbrrev(U,8)='ACS+NF',DegreeName(U,20)=MS ACS + NF},</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -845,7 +852,7 @@
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=4,DegreeAbrrev(U,8)=ACS,DegreeName(U,20)=MS ACS},</v>
+        <v xml:space="preserve"> new Degree {DegreeID(PK)(U,5)=4,DegreeAbrrev(U,8)='ACS',DegreeName(U,20)=MS ACS},</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4679,7 +4686,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>82</v>
@@ -4787,7 +4794,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="12">
         <v>3</v>
@@ -6853,10 +6860,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E999"/>
+  <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6866,27 +6873,31 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="102.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -6902,8 +6913,12 @@
       <c r="E2" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="str">
+        <f xml:space="preserve"> " new Slot {"&amp;$A$1&amp;"="&amp;A2&amp;","&amp;$B$1&amp;"="&amp;B2&amp;","&amp;$C$1&amp;"="&amp;C2&amp;","&amp;$D$1&amp;"="&amp;D2&amp;","&amp;$E$1&amp;"="&amp;"'"&amp;E2&amp; "'"&amp;"},"</f>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=1,DegreePlanId(FK)(U,5)=7251,Term(U,2)=1,CreditId(FK)(U,5)=542,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -6919,8 +6934,12 @@
       <c r="E3" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="str">
+        <f xml:space="preserve"> " new Slot {"&amp;$A$1&amp;"="&amp;A3&amp;","&amp;$B$1&amp;"="&amp;B3&amp;","&amp;$C$1&amp;"="&amp;C3&amp;","&amp;$D$1&amp;"="&amp;D3&amp;","&amp;$E$1&amp;"="&amp;"'"&amp;E3&amp; "'"&amp;"},"</f>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=2,DegreePlanId(FK)(U,5)=7251,Term(U,2)=1,CreditId(FK)(U,5)=563,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -6936,8 +6955,12 @@
       <c r="E4" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1" t="str">
+        <f t="shared" ref="F4:F67" si="0" xml:space="preserve"> " new Slot {"&amp;$A$1&amp;"="&amp;A4&amp;","&amp;$B$1&amp;"="&amp;B4&amp;","&amp;$C$1&amp;"="&amp;C4&amp;","&amp;$D$1&amp;"="&amp;D4&amp;","&amp;$E$1&amp;"="&amp;"'"&amp;E4&amp; "'"&amp;"},"</f>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=3,DegreePlanId(FK)(U,5)=7251,Term(U,2)=1,CreditId(FK)(U,5)=560,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -6953,8 +6976,12 @@
       <c r="E5" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=4,DegreePlanId(FK)(U,5)=7251,Term(U,2)=2,CreditId(FK)(U,5)=664,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -6970,8 +6997,12 @@
       <c r="E6" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=5,DegreePlanId(FK)(U,5)=7251,Term(U,2)=2,CreditId(FK)(U,5)=6,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -6987,8 +7018,12 @@
       <c r="E7" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=6,DegreePlanId(FK)(U,5)=7251,Term(U,2)=2,CreditId(FK)(U,5)=10,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -7004,8 +7039,12 @@
       <c r="E8" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=7,DegreePlanId(FK)(U,5)=7251,Term(U,2)=3,CreditId(FK)(U,5)=618,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -7021,8 +7060,12 @@
       <c r="E9" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=8,DegreePlanId(FK)(U,5)=7251,Term(U,2)=3,CreditId(FK)(U,5)=691,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -7038,8 +7081,12 @@
       <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=9,DegreePlanId(FK)(U,5)=7251,Term(U,2)=4,CreditId(FK)(U,5)=692,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -7055,8 +7102,12 @@
       <c r="E11" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=10,DegreePlanId(FK)(U,5)=7251,Term(U,2)=4,CreditId(FK)(U,5)=20,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -7072,8 +7123,12 @@
       <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=11,DegreePlanId(FK)(U,5)=7251,Term(U,2)=4,CreditId(FK)(U,5)=555,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -7089,8 +7144,12 @@
       <c r="E13" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=12,DegreePlanId(FK)(U,5)=7252,Term(U,2)=1,CreditId(FK)(U,5)=664,Status(U,1)='p'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -7106,8 +7165,12 @@
       <c r="E14" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=13,DegreePlanId(FK)(U,5)=7252,Term(U,2)=1,CreditId(FK)(U,5)=64,Status(U,1)='p'},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -7123,8 +7186,12 @@
       <c r="E15" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=14,DegreePlanId(FK)(U,5)=7252,Term(U,2)=1,CreditId(FK)(U,5)=10,Status(U,1)='p'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -7140,8 +7207,12 @@
       <c r="E16" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=15,DegreePlanId(FK)(U,5)=7252,Term(U,2)=2,CreditId(FK)(U,5)=691,Status(U,1)='p'},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -7157,8 +7228,12 @@
       <c r="E17" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=16,DegreePlanId(FK)(U,5)=7252,Term(U,2)=2,CreditId(FK)(U,5)=555,Status(U,1)='p'},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -7174,8 +7249,12 @@
       <c r="E18" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=17,DegreePlanId(FK)(U,5)=7252,Term(U,2)=2,CreditId(FK)(U,5)=618,Status(U,1)='p'},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -7191,8 +7270,12 @@
       <c r="E19" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=18,DegreePlanId(FK)(U,5)=7252,Term(U,2)=3,CreditId(FK)(U,5)=460,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -7208,8 +7291,12 @@
       <c r="E20" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=19,DegreePlanId(FK)(U,5)=7252,Term(U,2)=3,CreditId(FK)(U,5)=542,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -7225,8 +7312,12 @@
       <c r="E21" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=20,DegreePlanId(FK)(U,5)=7252,Term(U,2)=3,CreditId(FK)(U,5)=563,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -7242,8 +7333,12 @@
       <c r="E22" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=21,DegreePlanId(FK)(U,5)=7252,Term(U,2)=4,CreditId(FK)(U,5)=560,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -7259,8 +7354,12 @@
       <c r="E23" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=22,DegreePlanId(FK)(U,5)=7252,Term(U,2)=4,CreditId(FK)(U,5)=20,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -7276,8 +7375,12 @@
       <c r="E24" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=23,DegreePlanId(FK)(U,5)=7252,Term(U,2)=4,CreditId(FK)(U,5)=692,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -7293,8 +7396,12 @@
       <c r="E25" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=24,DegreePlanId(FK)(U,5)=7253,Term(U,2)=1,CreditId(FK)(U,5)=542,Status(U,1)='p'},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -7310,8 +7417,12 @@
       <c r="E26" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=25,DegreePlanId(FK)(U,5)=7253,Term(U,2)=1,CreditId(FK)(U,5)=563,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -7327,8 +7438,12 @@
       <c r="E27" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=26,DegreePlanId(FK)(U,5)=7253,Term(U,2)=1,CreditId(FK)(U,5)=460,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -7344,8 +7459,12 @@
       <c r="E28" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=27,DegreePlanId(FK)(U,5)=7253,Term(U,2)=2,CreditId(FK)(U,5)=560,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -7361,8 +7480,12 @@
       <c r="E29" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=28,DegreePlanId(FK)(U,5)=7253,Term(U,2)=2,CreditId(FK)(U,5)=664,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -7378,8 +7501,12 @@
       <c r="E30" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=29,DegreePlanId(FK)(U,5)=7253,Term(U,2)=2,CreditId(FK)(U,5)=64,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -7395,8 +7522,12 @@
       <c r="E31" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=30,DegreePlanId(FK)(U,5)=7253,Term(U,2)=3,CreditId(FK)(U,5)=691,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -7412,8 +7543,12 @@
       <c r="E32" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=31,DegreePlanId(FK)(U,5)=7253,Term(U,2)=3,CreditId(FK)(U,5)=10,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -7429,8 +7564,12 @@
       <c r="E33" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=32,DegreePlanId(FK)(U,5)=7253,Term(U,2)=3,CreditId(FK)(U,5)=555,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -7446,8 +7585,12 @@
       <c r="E34" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=33,DegreePlanId(FK)(U,5)=7253,Term(U,2)=4,CreditId(FK)(U,5)=692,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -7463,8 +7606,12 @@
       <c r="E35" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=34,DegreePlanId(FK)(U,5)=7253,Term(U,2)=4,CreditId(FK)(U,5)=20,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -7480,8 +7627,12 @@
       <c r="E36" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=35,DegreePlanId(FK)(U,5)=7253,Term(U,2)=4,CreditId(FK)(U,5)=356,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -7497,8 +7648,12 @@
       <c r="E37" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=36,DegreePlanId(FK)(U,5)=7254,Term(U,2)=1,CreditId(FK)(U,5)=460,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -7514,8 +7669,12 @@
       <c r="E38" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=37,DegreePlanId(FK)(U,5)=7254,Term(U,2)=1,CreditId(FK)(U,5)=542,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -7531,8 +7690,12 @@
       <c r="E39" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=38,DegreePlanId(FK)(U,5)=7254,Term(U,2)=1,CreditId(FK)(U,5)=356,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -7548,8 +7711,12 @@
       <c r="E40" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=39,DegreePlanId(FK)(U,5)=7254,Term(U,2)=2,CreditId(FK)(U,5)=563,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -7565,8 +7732,12 @@
       <c r="E41" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=40,DegreePlanId(FK)(U,5)=7254,Term(U,2)=2,CreditId(FK)(U,5)=560,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -7582,8 +7753,12 @@
       <c r="E42" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=41,DegreePlanId(FK)(U,5)=7254,Term(U,2)=2,CreditId(FK)(U,5)=664,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -7599,8 +7774,12 @@
       <c r="E43" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=42,DegreePlanId(FK)(U,5)=7254,Term(U,2)=3,CreditId(FK)(U,5)=618,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -7616,8 +7795,12 @@
       <c r="E44" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=43,DegreePlanId(FK)(U,5)=7254,Term(U,2)=3,CreditId(FK)(U,5)=555,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -7633,8 +7816,12 @@
       <c r="E45" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=44,DegreePlanId(FK)(U,5)=7254,Term(U,2)=3,CreditId(FK)(U,5)=691,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -7650,8 +7837,12 @@
       <c r="E46" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=45,DegreePlanId(FK)(U,5)=7254,Term(U,2)=4,CreditId(FK)(U,5)=692,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -7667,8 +7858,12 @@
       <c r="E47" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=46,DegreePlanId(FK)(U,5)=7254,Term(U,2)=4,CreditId(FK)(U,5)=10,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -7684,8 +7879,12 @@
       <c r="E48" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=47,DegreePlanId(FK)(U,5)=7254,Term(U,2)=4,CreditId(FK)(U,5)=64,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -7701,8 +7900,12 @@
       <c r="E49" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=48,DegreePlanId(FK)(U,5)=7255,Term(U,2)=1,CreditId(FK)(U,5)=356,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -7718,8 +7921,12 @@
       <c r="E50" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=49,DegreePlanId(FK)(U,5)=7255,Term(U,2)=1,CreditId(FK)(U,5)=563,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -7735,8 +7942,12 @@
       <c r="E51" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=50,DegreePlanId(FK)(U,5)=7255,Term(U,2)=1,CreditId(FK)(U,5)=542,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -7752,8 +7963,12 @@
       <c r="E52" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=51,DegreePlanId(FK)(U,5)=7255,Term(U,2)=2,CreditId(FK)(U,5)=555,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -7769,8 +7984,12 @@
       <c r="E53" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=52,DegreePlanId(FK)(U,5)=7255,Term(U,2)=2,CreditId(FK)(U,5)=644,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -7786,8 +8005,12 @@
       <c r="E54" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=53,DegreePlanId(FK)(U,5)=7255,Term(U,2)=2,CreditId(FK)(U,5)=560,Status(U,1)='C'},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -7803,8 +8026,12 @@
       <c r="E55" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=54,DegreePlanId(FK)(U,5)=7255,Term(U,2)=3,CreditId(FK)(U,5)=618,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -7820,8 +8047,12 @@
       <c r="E56" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=55,DegreePlanId(FK)(U,5)=7255,Term(U,2)=3,CreditId(FK)(U,5)=691,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -7837,8 +8068,12 @@
       <c r="E57" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=56,DegreePlanId(FK)(U,5)=7255,Term(U,2)=4,CreditId(FK)(U,5)=692,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -7854,8 +8089,12 @@
       <c r="E58" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=57,DegreePlanId(FK)(U,5)=7255,Term(U,2)=4,CreditId(FK)(U,5)=643,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -7871,8 +8110,12 @@
       <c r="E59" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1">
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=58,DegreePlanId(FK)(U,5)=7255,Term(U,2)=4,CreditId(FK)(U,5)=10,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -7888,8 +8131,12 @@
       <c r="E60" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=59,DegreePlanId(FK)(U,5)=7255,Term(U,2)=5,CreditId(FK)(U,5)=664,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -7905,8 +8152,12 @@
       <c r="E61" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=60,DegreePlanId(FK)(U,5)=7256,Term(U,2)=1,CreditId(FK)(U,5)=356,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -7922,8 +8173,12 @@
       <c r="E62" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=61,DegreePlanId(FK)(U,5)=7256,Term(U,2)=1,CreditId(FK)(U,5)=563,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -7939,8 +8194,12 @@
       <c r="E63" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=62,DegreePlanId(FK)(U,5)=7256,Term(U,2)=1,CreditId(FK)(U,5)=542,Status(U,1)='A'},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -7956,8 +8215,12 @@
       <c r="E64" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=63,DegreePlanId(FK)(U,5)=7256,Term(U,2)=2,CreditId(FK)(U,5)=555,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -7973,8 +8236,12 @@
       <c r="E65" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=64,DegreePlanId(FK)(U,5)=7256,Term(U,2)=2,CreditId(FK)(U,5)=644,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -7990,8 +8257,12 @@
       <c r="E66" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=65,DegreePlanId(FK)(U,5)=7256,Term(U,2)=2,CreditId(FK)(U,5)=560,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -8007,8 +8278,12 @@
       <c r="E67" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=66,DegreePlanId(FK)(U,5)=7256,Term(U,2)=3,CreditId(FK)(U,5)=618,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -8024,8 +8299,12 @@
       <c r="E68" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F68" s="1" t="str">
+        <f t="shared" ref="F68:F72" si="1" xml:space="preserve"> " new Slot {"&amp;$A$1&amp;"="&amp;A68&amp;","&amp;$B$1&amp;"="&amp;B68&amp;","&amp;$C$1&amp;"="&amp;C68&amp;","&amp;$D$1&amp;"="&amp;D68&amp;","&amp;$E$1&amp;"="&amp;"'"&amp;E68&amp; "'"&amp;"},"</f>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=67,DegreePlanId(FK)(U,5)=7256,Term(U,2)=3,CreditId(FK)(U,5)=691,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -8041,8 +8320,12 @@
       <c r="E69" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=68,DegreePlanId(FK)(U,5)=7256,Term(U,2)=4,CreditId(FK)(U,5)=692,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -8058,8 +8341,12 @@
       <c r="E70" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=69,DegreePlanId(FK)(U,5)=7256,Term(U,2)=4,CreditId(FK)(U,5)=643,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -8075,8 +8362,12 @@
       <c r="E71" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=70,DegreePlanId(FK)(U,5)=7256,Term(U,2)=5,CreditId(FK)(U,5)=10,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -8092,25 +8383,29 @@
       <c r="E72" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> new Slot {SlotId(PK)(U,5)=71,DegreePlanId(FK)(U,5)=7256,Term(U,2)=5,CreditId(FK)(U,5)=664,Status(U,1)='P'},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -9040,8 +9335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9055,19 +9350,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9305,7 +9600,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5">
